--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7017" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7065" uniqueCount="1022">
   <si>
     <t>subject</t>
   </si>
@@ -3065,6 +3065,24 @@
   </si>
   <si>
     <t>230410_141657</t>
+  </si>
+  <si>
+    <t>230410_142150</t>
+  </si>
+  <si>
+    <t>230410_143622</t>
+  </si>
+  <si>
+    <t>230410_144300</t>
+  </si>
+  <si>
+    <t>230410_144515</t>
+  </si>
+  <si>
+    <t>230410_145010</t>
+  </si>
+  <si>
+    <t>230410_145033</t>
   </si>
 </sst>
 </file>
@@ -3770,7 +3788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H870"/>
+  <dimension ref="A1:H876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26406,6 +26424,162 @@
         <v>996</v>
       </c>
     </row>
+    <row r="871" spans="1:8">
+      <c r="A871" t="s">
+        <v>10</v>
+      </c>
+      <c r="B871" t="s">
+        <v>998</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E871" t="s">
+        <v>986</v>
+      </c>
+      <c r="F871" t="s">
+        <v>990</v>
+      </c>
+      <c r="G871" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H871" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="A872" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B872" t="s">
+        <v>998</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E872" t="s">
+        <v>986</v>
+      </c>
+      <c r="F872" t="s">
+        <v>990</v>
+      </c>
+      <c r="G872" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H872" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8">
+      <c r="A873" t="s">
+        <v>10</v>
+      </c>
+      <c r="B873" t="s">
+        <v>998</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E873" t="s">
+        <v>986</v>
+      </c>
+      <c r="F873" t="s">
+        <v>990</v>
+      </c>
+      <c r="G873" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H873" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B874" t="s">
+        <v>998</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E874" t="s">
+        <v>986</v>
+      </c>
+      <c r="F874" t="s">
+        <v>990</v>
+      </c>
+      <c r="G874" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H874" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="A875" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B875" t="s">
+        <v>998</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E875" t="s">
+        <v>986</v>
+      </c>
+      <c r="F875" t="s">
+        <v>990</v>
+      </c>
+      <c r="G875" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H875" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="A876" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B876" t="s">
+        <v>998</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E876" t="s">
+        <v>986</v>
+      </c>
+      <c r="F876" t="s">
+        <v>990</v>
+      </c>
+      <c r="G876" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H876" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\oqni\Recordings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E2BFE1-618B-4059-87E8-CEBC8479288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6883" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="1001">
   <si>
     <t>subject</t>
   </si>
@@ -3008,13 +3002,34 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>BL-003</t>
+  </si>
+  <si>
+    <t>BL-003_001_230411</t>
+  </si>
+  <si>
+    <t>230411_175837</t>
+  </si>
+  <si>
+    <t>Short#1</t>
+  </si>
+  <si>
+    <t>Armen S.x</t>
+  </si>
+  <si>
+    <t>230411_182245</t>
+  </si>
+  <si>
+    <t>230411_182307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3029,6 +3044,9 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3084,14 +3102,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3415,20 +3425,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3468,7 +3476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>991</v>
       </c>
@@ -3594,14 +3602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3609,15 +3617,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -3625,17 +3633,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3.1</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3.2</v>
       </c>
@@ -3651,15 +3659,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>4.2</v>
       </c>
@@ -3673,14 +3681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3713,7 +3721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3727,14 +3735,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H853"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H856"/>
   <sheetViews>
-    <sheetView topLeftCell="A827" workbookViewId="0">
-      <selection activeCell="D841" sqref="D841"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
@@ -3746,7 +3752,7 @@
     <col min="8" max="8" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4864,7 +4870,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5364,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -6190,7 +6196,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -6762,7 +6768,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -6840,7 +6846,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7236,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7288,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -7594,7 +7600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -7698,7 +7704,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -7984,7 +7990,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -8036,7 +8042,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -8374,7 +8380,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -8946,7 +8952,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -8998,7 +9004,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -9310,7 +9316,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9368,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +9524,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +9758,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -9778,7 +9784,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -9830,7 +9836,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -9856,7 +9862,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -9882,7 +9888,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -9934,7 +9940,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -10064,7 +10070,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -10090,7 +10096,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -10116,7 +10122,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -10142,7 +10148,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -10168,7 +10174,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10220,7 +10226,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -10272,7 +10278,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -10376,7 +10382,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -10506,7 +10512,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -10532,7 +10538,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -10558,7 +10564,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -10636,7 +10642,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -10818,7 +10824,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -10948,7 +10954,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +11032,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -11052,7 +11058,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -11104,7 +11110,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -11130,7 +11136,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -11208,7 +11214,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -11234,7 +11240,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -11260,7 +11266,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11312,7 +11318,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -11338,7 +11344,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -11416,7 +11422,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -11442,7 +11448,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -11468,7 +11474,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -11494,7 +11500,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -11624,7 +11630,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -11676,7 +11682,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -11702,7 +11708,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -11728,7 +11734,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -11754,7 +11760,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -11858,7 +11864,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>14</v>
       </c>
@@ -11884,7 +11890,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>14</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -11936,7 +11942,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -11988,7 +11994,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -12092,7 +12098,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -12170,7 +12176,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -12274,7 +12280,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -12300,7 +12306,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -12404,7 +12410,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -12430,7 +12436,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -12456,7 +12462,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -12482,7 +12488,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>14</v>
       </c>
@@ -12508,7 +12514,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -12560,7 +12566,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -12586,7 +12592,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -12638,7 +12644,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -12716,7 +12722,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>16</v>
       </c>
@@ -12742,7 +12748,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>16</v>
       </c>
@@ -12768,7 +12774,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>16</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -12820,7 +12826,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>16</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -12898,7 +12904,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -12924,7 +12930,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>16</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -12976,7 +12982,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -13028,7 +13034,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>8</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13112,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -13210,7 +13216,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -13236,7 +13242,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -13262,7 +13268,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -13340,7 +13346,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -13444,7 +13450,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -13496,7 +13502,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -13522,7 +13528,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -13652,7 +13658,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -13704,7 +13710,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -13756,7 +13762,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -13808,7 +13814,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -13860,7 +13866,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -13886,7 +13892,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -13938,7 +13944,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -13964,7 +13970,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -14042,7 +14048,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -14146,7 +14152,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -14224,7 +14230,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -14250,7 +14256,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>8</v>
       </c>
@@ -14276,7 +14282,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -14302,7 +14308,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -14328,7 +14334,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -14354,7 +14360,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -14380,7 +14386,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -14432,7 +14438,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -14458,7 +14464,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -14484,7 +14490,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -14510,7 +14516,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -14562,7 +14568,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -14588,7 +14594,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14620,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -14640,7 +14646,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -14666,7 +14672,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -14692,7 +14698,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -14744,7 +14750,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -14770,7 +14776,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>8</v>
       </c>
@@ -14796,7 +14802,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -14822,7 +14828,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -14848,7 +14854,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8">
       <c r="A428" t="s">
         <v>8</v>
       </c>
@@ -14874,7 +14880,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8">
       <c r="A430" t="s">
         <v>8</v>
       </c>
@@ -14926,7 +14932,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -14952,7 +14958,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -14978,7 +14984,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>8</v>
       </c>
@@ -15004,7 +15010,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -15030,7 +15036,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -15056,7 +15062,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>16</v>
       </c>
@@ -15082,7 +15088,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>16</v>
       </c>
@@ -15108,7 +15114,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>16</v>
       </c>
@@ -15134,7 +15140,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>16</v>
       </c>
@@ -15160,7 +15166,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>16</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>16</v>
       </c>
@@ -15212,7 +15218,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>16</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>16</v>
       </c>
@@ -15264,7 +15270,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>16</v>
       </c>
@@ -15290,7 +15296,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>16</v>
       </c>
@@ -15316,7 +15322,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>15</v>
       </c>
@@ -15342,7 +15348,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>15</v>
       </c>
@@ -15420,7 +15426,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>15</v>
       </c>
@@ -15446,7 +15452,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8">
       <c r="A451" t="s">
         <v>15</v>
       </c>
@@ -15472,7 +15478,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -15498,7 +15504,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -15550,7 +15556,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -15576,7 +15582,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -15602,7 +15608,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -15628,7 +15634,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -15654,7 +15660,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -15680,7 +15686,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -15706,7 +15712,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -15732,7 +15738,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -15758,7 +15764,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -15784,7 +15790,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -15810,7 +15816,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -15836,7 +15842,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8">
       <c r="A467" t="s">
         <v>17</v>
       </c>
@@ -15888,7 +15894,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>17</v>
       </c>
@@ -15914,7 +15920,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -15940,7 +15946,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>18</v>
       </c>
@@ -16018,7 +16024,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8">
       <c r="A473" t="s">
         <v>18</v>
       </c>
@@ -16044,7 +16050,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>18</v>
       </c>
@@ -16070,7 +16076,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -16096,7 +16102,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -16122,7 +16128,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -16148,7 +16154,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -16200,7 +16206,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>10</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8">
       <c r="A481" t="s">
         <v>10</v>
       </c>
@@ -16252,7 +16258,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8">
       <c r="A482" t="s">
         <v>10</v>
       </c>
@@ -16278,7 +16284,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8">
       <c r="A483" t="s">
         <v>10</v>
       </c>
@@ -16304,7 +16310,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8">
       <c r="A484" t="s">
         <v>10</v>
       </c>
@@ -16330,7 +16336,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -16356,7 +16362,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8">
       <c r="A486" t="s">
         <v>10</v>
       </c>
@@ -16382,7 +16388,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -16408,7 +16414,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -16460,7 +16466,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -16486,7 +16492,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>10</v>
       </c>
@@ -16512,7 +16518,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8">
       <c r="A492" t="s">
         <v>10</v>
       </c>
@@ -16538,7 +16544,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8">
       <c r="A493" t="s">
         <v>10</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -16590,7 +16596,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -16616,7 +16622,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -16642,7 +16648,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -16668,7 +16674,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -16694,7 +16700,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -16746,7 +16752,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -16772,7 +16778,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8">
       <c r="A502" t="s">
         <v>8</v>
       </c>
@@ -16798,7 +16804,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -16824,7 +16830,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8">
       <c r="A504" t="s">
         <v>8</v>
       </c>
@@ -16850,7 +16856,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -16876,7 +16882,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8">
       <c r="A507" t="s">
         <v>8</v>
       </c>
@@ -16928,7 +16934,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -16954,7 +16960,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8">
       <c r="A509" t="s">
         <v>8</v>
       </c>
@@ -16980,7 +16986,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8">
       <c r="A510" t="s">
         <v>8</v>
       </c>
@@ -17006,7 +17012,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8">
       <c r="A511" t="s">
         <v>8</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8">
       <c r="A512" t="s">
         <v>8</v>
       </c>
@@ -17058,7 +17064,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -17084,7 +17090,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8">
       <c r="A515" t="s">
         <v>8</v>
       </c>
@@ -17136,7 +17142,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8">
       <c r="A516" t="s">
         <v>8</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8">
       <c r="A517" t="s">
         <v>8</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8">
       <c r="A518" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17220,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -17240,7 +17246,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8">
       <c r="A520" t="s">
         <v>8</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8">
       <c r="A522" t="s">
         <v>16</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8">
       <c r="A523" t="s">
         <v>16</v>
       </c>
@@ -17344,7 +17350,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8">
       <c r="A524" t="s">
         <v>16</v>
       </c>
@@ -17370,7 +17376,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8">
       <c r="A525" t="s">
         <v>16</v>
       </c>
@@ -17396,7 +17402,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>16</v>
       </c>
@@ -17422,7 +17428,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8">
       <c r="A527" t="s">
         <v>16</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>16</v>
       </c>
@@ -17474,7 +17480,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>16</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>16</v>
       </c>
@@ -17526,7 +17532,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>16</v>
       </c>
@@ -17552,7 +17558,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>16</v>
       </c>
@@ -17578,7 +17584,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8">
       <c r="A533" t="s">
         <v>16</v>
       </c>
@@ -17604,7 +17610,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
         <v>16</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
         <v>16</v>
       </c>
@@ -17656,7 +17662,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>16</v>
       </c>
@@ -17682,7 +17688,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8">
       <c r="A537" t="s">
         <v>16</v>
       </c>
@@ -17708,7 +17714,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>16</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8">
       <c r="A539" t="s">
         <v>16</v>
       </c>
@@ -17760,7 +17766,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8">
       <c r="A540" t="s">
         <v>16</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8">
       <c r="A541" t="s">
         <v>16</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -17838,7 +17844,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8">
       <c r="A543" t="s">
         <v>15</v>
       </c>
@@ -17864,7 +17870,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8">
       <c r="A544" t="s">
         <v>15</v>
       </c>
@@ -17890,7 +17896,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8">
       <c r="A545" t="s">
         <v>15</v>
       </c>
@@ -17916,7 +17922,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8">
       <c r="A546" t="s">
         <v>15</v>
       </c>
@@ -17942,7 +17948,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8">
       <c r="A547" t="s">
         <v>15</v>
       </c>
@@ -17968,7 +17974,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8">
       <c r="A548" t="s">
         <v>15</v>
       </c>
@@ -17994,7 +18000,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8">
       <c r="A549" t="s">
         <v>15</v>
       </c>
@@ -18020,7 +18026,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8">
       <c r="A550" t="s">
         <v>15</v>
       </c>
@@ -18046,7 +18052,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8">
       <c r="A551" t="s">
         <v>15</v>
       </c>
@@ -18072,7 +18078,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8">
       <c r="A552" t="s">
         <v>15</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8">
       <c r="A553" t="s">
         <v>15</v>
       </c>
@@ -18124,7 +18130,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8">
       <c r="A554" t="s">
         <v>15</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8">
       <c r="A555" t="s">
         <v>15</v>
       </c>
@@ -18176,7 +18182,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>15</v>
       </c>
@@ -18202,7 +18208,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8">
       <c r="A557" t="s">
         <v>15</v>
       </c>
@@ -18228,7 +18234,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8">
       <c r="A558" t="s">
         <v>15</v>
       </c>
@@ -18254,7 +18260,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8">
       <c r="A559" t="s">
         <v>15</v>
       </c>
@@ -18280,7 +18286,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8">
       <c r="A560" t="s">
         <v>15</v>
       </c>
@@ -18306,7 +18312,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8">
       <c r="A561" t="s">
         <v>15</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8">
       <c r="A562" t="s">
         <v>15</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8">
       <c r="A563" t="s">
         <v>16</v>
       </c>
@@ -18384,7 +18390,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8">
       <c r="A564" t="s">
         <v>16</v>
       </c>
@@ -18410,7 +18416,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8">
       <c r="A565" t="s">
         <v>16</v>
       </c>
@@ -18436,7 +18442,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8">
       <c r="A566" t="s">
         <v>16</v>
       </c>
@@ -18462,7 +18468,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8">
       <c r="A567" t="s">
         <v>16</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8">
       <c r="A568" t="s">
         <v>16</v>
       </c>
@@ -18514,7 +18520,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8">
       <c r="A569" t="s">
         <v>16</v>
       </c>
@@ -18540,7 +18546,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8">
       <c r="A570" t="s">
         <v>16</v>
       </c>
@@ -18566,7 +18572,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8">
       <c r="A571" t="s">
         <v>16</v>
       </c>
@@ -18592,7 +18598,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8">
       <c r="A572" t="s">
         <v>16</v>
       </c>
@@ -18618,7 +18624,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8">
       <c r="A573" t="s">
         <v>16</v>
       </c>
@@ -18644,7 +18650,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8">
       <c r="A574" t="s">
         <v>16</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8">
       <c r="A575" t="s">
         <v>16</v>
       </c>
@@ -18696,7 +18702,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8">
       <c r="A576" t="s">
         <v>16</v>
       </c>
@@ -18722,7 +18728,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8">
       <c r="A577" t="s">
         <v>16</v>
       </c>
@@ -18748,7 +18754,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8">
       <c r="A578" t="s">
         <v>16</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8">
       <c r="A579" t="s">
         <v>16</v>
       </c>
@@ -18800,7 +18806,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8">
       <c r="A580" t="s">
         <v>16</v>
       </c>
@@ -18826,7 +18832,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8">
       <c r="A581" t="s">
         <v>16</v>
       </c>
@@ -18852,7 +18858,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8">
       <c r="A582" t="s">
         <v>16</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8">
       <c r="A583" t="s">
         <v>15</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8">
       <c r="A584" t="s">
         <v>15</v>
       </c>
@@ -18930,7 +18936,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -18956,7 +18962,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8">
       <c r="A586" t="s">
         <v>15</v>
       </c>
@@ -18982,7 +18988,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8">
       <c r="A587" t="s">
         <v>15</v>
       </c>
@@ -19008,7 +19014,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8">
       <c r="A588" t="s">
         <v>15</v>
       </c>
@@ -19034,7 +19040,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8">
       <c r="A589" t="s">
         <v>15</v>
       </c>
@@ -19060,7 +19066,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8">
       <c r="A590" t="s">
         <v>15</v>
       </c>
@@ -19086,7 +19092,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8">
       <c r="A591" t="s">
         <v>15</v>
       </c>
@@ -19112,7 +19118,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8">
       <c r="A592" t="s">
         <v>15</v>
       </c>
@@ -19138,7 +19144,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8">
       <c r="A593" t="s">
         <v>15</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8">
       <c r="A594" t="s">
         <v>15</v>
       </c>
@@ -19190,7 +19196,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8">
       <c r="A595" t="s">
         <v>15</v>
       </c>
@@ -19216,7 +19222,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8">
       <c r="A596" t="s">
         <v>15</v>
       </c>
@@ -19242,7 +19248,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8">
       <c r="A597" t="s">
         <v>15</v>
       </c>
@@ -19268,7 +19274,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8">
       <c r="A598" t="s">
         <v>15</v>
       </c>
@@ -19294,7 +19300,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8">
       <c r="A599" t="s">
         <v>15</v>
       </c>
@@ -19320,7 +19326,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8">
       <c r="A600" t="s">
         <v>15</v>
       </c>
@@ -19346,7 +19352,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8">
       <c r="A601" t="s">
         <v>15</v>
       </c>
@@ -19372,7 +19378,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8">
       <c r="A602" t="s">
         <v>15</v>
       </c>
@@ -19398,7 +19404,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8">
       <c r="A603" t="s">
         <v>15</v>
       </c>
@@ -19424,7 +19430,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8">
       <c r="A604" t="s">
         <v>15</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8">
       <c r="A605" t="s">
         <v>15</v>
       </c>
@@ -19476,7 +19482,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8">
       <c r="A606" t="s">
         <v>15</v>
       </c>
@@ -19502,7 +19508,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8">
       <c r="A607" t="s">
         <v>15</v>
       </c>
@@ -19528,7 +19534,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8">
       <c r="A608" t="s">
         <v>15</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8">
       <c r="A609" t="s">
         <v>15</v>
       </c>
@@ -19580,7 +19586,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8">
       <c r="A610" t="s">
         <v>15</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8">
       <c r="A611" t="s">
         <v>15</v>
       </c>
@@ -19632,7 +19638,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8">
       <c r="A612" t="s">
         <v>15</v>
       </c>
@@ -19658,7 +19664,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8">
       <c r="A613" t="s">
         <v>15</v>
       </c>
@@ -19684,7 +19690,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8">
       <c r="A614" t="s">
         <v>15</v>
       </c>
@@ -19710,7 +19716,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8">
       <c r="A615" t="s">
         <v>15</v>
       </c>
@@ -19736,7 +19742,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8">
       <c r="A616" t="s">
         <v>15</v>
       </c>
@@ -19762,7 +19768,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8">
       <c r="A617" t="s">
         <v>15</v>
       </c>
@@ -19788,7 +19794,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8">
       <c r="A618" t="s">
         <v>15</v>
       </c>
@@ -19814,7 +19820,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8">
       <c r="A619" t="s">
         <v>15</v>
       </c>
@@ -19840,7 +19846,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8">
       <c r="A620" t="s">
         <v>15</v>
       </c>
@@ -19866,7 +19872,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8">
       <c r="A621" t="s">
         <v>15</v>
       </c>
@@ -19892,7 +19898,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8">
       <c r="A622" t="s">
         <v>15</v>
       </c>
@@ -19918,7 +19924,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8">
       <c r="A623" t="s">
         <v>15</v>
       </c>
@@ -19944,7 +19950,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8">
       <c r="A624" t="s">
         <v>15</v>
       </c>
@@ -19970,7 +19976,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8">
       <c r="A625" t="s">
         <v>15</v>
       </c>
@@ -19996,7 +20002,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8">
       <c r="A626" t="s">
         <v>15</v>
       </c>
@@ -20022,7 +20028,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8">
       <c r="A627" t="s">
         <v>15</v>
       </c>
@@ -20048,7 +20054,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8">
       <c r="A628" t="s">
         <v>15</v>
       </c>
@@ -20074,7 +20080,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8">
       <c r="A629" t="s">
         <v>15</v>
       </c>
@@ -20100,7 +20106,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8">
       <c r="A630" t="s">
         <v>15</v>
       </c>
@@ -20126,7 +20132,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8">
       <c r="A631" t="s">
         <v>15</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8">
       <c r="A632" t="s">
         <v>15</v>
       </c>
@@ -20178,7 +20184,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8">
       <c r="A633" t="s">
         <v>15</v>
       </c>
@@ -20204,7 +20210,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8">
       <c r="A634" t="s">
         <v>15</v>
       </c>
@@ -20230,7 +20236,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8">
       <c r="A635" t="s">
         <v>15</v>
       </c>
@@ -20256,7 +20262,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8">
       <c r="A636" t="s">
         <v>16</v>
       </c>
@@ -20282,7 +20288,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8">
       <c r="A637" t="s">
         <v>16</v>
       </c>
@@ -20308,7 +20314,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8">
       <c r="A638" t="s">
         <v>16</v>
       </c>
@@ -20334,7 +20340,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8">
       <c r="A639" t="s">
         <v>16</v>
       </c>
@@ -20360,7 +20366,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8">
       <c r="A640" t="s">
         <v>16</v>
       </c>
@@ -20386,7 +20392,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8">
       <c r="A641" t="s">
         <v>16</v>
       </c>
@@ -20412,7 +20418,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8">
       <c r="A642" t="s">
         <v>16</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8">
       <c r="A643" t="s">
         <v>16</v>
       </c>
@@ -20464,7 +20470,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8">
       <c r="A644" t="s">
         <v>16</v>
       </c>
@@ -20490,7 +20496,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8">
       <c r="A645" t="s">
         <v>16</v>
       </c>
@@ -20516,7 +20522,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8">
       <c r="A646" t="s">
         <v>16</v>
       </c>
@@ -20542,7 +20548,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8">
       <c r="A647" t="s">
         <v>16</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8">
       <c r="A648" t="s">
         <v>16</v>
       </c>
@@ -20594,7 +20600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8">
       <c r="A649" t="s">
         <v>16</v>
       </c>
@@ -20620,7 +20626,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8">
       <c r="A650" t="s">
         <v>16</v>
       </c>
@@ -20646,7 +20652,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8">
       <c r="A651" t="s">
         <v>16</v>
       </c>
@@ -20672,7 +20678,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8">
       <c r="A652" t="s">
         <v>16</v>
       </c>
@@ -20698,7 +20704,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8">
       <c r="A653" t="s">
         <v>16</v>
       </c>
@@ -20724,7 +20730,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8">
       <c r="A654" t="s">
         <v>16</v>
       </c>
@@ -20750,7 +20756,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8">
       <c r="A655" t="s">
         <v>16</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8">
       <c r="A656" t="s">
         <v>2</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8">
       <c r="A657" t="s">
         <v>2</v>
       </c>
@@ -20828,7 +20834,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8">
       <c r="A658" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +20860,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8">
       <c r="A659" t="s">
         <v>2</v>
       </c>
@@ -20880,7 +20886,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8">
       <c r="A660" t="s">
         <v>2</v>
       </c>
@@ -20906,7 +20912,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8">
       <c r="A661" t="s">
         <v>2</v>
       </c>
@@ -20932,7 +20938,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8">
       <c r="A662" t="s">
         <v>2</v>
       </c>
@@ -20958,7 +20964,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8">
       <c r="A663" t="s">
         <v>2</v>
       </c>
@@ -20984,7 +20990,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8">
       <c r="A664" t="s">
         <v>2</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8">
       <c r="A665" t="s">
         <v>2</v>
       </c>
@@ -21036,7 +21042,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8">
       <c r="A666" t="s">
         <v>2</v>
       </c>
@@ -21062,7 +21068,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8">
       <c r="A667" t="s">
         <v>2</v>
       </c>
@@ -21088,7 +21094,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8">
       <c r="A668" t="s">
         <v>2</v>
       </c>
@@ -21114,7 +21120,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8">
       <c r="A669" t="s">
         <v>2</v>
       </c>
@@ -21140,7 +21146,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8">
       <c r="A670" t="s">
         <v>2</v>
       </c>
@@ -21166,7 +21172,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8">
       <c r="A671" t="s">
         <v>2</v>
       </c>
@@ -21192,7 +21198,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8">
       <c r="A672" t="s">
         <v>2</v>
       </c>
@@ -21218,7 +21224,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8">
       <c r="A673" t="s">
         <v>2</v>
       </c>
@@ -21244,7 +21250,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8">
       <c r="A674" t="s">
         <v>2</v>
       </c>
@@ -21270,7 +21276,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8">
       <c r="A675" t="s">
         <v>2</v>
       </c>
@@ -21296,7 +21302,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8">
       <c r="A676" t="s">
         <v>2</v>
       </c>
@@ -21322,7 +21328,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8">
       <c r="A677" t="s">
         <v>2</v>
       </c>
@@ -21348,7 +21354,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8">
       <c r="A678" t="s">
         <v>2</v>
       </c>
@@ -21374,7 +21380,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8">
       <c r="A679" t="s">
         <v>2</v>
       </c>
@@ -21400,7 +21406,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8">
       <c r="A680" t="s">
         <v>2</v>
       </c>
@@ -21426,7 +21432,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8">
       <c r="A681" t="s">
         <v>2</v>
       </c>
@@ -21452,7 +21458,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8">
       <c r="A682" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21484,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8">
       <c r="A683" t="s">
         <v>2</v>
       </c>
@@ -21504,7 +21510,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8">
       <c r="A684" t="s">
         <v>2</v>
       </c>
@@ -21530,7 +21536,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8">
       <c r="A685" t="s">
         <v>2</v>
       </c>
@@ -21556,7 +21562,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8">
       <c r="A686" t="s">
         <v>2</v>
       </c>
@@ -21582,7 +21588,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8">
       <c r="A687" t="s">
         <v>2</v>
       </c>
@@ -21608,7 +21614,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8">
       <c r="A688" t="s">
         <v>2</v>
       </c>
@@ -21634,7 +21640,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8">
       <c r="A689" t="s">
         <v>2</v>
       </c>
@@ -21660,7 +21666,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8">
       <c r="A690" t="s">
         <v>2</v>
       </c>
@@ -21686,7 +21692,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8">
       <c r="A691" t="s">
         <v>2</v>
       </c>
@@ -21712,7 +21718,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8">
       <c r="A692" t="s">
         <v>2</v>
       </c>
@@ -21738,7 +21744,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8">
       <c r="A693" t="s">
         <v>2</v>
       </c>
@@ -21764,7 +21770,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8">
       <c r="A694" t="s">
         <v>2</v>
       </c>
@@ -21790,7 +21796,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8">
       <c r="A695" t="s">
         <v>2</v>
       </c>
@@ -21816,7 +21822,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8">
       <c r="A696" t="s">
         <v>2</v>
       </c>
@@ -21842,7 +21848,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8">
       <c r="A697" t="s">
         <v>2</v>
       </c>
@@ -21868,7 +21874,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8">
       <c r="A698" t="s">
         <v>2</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8">
       <c r="A699" t="s">
         <v>2</v>
       </c>
@@ -21920,7 +21926,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8">
       <c r="A700" t="s">
         <v>2</v>
       </c>
@@ -21946,7 +21952,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8">
       <c r="A701" t="s">
         <v>2</v>
       </c>
@@ -21972,7 +21978,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8">
       <c r="A702" t="s">
         <v>2</v>
       </c>
@@ -21998,7 +22004,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8">
       <c r="A703" t="s">
         <v>2</v>
       </c>
@@ -22024,7 +22030,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8">
       <c r="A704" t="s">
         <v>2</v>
       </c>
@@ -22050,7 +22056,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8">
       <c r="A705" t="s">
         <v>2</v>
       </c>
@@ -22076,7 +22082,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8">
       <c r="A706" t="s">
         <v>2</v>
       </c>
@@ -22102,7 +22108,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8">
       <c r="A707" t="s">
         <v>2</v>
       </c>
@@ -22128,7 +22134,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8">
       <c r="A708" t="s">
         <v>2</v>
       </c>
@@ -22154,7 +22160,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8">
       <c r="A709" t="s">
         <v>2</v>
       </c>
@@ -22180,7 +22186,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8">
       <c r="A710" t="s">
         <v>2</v>
       </c>
@@ -22206,7 +22212,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8">
       <c r="A711" t="s">
         <v>2</v>
       </c>
@@ -22232,7 +22238,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8">
       <c r="A712" t="s">
         <v>2</v>
       </c>
@@ -22258,7 +22264,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8">
       <c r="A713" t="s">
         <v>2</v>
       </c>
@@ -22284,7 +22290,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8">
       <c r="A714" t="s">
         <v>2</v>
       </c>
@@ -22310,7 +22316,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8">
       <c r="A715" t="s">
         <v>2</v>
       </c>
@@ -22336,7 +22342,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8">
       <c r="A716" t="s">
         <v>2</v>
       </c>
@@ -22362,7 +22368,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8">
       <c r="A717" t="s">
         <v>2</v>
       </c>
@@ -22388,7 +22394,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8">
       <c r="A718" t="s">
         <v>2</v>
       </c>
@@ -22414,7 +22420,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8">
       <c r="A719" t="s">
         <v>2</v>
       </c>
@@ -22440,7 +22446,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8">
       <c r="A720" t="s">
         <v>2</v>
       </c>
@@ -22466,7 +22472,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8">
       <c r="A721" t="s">
         <v>2</v>
       </c>
@@ -22492,7 +22498,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8">
       <c r="A722" t="s">
         <v>2</v>
       </c>
@@ -22518,7 +22524,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8">
       <c r="A723" t="s">
         <v>2</v>
       </c>
@@ -22544,7 +22550,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8">
       <c r="A724" t="s">
         <v>2</v>
       </c>
@@ -22570,7 +22576,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8">
       <c r="A725" t="s">
         <v>2</v>
       </c>
@@ -22596,7 +22602,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8">
       <c r="A726" t="s">
         <v>2</v>
       </c>
@@ -22622,7 +22628,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8">
       <c r="A727" t="s">
         <v>2</v>
       </c>
@@ -22648,7 +22654,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8">
       <c r="A728" t="s">
         <v>2</v>
       </c>
@@ -22674,7 +22680,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8">
       <c r="A729" t="s">
         <v>2</v>
       </c>
@@ -22700,7 +22706,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8">
       <c r="A730" t="s">
         <v>2</v>
       </c>
@@ -22726,7 +22732,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8">
       <c r="A731" t="s">
         <v>2</v>
       </c>
@@ -22752,7 +22758,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8">
       <c r="A732" t="s">
         <v>2</v>
       </c>
@@ -22778,7 +22784,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8">
       <c r="A733" t="s">
         <v>2</v>
       </c>
@@ -22804,7 +22810,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8">
       <c r="A734" t="s">
         <v>2</v>
       </c>
@@ -22830,7 +22836,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8">
       <c r="A735" t="s">
         <v>2</v>
       </c>
@@ -22856,7 +22862,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8">
       <c r="A736" t="s">
         <v>2</v>
       </c>
@@ -22882,7 +22888,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8">
       <c r="A737" t="s">
         <v>15</v>
       </c>
@@ -22908,7 +22914,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8">
       <c r="A738" t="s">
         <v>15</v>
       </c>
@@ -22934,7 +22940,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8">
       <c r="A739" t="s">
         <v>15</v>
       </c>
@@ -22960,7 +22966,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8">
       <c r="A740" t="s">
         <v>15</v>
       </c>
@@ -22986,7 +22992,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8">
       <c r="A741" t="s">
         <v>15</v>
       </c>
@@ -23012,7 +23018,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8">
       <c r="A742" t="s">
         <v>15</v>
       </c>
@@ -23038,7 +23044,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8">
       <c r="A743" t="s">
         <v>15</v>
       </c>
@@ -23064,7 +23070,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8">
       <c r="A744" t="s">
         <v>15</v>
       </c>
@@ -23090,7 +23096,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8">
       <c r="A745" t="s">
         <v>15</v>
       </c>
@@ -23116,7 +23122,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8">
       <c r="A746" t="s">
         <v>15</v>
       </c>
@@ -23142,7 +23148,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8">
       <c r="A747" t="s">
         <v>15</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8">
       <c r="A748" t="s">
         <v>15</v>
       </c>
@@ -23194,7 +23200,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8">
       <c r="A749" t="s">
         <v>15</v>
       </c>
@@ -23220,7 +23226,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8">
       <c r="A750" t="s">
         <v>15</v>
       </c>
@@ -23246,7 +23252,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8">
       <c r="A751" t="s">
         <v>15</v>
       </c>
@@ -23272,7 +23278,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8">
       <c r="A752" t="s">
         <v>15</v>
       </c>
@@ -23298,7 +23304,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8">
       <c r="A753" t="s">
         <v>15</v>
       </c>
@@ -23324,7 +23330,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8">
       <c r="A754" t="s">
         <v>2</v>
       </c>
@@ -23350,7 +23356,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8">
       <c r="A755" t="s">
         <v>2</v>
       </c>
@@ -23376,7 +23382,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8">
       <c r="A756" t="s">
         <v>2</v>
       </c>
@@ -23402,7 +23408,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8">
       <c r="A757" t="s">
         <v>2</v>
       </c>
@@ -23428,7 +23434,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8">
       <c r="A758" t="s">
         <v>8</v>
       </c>
@@ -23454,7 +23460,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8">
       <c r="A759" t="s">
         <v>8</v>
       </c>
@@ -23480,7 +23486,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8">
       <c r="A760" t="s">
         <v>8</v>
       </c>
@@ -23506,7 +23512,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8">
       <c r="A761" t="s">
         <v>8</v>
       </c>
@@ -23532,7 +23538,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8">
       <c r="A762" t="s">
         <v>8</v>
       </c>
@@ -23558,7 +23564,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8">
       <c r="A763" t="s">
         <v>8</v>
       </c>
@@ -23584,7 +23590,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8">
       <c r="A764" t="s">
         <v>8</v>
       </c>
@@ -23610,7 +23616,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8">
       <c r="A765" t="s">
         <v>8</v>
       </c>
@@ -23636,7 +23642,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8">
       <c r="A766" t="s">
         <v>8</v>
       </c>
@@ -23662,7 +23668,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8">
       <c r="A767" t="s">
         <v>8</v>
       </c>
@@ -23688,7 +23694,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8">
       <c r="A768" t="s">
         <v>8</v>
       </c>
@@ -23714,7 +23720,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8">
       <c r="A769" t="s">
         <v>8</v>
       </c>
@@ -23740,7 +23746,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8">
       <c r="A770" t="s">
         <v>8</v>
       </c>
@@ -23766,7 +23772,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8">
       <c r="A771" t="s">
         <v>8</v>
       </c>
@@ -23792,7 +23798,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8">
       <c r="A772" t="s">
         <v>8</v>
       </c>
@@ -23818,7 +23824,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8">
       <c r="A773" t="s">
         <v>8</v>
       </c>
@@ -23844,7 +23850,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8">
       <c r="A774" t="s">
         <v>8</v>
       </c>
@@ -23870,7 +23876,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8">
       <c r="A775" t="s">
         <v>8</v>
       </c>
@@ -23896,7 +23902,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8">
       <c r="A776" t="s">
         <v>8</v>
       </c>
@@ -23922,7 +23928,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8">
       <c r="A777" t="s">
         <v>8</v>
       </c>
@@ -23948,7 +23954,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8">
       <c r="A778" t="s">
         <v>8</v>
       </c>
@@ -23974,7 +23980,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8">
       <c r="A779" t="s">
         <v>8</v>
       </c>
@@ -24000,7 +24006,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8">
       <c r="A780" t="s">
         <v>8</v>
       </c>
@@ -24026,7 +24032,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8">
       <c r="A781" t="s">
         <v>8</v>
       </c>
@@ -24052,7 +24058,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8">
       <c r="A782" t="s">
         <v>8</v>
       </c>
@@ -24078,7 +24084,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8">
       <c r="A783" t="s">
         <v>8</v>
       </c>
@@ -24104,7 +24110,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8">
       <c r="A784" t="s">
         <v>8</v>
       </c>
@@ -24130,7 +24136,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8">
       <c r="A785" t="s">
         <v>8</v>
       </c>
@@ -24156,7 +24162,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8">
       <c r="A786" t="s">
         <v>16</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8">
       <c r="A787" t="s">
         <v>16</v>
       </c>
@@ -24208,7 +24214,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8">
       <c r="A788" t="s">
         <v>16</v>
       </c>
@@ -24234,7 +24240,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8">
       <c r="A789" t="s">
         <v>16</v>
       </c>
@@ -24260,7 +24266,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8">
       <c r="A790" t="s">
         <v>16</v>
       </c>
@@ -24286,7 +24292,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8">
       <c r="A791" t="s">
         <v>16</v>
       </c>
@@ -24312,7 +24318,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8">
       <c r="A792" t="s">
         <v>16</v>
       </c>
@@ -24338,7 +24344,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8">
       <c r="A793" t="s">
         <v>16</v>
       </c>
@@ -24364,7 +24370,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8">
       <c r="A794" t="s">
         <v>16</v>
       </c>
@@ -24390,7 +24396,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8">
       <c r="A795" t="s">
         <v>16</v>
       </c>
@@ -24416,7 +24422,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8">
       <c r="A796" t="s">
         <v>16</v>
       </c>
@@ -24442,7 +24448,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8">
       <c r="A797" t="s">
         <v>16</v>
       </c>
@@ -24468,7 +24474,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8">
       <c r="A798" t="s">
         <v>16</v>
       </c>
@@ -24494,7 +24500,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8">
       <c r="A799" t="s">
         <v>16</v>
       </c>
@@ -24520,7 +24526,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8">
       <c r="A800" t="s">
         <v>16</v>
       </c>
@@ -24546,7 +24552,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8">
       <c r="A801" t="s">
         <v>8</v>
       </c>
@@ -24572,7 +24578,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8">
       <c r="A802" t="s">
         <v>8</v>
       </c>
@@ -24598,7 +24604,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8">
       <c r="A803" t="s">
         <v>8</v>
       </c>
@@ -24624,7 +24630,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8">
       <c r="A804" t="s">
         <v>8</v>
       </c>
@@ -24650,7 +24656,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8">
       <c r="A805" t="s">
         <v>8</v>
       </c>
@@ -24676,7 +24682,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8">
       <c r="A806" t="s">
         <v>8</v>
       </c>
@@ -24702,7 +24708,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8">
       <c r="A807" t="s">
         <v>8</v>
       </c>
@@ -24728,7 +24734,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8">
       <c r="A808" t="s">
         <v>8</v>
       </c>
@@ -24754,7 +24760,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8">
       <c r="A809" t="s">
         <v>8</v>
       </c>
@@ -24780,7 +24786,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8">
       <c r="A810" t="s">
         <v>8</v>
       </c>
@@ -24806,7 +24812,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8">
       <c r="A811" t="s">
         <v>8</v>
       </c>
@@ -24832,7 +24838,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8">
       <c r="A812" t="s">
         <v>8</v>
       </c>
@@ -24858,7 +24864,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8">
       <c r="A813" t="s">
         <v>8</v>
       </c>
@@ -24884,7 +24890,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8">
       <c r="A814" t="s">
         <v>8</v>
       </c>
@@ -24910,7 +24916,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8">
       <c r="A815" t="s">
         <v>8</v>
       </c>
@@ -24936,7 +24942,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8">
       <c r="A816" t="s">
         <v>8</v>
       </c>
@@ -24962,7 +24968,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8">
       <c r="A817" t="s">
         <v>8</v>
       </c>
@@ -24988,7 +24994,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8">
       <c r="A818" t="s">
         <v>8</v>
       </c>
@@ -25014,7 +25020,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8">
       <c r="A819" t="s">
         <v>8</v>
       </c>
@@ -25040,7 +25046,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8">
       <c r="A820" t="s">
         <v>8</v>
       </c>
@@ -25066,7 +25072,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8">
       <c r="A821" t="s">
         <v>10</v>
       </c>
@@ -25092,7 +25098,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8">
       <c r="A822" t="s">
         <v>10</v>
       </c>
@@ -25118,7 +25124,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8">
       <c r="A823" t="s">
         <v>10</v>
       </c>
@@ -25144,7 +25150,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8">
       <c r="A824" t="s">
         <v>10</v>
       </c>
@@ -25170,7 +25176,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8">
       <c r="A825" t="s">
         <v>10</v>
       </c>
@@ -25196,7 +25202,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8">
       <c r="A826" t="s">
         <v>10</v>
       </c>
@@ -25222,7 +25228,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8">
       <c r="A827" t="s">
         <v>10</v>
       </c>
@@ -25248,7 +25254,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8">
       <c r="A828" t="s">
         <v>10</v>
       </c>
@@ -25274,7 +25280,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8">
       <c r="A829" t="s">
         <v>10</v>
       </c>
@@ -25300,7 +25306,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8">
       <c r="A830" t="s">
         <v>10</v>
       </c>
@@ -25326,7 +25332,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8">
       <c r="A831" t="s">
         <v>10</v>
       </c>
@@ -25352,7 +25358,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8">
       <c r="A832" t="s">
         <v>10</v>
       </c>
@@ -25378,7 +25384,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8">
       <c r="A833" t="s">
         <v>10</v>
       </c>
@@ -25404,7 +25410,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8">
       <c r="A834" t="s">
         <v>10</v>
       </c>
@@ -25430,7 +25436,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8">
       <c r="A835" t="s">
         <v>10</v>
       </c>
@@ -25456,7 +25462,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8">
       <c r="A836" t="s">
         <v>10</v>
       </c>
@@ -25482,7 +25488,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8">
       <c r="A837" t="s">
         <v>10</v>
       </c>
@@ -25508,7 +25514,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8">
       <c r="A838" t="s">
         <v>10</v>
       </c>
@@ -25534,7 +25540,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8">
       <c r="A839" t="s">
         <v>10</v>
       </c>
@@ -25560,7 +25566,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8">
       <c r="A840" t="s">
         <v>10</v>
       </c>
@@ -25586,7 +25592,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8">
       <c r="A841" t="s">
         <v>10</v>
       </c>
@@ -25612,7 +25618,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8">
       <c r="A842" t="s">
         <v>10</v>
       </c>
@@ -25638,7 +25644,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8">
       <c r="A843" t="s">
         <v>10</v>
       </c>
@@ -25664,7 +25670,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8">
       <c r="A844" t="s">
         <v>10</v>
       </c>
@@ -25690,7 +25696,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8">
       <c r="A845" t="s">
         <v>10</v>
       </c>
@@ -25716,7 +25722,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8">
       <c r="A846" t="s">
         <v>10</v>
       </c>
@@ -25742,7 +25748,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8">
       <c r="A847" t="s">
         <v>10</v>
       </c>
@@ -25768,7 +25774,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8">
       <c r="A848" t="s">
         <v>10</v>
       </c>
@@ -25794,7 +25800,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8">
       <c r="A849" t="s">
         <v>10</v>
       </c>
@@ -25820,7 +25826,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8">
       <c r="A850" t="s">
         <v>10</v>
       </c>
@@ -25846,7 +25852,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8">
       <c r="A851" t="s">
         <v>10</v>
       </c>
@@ -25872,7 +25878,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8">
       <c r="A852" t="s">
         <v>10</v>
       </c>
@@ -25898,7 +25904,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8">
       <c r="A853" s="2" t="s">
         <v>19</v>
       </c>
@@ -25921,6 +25927,84 @@
         <v>48</v>
       </c>
       <c r="H853" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854" t="s">
+        <v>2</v>
+      </c>
+      <c r="B854" t="s">
+        <v>994</v>
+      </c>
+      <c r="C854" t="s">
+        <v>995</v>
+      </c>
+      <c r="D854" t="s">
+        <v>996</v>
+      </c>
+      <c r="E854" t="s">
+        <v>979</v>
+      </c>
+      <c r="F854" t="s">
+        <v>983</v>
+      </c>
+      <c r="G854" t="s">
+        <v>997</v>
+      </c>
+      <c r="H854" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="A855" t="s">
+        <v>2</v>
+      </c>
+      <c r="B855" t="s">
+        <v>994</v>
+      </c>
+      <c r="C855" t="s">
+        <v>995</v>
+      </c>
+      <c r="D855" t="s">
+        <v>999</v>
+      </c>
+      <c r="E855" t="s">
+        <v>979</v>
+      </c>
+      <c r="F855" t="s">
+        <v>983</v>
+      </c>
+      <c r="G855" t="s">
+        <v>997</v>
+      </c>
+      <c r="H855" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="A856" t="s">
+        <v>2</v>
+      </c>
+      <c r="B856" t="s">
+        <v>994</v>
+      </c>
+      <c r="C856" t="s">
+        <v>995</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E856" t="s">
+        <v>979</v>
+      </c>
+      <c r="F856" t="s">
+        <v>983</v>
+      </c>
+      <c r="G856" t="s">
+        <v>997</v>
+      </c>
+      <c r="H856" t="s">
         <v>989</v>
       </c>
     </row>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\oqni\Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75133C-CF51-4887-9AA2-F4B929A673ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBDAFF6-B2B3-4971-A3A9-20B21B01D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3416,7 +3416,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3727,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H852"/>
   <sheetViews>
-    <sheetView topLeftCell="A837" workbookViewId="0">
-      <selection activeCell="C862" sqref="C862"/>
+    <sheetView topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="A853" sqref="A853:XFD853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6967" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6971" uniqueCount="1012">
   <si>
     <t>subject</t>
   </si>
@@ -3050,6 +3050,9 @@
   </si>
   <si>
     <t>230416_152441</t>
+  </si>
+  <si>
+    <t>023</t>
   </si>
 </sst>
 </file>
@@ -3410,7 +3413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3590,6 +3593,14 @@
       </c>
       <c r="B22" t="s">
         <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6971" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7027" uniqueCount="1020">
   <si>
     <t>subject</t>
   </si>
@@ -3053,6 +3053,30 @@
   </si>
   <si>
     <t>023</t>
+  </si>
+  <si>
+    <t>BL-003_023_230416</t>
+  </si>
+  <si>
+    <t>230416_160226</t>
+  </si>
+  <si>
+    <t>230416_160329</t>
+  </si>
+  <si>
+    <t>230416_160502</t>
+  </si>
+  <si>
+    <t>230416_160606</t>
+  </si>
+  <si>
+    <t>230416_163001</t>
+  </si>
+  <si>
+    <t>230416_170036</t>
+  </si>
+  <si>
+    <t>230416_170508</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H863"/>
+  <dimension ref="A1:H870"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26187,6 +26211,188 @@
         <v>996</v>
       </c>
     </row>
+    <row r="864" spans="1:8">
+      <c r="A864" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B864" t="s">
+        <v>999</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E864" t="s">
+        <v>986</v>
+      </c>
+      <c r="F864" t="s">
+        <v>990</v>
+      </c>
+      <c r="G864" t="s">
+        <v>49</v>
+      </c>
+      <c r="H864" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B865" t="s">
+        <v>999</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E865" t="s">
+        <v>986</v>
+      </c>
+      <c r="F865" t="s">
+        <v>990</v>
+      </c>
+      <c r="G865" t="s">
+        <v>49</v>
+      </c>
+      <c r="H865" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="A866" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B866" t="s">
+        <v>999</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E866" t="s">
+        <v>986</v>
+      </c>
+      <c r="F866" t="s">
+        <v>990</v>
+      </c>
+      <c r="G866" t="s">
+        <v>49</v>
+      </c>
+      <c r="H866" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8">
+      <c r="A867" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B867" t="s">
+        <v>999</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E867" t="s">
+        <v>986</v>
+      </c>
+      <c r="F867" t="s">
+        <v>990</v>
+      </c>
+      <c r="G867" t="s">
+        <v>49</v>
+      </c>
+      <c r="H867" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B868" t="s">
+        <v>999</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E868" t="s">
+        <v>986</v>
+      </c>
+      <c r="F868" t="s">
+        <v>990</v>
+      </c>
+      <c r="G868" t="s">
+        <v>49</v>
+      </c>
+      <c r="H868" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="A869" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B869" t="s">
+        <v>999</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E869" t="s">
+        <v>986</v>
+      </c>
+      <c r="F869" t="s">
+        <v>990</v>
+      </c>
+      <c r="G869" t="s">
+        <v>49</v>
+      </c>
+      <c r="H869" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8">
+      <c r="A870" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B870" t="s">
+        <v>999</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E870" t="s">
+        <v>986</v>
+      </c>
+      <c r="F870" t="s">
+        <v>990</v>
+      </c>
+      <c r="G870" t="s">
+        <v>49</v>
+      </c>
+      <c r="H870" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7027" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="1027">
   <si>
     <t>subject</t>
   </si>
@@ -3077,6 +3077,27 @@
   </si>
   <si>
     <t>230416_170508</t>
+  </si>
+  <si>
+    <t>230416_171433</t>
+  </si>
+  <si>
+    <t>230416_171503</t>
+  </si>
+  <si>
+    <t>230416_171536</t>
+  </si>
+  <si>
+    <t>230416_171716</t>
+  </si>
+  <si>
+    <t>230416_171754</t>
+  </si>
+  <si>
+    <t>230416_173505</t>
+  </si>
+  <si>
+    <t>230416_174226</t>
   </si>
 </sst>
 </file>
@@ -3767,7 +3788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H870"/>
+  <dimension ref="A1:H877"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26393,6 +26414,188 @@
         <v>996</v>
       </c>
     </row>
+    <row r="871" spans="1:8">
+      <c r="A871" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B871" t="s">
+        <v>999</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E871" t="s">
+        <v>986</v>
+      </c>
+      <c r="F871" t="s">
+        <v>990</v>
+      </c>
+      <c r="G871" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H871" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="A872" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B872" t="s">
+        <v>999</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E872" t="s">
+        <v>986</v>
+      </c>
+      <c r="F872" t="s">
+        <v>990</v>
+      </c>
+      <c r="G872" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H872" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8">
+      <c r="A873" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B873" t="s">
+        <v>999</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E873" t="s">
+        <v>986</v>
+      </c>
+      <c r="F873" t="s">
+        <v>990</v>
+      </c>
+      <c r="G873" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H873" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B874" t="s">
+        <v>999</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E874" t="s">
+        <v>986</v>
+      </c>
+      <c r="F874" t="s">
+        <v>990</v>
+      </c>
+      <c r="G874" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H874" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="A875" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B875" t="s">
+        <v>999</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E875" t="s">
+        <v>986</v>
+      </c>
+      <c r="F875" t="s">
+        <v>990</v>
+      </c>
+      <c r="G875" t="s">
+        <v>49</v>
+      </c>
+      <c r="H875" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="A876" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B876" t="s">
+        <v>999</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E876" t="s">
+        <v>986</v>
+      </c>
+      <c r="F876" t="s">
+        <v>990</v>
+      </c>
+      <c r="G876" t="s">
+        <v>49</v>
+      </c>
+      <c r="H876" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8">
+      <c r="A877" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B877" t="s">
+        <v>999</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E877" t="s">
+        <v>986</v>
+      </c>
+      <c r="F877" t="s">
+        <v>990</v>
+      </c>
+      <c r="G877" t="s">
+        <v>49</v>
+      </c>
+      <c r="H877" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1034">
   <si>
     <t>subject</t>
   </si>
@@ -3098,6 +3098,27 @@
   </si>
   <si>
     <t>230416_174226</t>
+  </si>
+  <si>
+    <t>barev</t>
+  </si>
+  <si>
+    <t>BL-003_023_230420</t>
+  </si>
+  <si>
+    <t>230420_210634</t>
+  </si>
+  <si>
+    <t>230420_210658</t>
+  </si>
+  <si>
+    <t>230420_210804</t>
+  </si>
+  <si>
+    <t>230420_210907</t>
+  </si>
+  <si>
+    <t>230420_211015</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3666,7 @@
         <v>1011</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H877"/>
+  <dimension ref="A1:H882"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26596,6 +26617,136 @@
         <v>996</v>
       </c>
     </row>
+    <row r="878" spans="1:8">
+      <c r="A878" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B878" t="s">
+        <v>999</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E878" t="s">
+        <v>986</v>
+      </c>
+      <c r="F878" t="s">
+        <v>990</v>
+      </c>
+      <c r="G878" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H878" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="A879" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B879" t="s">
+        <v>999</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E879" t="s">
+        <v>986</v>
+      </c>
+      <c r="F879" t="s">
+        <v>990</v>
+      </c>
+      <c r="G879" t="s">
+        <v>49</v>
+      </c>
+      <c r="H879" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8">
+      <c r="A880" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B880" t="s">
+        <v>999</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E880" t="s">
+        <v>986</v>
+      </c>
+      <c r="F880" t="s">
+        <v>990</v>
+      </c>
+      <c r="G880" t="s">
+        <v>49</v>
+      </c>
+      <c r="H880" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8">
+      <c r="A881" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B881" t="s">
+        <v>999</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E881" t="s">
+        <v>986</v>
+      </c>
+      <c r="F881" t="s">
+        <v>990</v>
+      </c>
+      <c r="G881" t="s">
+        <v>49</v>
+      </c>
+      <c r="H881" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8">
+      <c r="A882" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B882" t="s">
+        <v>999</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E882" t="s">
+        <v>986</v>
+      </c>
+      <c r="F882" t="s">
+        <v>990</v>
+      </c>
+      <c r="G882" t="s">
+        <v>49</v>
+      </c>
+      <c r="H882" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="1035">
   <si>
     <t>subject</t>
   </si>
@@ -3119,6 +3119,9 @@
   </si>
   <si>
     <t>230420_211015</t>
+  </si>
+  <si>
+    <t>024</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3667,6 +3670,14 @@
       </c>
       <c r="B23" t="s">
         <v>1027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="1042">
   <si>
     <t>subject</t>
   </si>
@@ -3122,6 +3122,27 @@
   </si>
   <si>
     <t>024</t>
+  </si>
+  <si>
+    <t>BL-003_024_230526</t>
+  </si>
+  <si>
+    <t>230526_132306</t>
+  </si>
+  <si>
+    <t>230526_152003</t>
+  </si>
+  <si>
+    <t>BL-003_024_230527</t>
+  </si>
+  <si>
+    <t>230527_134750</t>
+  </si>
+  <si>
+    <t>230527_135055</t>
+  </si>
+  <si>
+    <t>230527_140127</t>
   </si>
 </sst>
 </file>
@@ -3820,7 +3841,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H882"/>
+  <dimension ref="A1:H887"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26758,6 +26779,136 @@
         <v>996</v>
       </c>
     </row>
+    <row r="883" spans="1:8">
+      <c r="A883" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B883" t="s">
+        <v>999</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E883" t="s">
+        <v>986</v>
+      </c>
+      <c r="F883" t="s">
+        <v>990</v>
+      </c>
+      <c r="G883" t="s">
+        <v>49</v>
+      </c>
+      <c r="H883" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8">
+      <c r="A884" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B884" t="s">
+        <v>999</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E884" t="s">
+        <v>986</v>
+      </c>
+      <c r="F884" t="s">
+        <v>990</v>
+      </c>
+      <c r="G884" t="s">
+        <v>49</v>
+      </c>
+      <c r="H884" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8">
+      <c r="A885" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B885" t="s">
+        <v>999</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E885" t="s">
+        <v>986</v>
+      </c>
+      <c r="F885" t="s">
+        <v>990</v>
+      </c>
+      <c r="G885" t="s">
+        <v>49</v>
+      </c>
+      <c r="H885" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B886" t="s">
+        <v>999</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E886" t="s">
+        <v>986</v>
+      </c>
+      <c r="F886" t="s">
+        <v>990</v>
+      </c>
+      <c r="G886" t="s">
+        <v>49</v>
+      </c>
+      <c r="H886" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8">
+      <c r="A887" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B887" t="s">
+        <v>999</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E887" t="s">
+        <v>986</v>
+      </c>
+      <c r="F887" t="s">
+        <v>990</v>
+      </c>
+      <c r="G887" t="s">
+        <v>49</v>
+      </c>
+      <c r="H887" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="1043">
   <si>
     <t>subject</t>
   </si>
@@ -3143,6 +3143,9 @@
   </si>
   <si>
     <t>230527_140127</t>
+  </si>
+  <si>
+    <t>230527_165102</t>
   </si>
 </sst>
 </file>
@@ -3841,7 +3844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H887"/>
+  <dimension ref="A1:H888"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26909,6 +26912,32 @@
         <v>996</v>
       </c>
     </row>
+    <row r="888" spans="1:8">
+      <c r="A888" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B888" t="s">
+        <v>999</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E888" t="s">
+        <v>986</v>
+      </c>
+      <c r="F888" t="s">
+        <v>990</v>
+      </c>
+      <c r="G888" t="s">
+        <v>49</v>
+      </c>
+      <c r="H888" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="1046">
   <si>
     <t>subject</t>
   </si>
@@ -3146,6 +3146,15 @@
   </si>
   <si>
     <t>230527_165102</t>
+  </si>
+  <si>
+    <t>230527_165906</t>
+  </si>
+  <si>
+    <t>230527_183302</t>
+  </si>
+  <si>
+    <t>230527_184903</t>
   </si>
 </sst>
 </file>
@@ -3844,7 +3853,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H888"/>
+  <dimension ref="A1:H891"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26938,6 +26947,84 @@
         <v>996</v>
       </c>
     </row>
+    <row r="889" spans="1:8">
+      <c r="A889" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B889" t="s">
+        <v>999</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E889" t="s">
+        <v>986</v>
+      </c>
+      <c r="F889" t="s">
+        <v>990</v>
+      </c>
+      <c r="G889" t="s">
+        <v>49</v>
+      </c>
+      <c r="H889" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8">
+      <c r="A890" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B890" t="s">
+        <v>999</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E890" t="s">
+        <v>986</v>
+      </c>
+      <c r="F890" t="s">
+        <v>990</v>
+      </c>
+      <c r="G890" t="s">
+        <v>49</v>
+      </c>
+      <c r="H890" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8">
+      <c r="A891" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B891" t="s">
+        <v>999</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E891" t="s">
+        <v>986</v>
+      </c>
+      <c r="F891" t="s">
+        <v>990</v>
+      </c>
+      <c r="G891" t="s">
+        <v>993</v>
+      </c>
+      <c r="H891" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7227" uniqueCount="1050">
   <si>
     <t>subject</t>
   </si>
@@ -3155,6 +3155,18 @@
   </si>
   <si>
     <t>230527_184903</t>
+  </si>
+  <si>
+    <t>230527_211703</t>
+  </si>
+  <si>
+    <t>230527_214059</t>
+  </si>
+  <si>
+    <t>230527_221820</t>
+  </si>
+  <si>
+    <t>230527_221921</t>
   </si>
 </sst>
 </file>
@@ -3853,7 +3865,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H891"/>
+  <dimension ref="A1:H895"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27025,6 +27037,110 @@
         <v>996</v>
       </c>
     </row>
+    <row r="892" spans="1:8">
+      <c r="A892" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B892" t="s">
+        <v>999</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E892" t="s">
+        <v>986</v>
+      </c>
+      <c r="F892" t="s">
+        <v>990</v>
+      </c>
+      <c r="G892" t="s">
+        <v>49</v>
+      </c>
+      <c r="H892" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8">
+      <c r="A893" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B893" t="s">
+        <v>999</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E893" t="s">
+        <v>986</v>
+      </c>
+      <c r="F893" t="s">
+        <v>990</v>
+      </c>
+      <c r="G893" t="s">
+        <v>49</v>
+      </c>
+      <c r="H893" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8">
+      <c r="A894" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B894" t="s">
+        <v>999</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E894" t="s">
+        <v>986</v>
+      </c>
+      <c r="F894" t="s">
+        <v>990</v>
+      </c>
+      <c r="G894" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H894" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B895" t="s">
+        <v>999</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E895" t="s">
+        <v>986</v>
+      </c>
+      <c r="F895" t="s">
+        <v>990</v>
+      </c>
+      <c r="G895" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H895" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7227" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="1056">
   <si>
     <t>subject</t>
   </si>
@@ -3167,6 +3167,24 @@
   </si>
   <si>
     <t>230527_221921</t>
+  </si>
+  <si>
+    <t>BL-003_024_230528</t>
+  </si>
+  <si>
+    <t>230528_003845</t>
+  </si>
+  <si>
+    <t>230528_004450</t>
+  </si>
+  <si>
+    <t>230528_004723</t>
+  </si>
+  <si>
+    <t>230528_011122</t>
+  </si>
+  <si>
+    <t>230528_012145</t>
   </si>
 </sst>
 </file>
@@ -3865,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H895"/>
+  <dimension ref="A1:H900"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27141,6 +27159,136 @@
         <v>996</v>
       </c>
     </row>
+    <row r="896" spans="1:8">
+      <c r="A896" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B896" t="s">
+        <v>999</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E896" t="s">
+        <v>986</v>
+      </c>
+      <c r="F896" t="s">
+        <v>990</v>
+      </c>
+      <c r="G896" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H896" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8">
+      <c r="A897" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B897" t="s">
+        <v>999</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E897" t="s">
+        <v>986</v>
+      </c>
+      <c r="F897" t="s">
+        <v>990</v>
+      </c>
+      <c r="G897" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H897" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
+      <c r="A898" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B898" t="s">
+        <v>999</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E898" t="s">
+        <v>986</v>
+      </c>
+      <c r="F898" t="s">
+        <v>990</v>
+      </c>
+      <c r="G898" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H898" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8">
+      <c r="A899" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B899" t="s">
+        <v>999</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E899" t="s">
+        <v>986</v>
+      </c>
+      <c r="F899" t="s">
+        <v>990</v>
+      </c>
+      <c r="G899" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H899" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8">
+      <c r="A900" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B900" t="s">
+        <v>999</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E900" t="s">
+        <v>986</v>
+      </c>
+      <c r="F900" t="s">
+        <v>990</v>
+      </c>
+      <c r="G900" t="s">
+        <v>49</v>
+      </c>
+      <c r="H900" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7275" uniqueCount="1057">
   <si>
     <t>subject</t>
   </si>
@@ -3185,6 +3185,9 @@
   </si>
   <si>
     <t>230528_012145</t>
+  </si>
+  <si>
+    <t>230528_014307</t>
   </si>
 </sst>
 </file>
@@ -3883,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H900"/>
+  <dimension ref="A1:H901"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27289,6 +27292,32 @@
         <v>996</v>
       </c>
     </row>
+    <row r="901" spans="1:8">
+      <c r="A901" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B901" t="s">
+        <v>999</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E901" t="s">
+        <v>986</v>
+      </c>
+      <c r="F901" t="s">
+        <v>990</v>
+      </c>
+      <c r="G901" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H901" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7275" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="1069">
   <si>
     <t>subject</t>
   </si>
@@ -3188,6 +3188,42 @@
   </si>
   <si>
     <t>230528_014307</t>
+  </si>
+  <si>
+    <t>230528_131721</t>
+  </si>
+  <si>
+    <t>230528_132300</t>
+  </si>
+  <si>
+    <t>230528_132914</t>
+  </si>
+  <si>
+    <t>Short#1_6s</t>
+  </si>
+  <si>
+    <t>230528_133103</t>
+  </si>
+  <si>
+    <t>230528_133250</t>
+  </si>
+  <si>
+    <t>230528_133501</t>
+  </si>
+  <si>
+    <t>230528_133716</t>
+  </si>
+  <si>
+    <t>230528_133812</t>
+  </si>
+  <si>
+    <t>230528_134242</t>
+  </si>
+  <si>
+    <t>230528_134616</t>
+  </si>
+  <si>
+    <t>230528_135602</t>
   </si>
 </sst>
 </file>
@@ -3886,7 +3922,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H901"/>
+  <dimension ref="A1:H912"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27318,6 +27354,292 @@
         <v>996</v>
       </c>
     </row>
+    <row r="902" spans="1:8">
+      <c r="A902" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B902" t="s">
+        <v>999</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E902" t="s">
+        <v>986</v>
+      </c>
+      <c r="F902" t="s">
+        <v>990</v>
+      </c>
+      <c r="G902" t="s">
+        <v>49</v>
+      </c>
+      <c r="H902" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8">
+      <c r="A903" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B903" t="s">
+        <v>999</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E903" t="s">
+        <v>986</v>
+      </c>
+      <c r="F903" t="s">
+        <v>990</v>
+      </c>
+      <c r="G903" t="s">
+        <v>49</v>
+      </c>
+      <c r="H903" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8">
+      <c r="A904" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B904" t="s">
+        <v>999</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E904" t="s">
+        <v>986</v>
+      </c>
+      <c r="F904" t="s">
+        <v>990</v>
+      </c>
+      <c r="G904" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H904" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
+      <c r="A905" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B905" t="s">
+        <v>999</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E905" t="s">
+        <v>986</v>
+      </c>
+      <c r="F905" t="s">
+        <v>990</v>
+      </c>
+      <c r="G905" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H905" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8">
+      <c r="A906" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B906" t="s">
+        <v>999</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E906" t="s">
+        <v>986</v>
+      </c>
+      <c r="F906" t="s">
+        <v>990</v>
+      </c>
+      <c r="G906" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H906" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8">
+      <c r="A907" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B907" t="s">
+        <v>999</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E907" t="s">
+        <v>986</v>
+      </c>
+      <c r="F907" t="s">
+        <v>990</v>
+      </c>
+      <c r="G907" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H907" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8">
+      <c r="A908" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B908" t="s">
+        <v>999</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E908" t="s">
+        <v>986</v>
+      </c>
+      <c r="F908" t="s">
+        <v>990</v>
+      </c>
+      <c r="G908" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H908" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
+      <c r="A909" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B909" t="s">
+        <v>999</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E909" t="s">
+        <v>986</v>
+      </c>
+      <c r="F909" t="s">
+        <v>990</v>
+      </c>
+      <c r="G909" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H909" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8">
+      <c r="A910" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B910" t="s">
+        <v>999</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E910" t="s">
+        <v>986</v>
+      </c>
+      <c r="F910" t="s">
+        <v>990</v>
+      </c>
+      <c r="G910" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H910" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
+      <c r="A911" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B911" t="s">
+        <v>999</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E911" t="s">
+        <v>986</v>
+      </c>
+      <c r="F911" t="s">
+        <v>990</v>
+      </c>
+      <c r="G911" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H911" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8">
+      <c r="A912" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B912" t="s">
+        <v>999</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E912" t="s">
+        <v>986</v>
+      </c>
+      <c r="F912" t="s">
+        <v>990</v>
+      </c>
+      <c r="G912" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H912" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1073">
   <si>
     <t>subject</t>
   </si>
@@ -3224,6 +3224,18 @@
   </si>
   <si>
     <t>230528_135602</t>
+  </si>
+  <si>
+    <t>BL-003_024_230529</t>
+  </si>
+  <si>
+    <t>230529_193536</t>
+  </si>
+  <si>
+    <t>Exp#1_60s</t>
+  </si>
+  <si>
+    <t>230529_195124</t>
   </si>
 </sst>
 </file>
@@ -3922,7 +3934,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H912"/>
+  <dimension ref="A1:H914"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27640,6 +27652,58 @@
         <v>996</v>
       </c>
     </row>
+    <row r="913" spans="1:8">
+      <c r="A913" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B913" t="s">
+        <v>999</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E913" t="s">
+        <v>986</v>
+      </c>
+      <c r="F913" t="s">
+        <v>990</v>
+      </c>
+      <c r="G913" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H913" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B914" t="s">
+        <v>999</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E914" t="s">
+        <v>986</v>
+      </c>
+      <c r="F914" t="s">
+        <v>990</v>
+      </c>
+      <c r="G914" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H914" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="1073">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7443" uniqueCount="1082">
   <si>
     <t>subject</t>
   </si>
@@ -3236,6 +3236,33 @@
   </si>
   <si>
     <t>230529_195124</t>
+  </si>
+  <si>
+    <t>230529_203532</t>
+  </si>
+  <si>
+    <t>230529_205305</t>
+  </si>
+  <si>
+    <t>230529_214509</t>
+  </si>
+  <si>
+    <t>230529_222553</t>
+  </si>
+  <si>
+    <t>230529_222816</t>
+  </si>
+  <si>
+    <t>Exp#5_14s</t>
+  </si>
+  <si>
+    <t>230529_223403</t>
+  </si>
+  <si>
+    <t>230529_223559</t>
+  </si>
+  <si>
+    <t>230529_224049</t>
   </si>
 </sst>
 </file>
@@ -3934,7 +3961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H914"/>
+  <dimension ref="A1:H922"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27704,6 +27731,214 @@
         <v>996</v>
       </c>
     </row>
+    <row r="915" spans="1:8">
+      <c r="A915" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B915" t="s">
+        <v>999</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E915" t="s">
+        <v>986</v>
+      </c>
+      <c r="F915" t="s">
+        <v>990</v>
+      </c>
+      <c r="G915" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H915" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B916" t="s">
+        <v>999</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E916" t="s">
+        <v>986</v>
+      </c>
+      <c r="F916" t="s">
+        <v>990</v>
+      </c>
+      <c r="G916" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H916" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B917" t="s">
+        <v>999</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E917" t="s">
+        <v>986</v>
+      </c>
+      <c r="F917" t="s">
+        <v>990</v>
+      </c>
+      <c r="G917" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H917" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B918" t="s">
+        <v>999</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E918" t="s">
+        <v>986</v>
+      </c>
+      <c r="F918" t="s">
+        <v>990</v>
+      </c>
+      <c r="G918" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H918" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B919" t="s">
+        <v>999</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E919" t="s">
+        <v>986</v>
+      </c>
+      <c r="F919" t="s">
+        <v>990</v>
+      </c>
+      <c r="G919" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H919" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B920" t="s">
+        <v>999</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E920" t="s">
+        <v>986</v>
+      </c>
+      <c r="F920" t="s">
+        <v>990</v>
+      </c>
+      <c r="G920" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H920" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B921" t="s">
+        <v>999</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E921" t="s">
+        <v>986</v>
+      </c>
+      <c r="F921" t="s">
+        <v>990</v>
+      </c>
+      <c r="G921" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H921" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B922" t="s">
+        <v>999</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E922" t="s">
+        <v>986</v>
+      </c>
+      <c r="F922" t="s">
+        <v>990</v>
+      </c>
+      <c r="G922" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H922" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7443" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="1082">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="1103">
   <si>
     <t>subject</t>
   </si>
@@ -3263,6 +3263,69 @@
   </si>
   <si>
     <t>230529_224049</t>
+  </si>
+  <si>
+    <t>BL-003_024_230530</t>
+  </si>
+  <si>
+    <t>230530_113523</t>
+  </si>
+  <si>
+    <t>230530_113845</t>
+  </si>
+  <si>
+    <t>230530_115123</t>
+  </si>
+  <si>
+    <t>230530_120934</t>
+  </si>
+  <si>
+    <t>230530_122720</t>
+  </si>
+  <si>
+    <t>230530_124547</t>
+  </si>
+  <si>
+    <t>230530_125056</t>
+  </si>
+  <si>
+    <t>230530_125439</t>
+  </si>
+  <si>
+    <t>230530_130747</t>
+  </si>
+  <si>
+    <t>230530_131220</t>
+  </si>
+  <si>
+    <t>230530_132329</t>
+  </si>
+  <si>
+    <t>230530_132527</t>
+  </si>
+  <si>
+    <t>230530_132832</t>
+  </si>
+  <si>
+    <t>230530_133313</t>
+  </si>
+  <si>
+    <t>230530_133611</t>
+  </si>
+  <si>
+    <t>230530_134658</t>
+  </si>
+  <si>
+    <t>230530_135617</t>
+  </si>
+  <si>
+    <t>230530_135815</t>
+  </si>
+  <si>
+    <t>230530_135940</t>
+  </si>
+  <si>
+    <t>230530_140005</t>
   </si>
 </sst>
 </file>
@@ -3961,7 +4024,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H922"/>
+  <dimension ref="A1:H942"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27939,6 +28002,526 @@
         <v>996</v>
       </c>
     </row>
+    <row r="923" spans="1:8">
+      <c r="A923" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B923" t="s">
+        <v>999</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E923" t="s">
+        <v>986</v>
+      </c>
+      <c r="F923" t="s">
+        <v>990</v>
+      </c>
+      <c r="G923" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H923" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B924" t="s">
+        <v>999</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E924" t="s">
+        <v>986</v>
+      </c>
+      <c r="F924" t="s">
+        <v>990</v>
+      </c>
+      <c r="G924" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H924" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B925" t="s">
+        <v>999</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E925" t="s">
+        <v>986</v>
+      </c>
+      <c r="F925" t="s">
+        <v>990</v>
+      </c>
+      <c r="G925" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H925" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B926" t="s">
+        <v>999</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E926" t="s">
+        <v>986</v>
+      </c>
+      <c r="F926" t="s">
+        <v>990</v>
+      </c>
+      <c r="G926" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H926" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B927" t="s">
+        <v>999</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E927" t="s">
+        <v>986</v>
+      </c>
+      <c r="F927" t="s">
+        <v>990</v>
+      </c>
+      <c r="G927" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H927" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B928" t="s">
+        <v>999</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E928" t="s">
+        <v>986</v>
+      </c>
+      <c r="F928" t="s">
+        <v>990</v>
+      </c>
+      <c r="G928" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H928" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8">
+      <c r="A929" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B929" t="s">
+        <v>999</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E929" t="s">
+        <v>986</v>
+      </c>
+      <c r="F929" t="s">
+        <v>990</v>
+      </c>
+      <c r="G929" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H929" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8">
+      <c r="A930" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B930" t="s">
+        <v>999</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E930" t="s">
+        <v>986</v>
+      </c>
+      <c r="F930" t="s">
+        <v>990</v>
+      </c>
+      <c r="G930" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H930" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8">
+      <c r="A931" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B931" t="s">
+        <v>999</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E931" t="s">
+        <v>986</v>
+      </c>
+      <c r="F931" t="s">
+        <v>990</v>
+      </c>
+      <c r="G931" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H931" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8">
+      <c r="A932" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B932" t="s">
+        <v>999</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E932" t="s">
+        <v>986</v>
+      </c>
+      <c r="F932" t="s">
+        <v>990</v>
+      </c>
+      <c r="G932" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H932" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
+      <c r="A933" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B933" t="s">
+        <v>999</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E933" t="s">
+        <v>986</v>
+      </c>
+      <c r="F933" t="s">
+        <v>990</v>
+      </c>
+      <c r="G933" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H933" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
+      <c r="A934" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B934" t="s">
+        <v>999</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E934" t="s">
+        <v>986</v>
+      </c>
+      <c r="F934" t="s">
+        <v>990</v>
+      </c>
+      <c r="G934" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H934" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8">
+      <c r="A935" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B935" t="s">
+        <v>999</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E935" t="s">
+        <v>986</v>
+      </c>
+      <c r="F935" t="s">
+        <v>990</v>
+      </c>
+      <c r="G935" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H935" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8">
+      <c r="A936" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B936" t="s">
+        <v>999</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E936" t="s">
+        <v>986</v>
+      </c>
+      <c r="F936" t="s">
+        <v>990</v>
+      </c>
+      <c r="G936" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H936" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8">
+      <c r="A937" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B937" t="s">
+        <v>999</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E937" t="s">
+        <v>986</v>
+      </c>
+      <c r="F937" t="s">
+        <v>990</v>
+      </c>
+      <c r="G937" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H937" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8">
+      <c r="A938" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B938" t="s">
+        <v>999</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E938" t="s">
+        <v>986</v>
+      </c>
+      <c r="F938" t="s">
+        <v>990</v>
+      </c>
+      <c r="G938" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H938" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8">
+      <c r="A939" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B939" t="s">
+        <v>999</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E939" t="s">
+        <v>986</v>
+      </c>
+      <c r="F939" t="s">
+        <v>990</v>
+      </c>
+      <c r="G939" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H939" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8">
+      <c r="A940" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B940" t="s">
+        <v>999</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E940" t="s">
+        <v>986</v>
+      </c>
+      <c r="F940" t="s">
+        <v>990</v>
+      </c>
+      <c r="G940" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H940" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8">
+      <c r="A941" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B941" t="s">
+        <v>999</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E941" t="s">
+        <v>986</v>
+      </c>
+      <c r="F941" t="s">
+        <v>990</v>
+      </c>
+      <c r="G941" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H941" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B942" t="s">
+        <v>999</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E942" t="s">
+        <v>986</v>
+      </c>
+      <c r="F942" t="s">
+        <v>990</v>
+      </c>
+      <c r="G942" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H942" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\oqni\Recordings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA3B20-22A9-4989-8A88-C916070AD6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7689" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7691" uniqueCount="1119">
   <si>
     <t>subject</t>
   </si>
@@ -3378,13 +3372,16 @@
   </si>
   <si>
     <t>230531_020955</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3399,6 +3396,9 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3465,14 +3465,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3762,18 +3754,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" customHeight="0">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3789,7 +3781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3797,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3805,7 +3797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +3805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3821,7 +3813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3837,7 +3829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3861,7 +3853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3869,7 +3861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3885,7 +3877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3893,7 +3885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -3901,7 +3893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -3909,7 +3901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3917,7 +3909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3925,7 +3917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>998</v>
       </c>
@@ -3933,7 +3925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>1003</v>
       </c>
@@ -3941,7 +3933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>1010</v>
       </c>
@@ -3949,7 +3941,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>1033</v>
       </c>
@@ -3957,7 +3949,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>1107</v>
       </c>
@@ -3971,18 +3963,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -3990,15 +3982,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>1.2</v>
       </c>
@@ -4006,17 +3998,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>3.1</v>
       </c>
@@ -4024,7 +4016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -4032,15 +4024,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>4.2</v>
       </c>
@@ -4054,19 +4046,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4077,7 +4069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -4088,7 +4080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -4099,7 +4091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -4114,14 +4106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="J952" sqref="J952"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
@@ -4135,7 +4125,7 @@
     <col min="10" max="10" width="8" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" customHeight="0">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4157,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4193,7 +4183,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4219,7 +4209,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4245,7 +4235,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -4271,7 +4261,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4297,7 +4287,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4323,7 +4313,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4349,7 +4339,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4375,7 +4365,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -4401,7 +4391,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4417,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -4453,7 +4443,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4469,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -4505,7 +4495,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4531,7 +4521,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4547,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -4583,7 +4573,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -4609,7 +4599,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -4635,7 +4625,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4661,7 +4651,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -4687,7 +4677,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -4713,7 +4703,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4765,7 +4755,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -4791,7 +4781,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -4817,7 +4807,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -4843,7 +4833,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -4869,7 +4859,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -4895,7 +4885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -4921,7 +4911,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +4937,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +4963,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -4999,7 +4989,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5025,7 +5015,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5041,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +5067,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5103,7 +5093,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -5129,7 +5119,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -5155,7 +5145,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5181,7 +5171,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5207,7 +5197,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5223,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5259,7 +5249,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5285,7 +5275,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5301,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -5337,7 +5327,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5363,7 +5353,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5389,7 +5379,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5415,7 +5405,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5431,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -5467,7 +5457,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5483,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -5519,7 +5509,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -5545,7 +5535,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +5561,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -5597,7 +5587,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5613,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5639,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -5701,7 +5691,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +5717,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -5753,7 +5743,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -5779,7 +5769,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -5805,7 +5795,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -5831,7 +5821,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -5857,7 +5847,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -5883,7 +5873,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -5909,7 +5899,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -5935,7 +5925,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +5951,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -5987,7 +5977,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
@@ -6013,7 +6003,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="4" t="s">
         <v>2</v>
       </c>
@@ -6039,7 +6029,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>2</v>
       </c>
@@ -6065,7 +6055,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
@@ -6091,7 +6081,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6117,7 +6107,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>2</v>
       </c>
@@ -6143,7 +6133,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>2</v>
       </c>
@@ -6169,7 +6159,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -6195,7 +6185,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>2</v>
       </c>
@@ -6221,7 +6211,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>2</v>
       </c>
@@ -6247,7 +6237,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
@@ -6273,7 +6263,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
@@ -6299,7 +6289,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
@@ -6325,7 +6315,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -6351,7 +6341,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -6377,7 +6367,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -6403,7 +6393,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -6429,7 +6419,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -6455,7 +6445,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -6481,7 +6471,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -6507,7 +6497,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -6533,7 +6523,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6549,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -6585,7 +6575,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -6611,7 +6601,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -6637,7 +6627,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +6653,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -6689,7 +6679,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -6715,7 +6705,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -6741,7 +6731,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -6767,7 +6757,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6783,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -6819,7 +6809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
@@ -6845,7 +6835,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
@@ -6871,7 +6861,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
@@ -6897,7 +6887,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>12</v>
       </c>
@@ -6923,7 +6913,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>12</v>
       </c>
@@ -6949,7 +6939,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -6975,7 +6965,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -7001,7 +6991,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>12</v>
       </c>
@@ -7027,7 +7017,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
@@ -7053,7 +7043,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>5</v>
       </c>
@@ -7079,7 +7069,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="4" t="s">
         <v>5</v>
       </c>
@@ -7105,7 +7095,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7131,7 +7121,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -7157,7 +7147,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7173,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7199,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -7235,7 +7225,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>3</v>
       </c>
@@ -7261,7 +7251,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>3</v>
       </c>
@@ -7287,7 +7277,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>3</v>
       </c>
@@ -7313,7 +7303,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>3</v>
       </c>
@@ -7339,7 +7329,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>3</v>
       </c>
@@ -7365,7 +7355,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
@@ -7391,7 +7381,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>3</v>
       </c>
@@ -7417,7 +7407,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>3</v>
       </c>
@@ -7443,7 +7433,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>3</v>
       </c>
@@ -7469,7 +7459,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7485,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>5</v>
       </c>
@@ -7521,7 +7511,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>5</v>
       </c>
@@ -7547,7 +7537,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
@@ -7573,7 +7563,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>13</v>
       </c>
@@ -7599,7 +7589,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -7625,7 +7615,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>13</v>
       </c>
@@ -7651,7 +7641,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>13</v>
       </c>
@@ -7677,7 +7667,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>13</v>
       </c>
@@ -7703,7 +7693,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>3</v>
       </c>
@@ -7729,7 +7719,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
@@ -7755,7 +7745,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
@@ -7781,7 +7771,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>8</v>
       </c>
@@ -7807,7 +7797,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
@@ -7833,7 +7823,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>8</v>
       </c>
@@ -7859,7 +7849,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>8</v>
       </c>
@@ -7885,7 +7875,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>13</v>
       </c>
@@ -7911,7 +7901,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
@@ -7937,7 +7927,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
@@ -7963,7 +7953,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>5</v>
       </c>
@@ -7989,7 +7979,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
@@ -8015,7 +8005,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>5</v>
       </c>
@@ -8041,7 +8031,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>5</v>
       </c>
@@ -8067,7 +8057,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>5</v>
       </c>
@@ -8093,7 +8083,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
         <v>4</v>
       </c>
@@ -8119,7 +8109,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>4</v>
       </c>
@@ -8145,7 +8135,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>4</v>
       </c>
@@ -8171,7 +8161,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>4</v>
       </c>
@@ -8197,7 +8187,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>4</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
@@ -8249,7 +8239,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
         <v>4</v>
       </c>
@@ -8275,7 +8265,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>13</v>
       </c>
@@ -8301,7 +8291,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>13</v>
       </c>
@@ -8327,7 +8317,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>13</v>
       </c>
@@ -8353,7 +8343,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
         <v>13</v>
       </c>
@@ -8379,7 +8369,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
         <v>13</v>
       </c>
@@ -8405,7 +8395,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>13</v>
       </c>
@@ -8431,7 +8421,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>13</v>
       </c>
@@ -8457,7 +8447,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
@@ -8483,7 +8473,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
         <v>13</v>
       </c>
@@ -8509,7 +8499,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
@@ -8535,7 +8525,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
@@ -8561,7 +8551,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
         <v>4</v>
       </c>
@@ -8587,7 +8577,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
         <v>4</v>
       </c>
@@ -8613,7 +8603,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
@@ -8639,7 +8629,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
         <v>4</v>
       </c>
@@ -8665,7 +8655,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
         <v>4</v>
       </c>
@@ -8691,7 +8681,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>4</v>
       </c>
@@ -8717,7 +8707,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>4</v>
       </c>
@@ -8743,7 +8733,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>4</v>
       </c>
@@ -8769,7 +8759,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
         <v>4</v>
       </c>
@@ -8795,7 +8785,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
         <v>4</v>
       </c>
@@ -8821,7 +8811,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
         <v>4</v>
       </c>
@@ -8847,7 +8837,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>4</v>
       </c>
@@ -8873,7 +8863,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>4</v>
       </c>
@@ -8899,7 +8889,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
         <v>4</v>
       </c>
@@ -8925,7 +8915,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>4</v>
       </c>
@@ -8951,7 +8941,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>4</v>
       </c>
@@ -8977,7 +8967,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
         <v>4</v>
       </c>
@@ -9003,7 +8993,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>4</v>
       </c>
@@ -9029,7 +9019,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>4</v>
       </c>
@@ -9055,7 +9045,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>4</v>
       </c>
@@ -9081,7 +9071,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
         <v>4</v>
       </c>
@@ -9107,7 +9097,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>4</v>
       </c>
@@ -9133,7 +9123,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
@@ -9159,7 +9149,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>4</v>
       </c>
@@ -9185,7 +9175,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
         <v>4</v>
       </c>
@@ -9211,7 +9201,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
         <v>4</v>
       </c>
@@ -9237,7 +9227,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
         <v>4</v>
       </c>
@@ -9263,7 +9253,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
         <v>4</v>
       </c>
@@ -9289,7 +9279,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
         <v>4</v>
       </c>
@@ -9315,7 +9305,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
         <v>4</v>
       </c>
@@ -9341,7 +9331,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
         <v>4</v>
       </c>
@@ -9367,7 +9357,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
         <v>4</v>
       </c>
@@ -9393,7 +9383,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
         <v>5</v>
       </c>
@@ -9419,7 +9409,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
         <v>5</v>
       </c>
@@ -9445,7 +9435,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
         <v>5</v>
       </c>
@@ -9471,7 +9461,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
         <v>5</v>
       </c>
@@ -9497,7 +9487,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
         <v>5</v>
       </c>
@@ -9523,7 +9513,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
         <v>5</v>
       </c>
@@ -9549,7 +9539,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
         <v>5</v>
       </c>
@@ -9575,7 +9565,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
@@ -9601,7 +9591,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
         <v>8</v>
       </c>
@@ -9627,7 +9617,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
         <v>8</v>
       </c>
@@ -9653,7 +9643,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
         <v>8</v>
       </c>
@@ -9679,7 +9669,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
         <v>8</v>
       </c>
@@ -9705,7 +9695,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
         <v>8</v>
       </c>
@@ -9731,7 +9721,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
         <v>8</v>
       </c>
@@ -9757,7 +9747,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
         <v>8</v>
       </c>
@@ -9783,7 +9773,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
         <v>8</v>
       </c>
@@ -9809,7 +9799,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
         <v>8</v>
       </c>
@@ -9835,7 +9825,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
         <v>8</v>
       </c>
@@ -9861,7 +9851,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
         <v>8</v>
       </c>
@@ -9887,7 +9877,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
         <v>8</v>
       </c>
@@ -9913,7 +9903,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>8</v>
       </c>
@@ -9939,7 +9929,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
         <v>8</v>
       </c>
@@ -9965,7 +9955,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
         <v>8</v>
       </c>
@@ -9991,7 +9981,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
         <v>8</v>
       </c>
@@ -10017,7 +10007,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
         <v>8</v>
       </c>
@@ -10043,7 +10033,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
         <v>8</v>
       </c>
@@ -10069,7 +10059,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
         <v>8</v>
       </c>
@@ -10095,7 +10085,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
         <v>8</v>
       </c>
@@ -10121,7 +10111,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -10147,7 +10137,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
         <v>8</v>
       </c>
@@ -10173,7 +10163,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
         <v>8</v>
       </c>
@@ -10199,7 +10189,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
         <v>8</v>
       </c>
@@ -10225,7 +10215,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
         <v>8</v>
       </c>
@@ -10251,7 +10241,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="4" t="s">
         <v>8</v>
       </c>
@@ -10277,7 +10267,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" s="4" t="s">
         <v>8</v>
       </c>
@@ -10303,7 +10293,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="4" t="s">
         <v>8</v>
       </c>
@@ -10329,7 +10319,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" s="4" t="s">
         <v>8</v>
       </c>
@@ -10355,7 +10345,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
         <v>4</v>
       </c>
@@ -10381,7 +10371,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>4</v>
       </c>
@@ -10407,7 +10397,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="4" t="s">
         <v>4</v>
       </c>
@@ -10433,7 +10423,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="4" t="s">
         <v>4</v>
       </c>
@@ -10459,7 +10449,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="4" t="s">
         <v>4</v>
       </c>
@@ -10485,7 +10475,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="4" t="s">
         <v>4</v>
       </c>
@@ -10511,7 +10501,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="4" t="s">
         <v>4</v>
       </c>
@@ -10537,7 +10527,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" s="4" t="s">
         <v>4</v>
       </c>
@@ -10563,7 +10553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="4" t="s">
         <v>4</v>
       </c>
@@ -10589,7 +10579,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="4" t="s">
         <v>4</v>
       </c>
@@ -10615,7 +10605,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>4</v>
       </c>
@@ -10641,7 +10631,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="4" t="s">
         <v>8</v>
       </c>
@@ -10667,7 +10657,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="4" t="s">
         <v>8</v>
       </c>
@@ -10693,7 +10683,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>8</v>
       </c>
@@ -10719,7 +10709,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>8</v>
       </c>
@@ -10745,7 +10735,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="4" t="s">
         <v>8</v>
       </c>
@@ -10771,7 +10761,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="4" t="s">
         <v>8</v>
       </c>
@@ -10797,7 +10787,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" s="4" t="s">
         <v>8</v>
       </c>
@@ -10823,7 +10813,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8">
       <c r="A258" s="4" t="s">
         <v>8</v>
       </c>
@@ -10849,7 +10839,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" s="4" t="s">
         <v>8</v>
       </c>
@@ -10875,7 +10865,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" s="4" t="s">
         <v>8</v>
       </c>
@@ -10901,7 +10891,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" s="4" t="s">
         <v>8</v>
       </c>
@@ -10927,7 +10917,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" s="4" t="s">
         <v>8</v>
       </c>
@@ -10953,7 +10943,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" s="4" t="s">
         <v>8</v>
       </c>
@@ -10979,7 +10969,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" s="4" t="s">
         <v>8</v>
       </c>
@@ -11005,7 +10995,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" s="4" t="s">
         <v>8</v>
       </c>
@@ -11031,7 +11021,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" s="4" t="s">
         <v>8</v>
       </c>
@@ -11057,7 +11047,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" s="4" t="s">
         <v>8</v>
       </c>
@@ -11083,7 +11073,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
         <v>8</v>
       </c>
@@ -11109,7 +11099,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" s="4" t="s">
         <v>8</v>
       </c>
@@ -11135,7 +11125,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" s="4" t="s">
         <v>8</v>
       </c>
@@ -11161,7 +11151,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" s="4" t="s">
         <v>8</v>
       </c>
@@ -11187,7 +11177,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" s="4" t="s">
         <v>8</v>
       </c>
@@ -11213,7 +11203,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" s="4" t="s">
         <v>8</v>
       </c>
@@ -11239,7 +11229,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" s="4" t="s">
         <v>8</v>
       </c>
@@ -11265,7 +11255,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" s="4" t="s">
         <v>8</v>
       </c>
@@ -11291,7 +11281,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>8</v>
       </c>
@@ -11317,7 +11307,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" s="4" t="s">
         <v>8</v>
       </c>
@@ -11343,7 +11333,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" s="4" t="s">
         <v>8</v>
       </c>
@@ -11369,7 +11359,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" s="4" t="s">
         <v>8</v>
       </c>
@@ -11395,7 +11385,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" s="4" t="s">
         <v>8</v>
       </c>
@@ -11421,7 +11411,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" s="4" t="s">
         <v>8</v>
       </c>
@@ -11447,7 +11437,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>8</v>
       </c>
@@ -11473,7 +11463,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" s="4" t="s">
         <v>8</v>
       </c>
@@ -11499,7 +11489,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" s="4" t="s">
         <v>8</v>
       </c>
@@ -11525,7 +11515,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" s="4" t="s">
         <v>8</v>
       </c>
@@ -11551,7 +11541,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" s="4" t="s">
         <v>8</v>
       </c>
@@ -11577,7 +11567,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>8</v>
       </c>
@@ -11603,7 +11593,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" s="4" t="s">
         <v>8</v>
       </c>
@@ -11629,7 +11619,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" s="4" t="s">
         <v>8</v>
       </c>
@@ -11655,7 +11645,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" s="4" t="s">
         <v>8</v>
       </c>
@@ -11681,7 +11671,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" s="4" t="s">
         <v>8</v>
       </c>
@@ -11707,7 +11697,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" s="4" t="s">
         <v>8</v>
       </c>
@@ -11733,7 +11723,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" s="4" t="s">
         <v>8</v>
       </c>
@@ -11759,7 +11749,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" s="4" t="s">
         <v>8</v>
       </c>
@@ -11785,7 +11775,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" s="4" t="s">
         <v>8</v>
       </c>
@@ -11811,7 +11801,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" s="4" t="s">
         <v>8</v>
       </c>
@@ -11837,7 +11827,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" s="4" t="s">
         <v>8</v>
       </c>
@@ -11863,7 +11853,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>8</v>
       </c>
@@ -11889,7 +11879,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" s="4" t="s">
         <v>8</v>
       </c>
@@ -11915,7 +11905,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" s="4" t="s">
         <v>8</v>
       </c>
@@ -11941,7 +11931,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" s="4" t="s">
         <v>8</v>
       </c>
@@ -11967,7 +11957,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" s="4" t="s">
         <v>8</v>
       </c>
@@ -11993,7 +11983,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" s="4" t="s">
         <v>8</v>
       </c>
@@ -12019,7 +12009,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" s="4" t="s">
         <v>8</v>
       </c>
@@ -12045,7 +12035,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" s="4" t="s">
         <v>8</v>
       </c>
@@ -12071,7 +12061,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" s="4" t="s">
         <v>8</v>
       </c>
@@ -12097,7 +12087,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" s="4" t="s">
         <v>8</v>
       </c>
@@ -12123,7 +12113,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" s="4" t="s">
         <v>8</v>
       </c>
@@ -12149,7 +12139,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" s="4" t="s">
         <v>8</v>
       </c>
@@ -12175,7 +12165,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8">
       <c r="A310" s="4" t="s">
         <v>8</v>
       </c>
@@ -12201,7 +12191,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" s="4" t="s">
         <v>8</v>
       </c>
@@ -12227,7 +12217,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" s="4" t="s">
         <v>14</v>
       </c>
@@ -12253,7 +12243,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8">
       <c r="A313" s="4" t="s">
         <v>14</v>
       </c>
@@ -12279,7 +12269,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" s="4" t="s">
         <v>14</v>
       </c>
@@ -12305,7 +12295,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8">
       <c r="A315" s="4" t="s">
         <v>14</v>
       </c>
@@ -12331,7 +12321,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" s="4" t="s">
         <v>14</v>
       </c>
@@ -12357,7 +12347,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" s="4" t="s">
         <v>14</v>
       </c>
@@ -12383,7 +12373,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" s="4" t="s">
         <v>14</v>
       </c>
@@ -12409,7 +12399,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8">
       <c r="A319" s="4" t="s">
         <v>14</v>
       </c>
@@ -12435,7 +12425,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" s="4" t="s">
         <v>14</v>
       </c>
@@ -12461,7 +12451,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" s="4" t="s">
         <v>14</v>
       </c>
@@ -12487,7 +12477,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" s="4" t="s">
         <v>14</v>
       </c>
@@ -12513,7 +12503,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" s="4" t="s">
         <v>14</v>
       </c>
@@ -12539,7 +12529,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" s="4" t="s">
         <v>14</v>
       </c>
@@ -12565,7 +12555,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" s="4" t="s">
         <v>14</v>
       </c>
@@ -12591,7 +12581,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" s="4" t="s">
         <v>14</v>
       </c>
@@ -12617,7 +12607,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" s="4" t="s">
         <v>14</v>
       </c>
@@ -12643,7 +12633,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" s="4" t="s">
         <v>14</v>
       </c>
@@ -12669,7 +12659,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" s="4" t="s">
         <v>14</v>
       </c>
@@ -12695,7 +12685,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" s="4" t="s">
         <v>14</v>
       </c>
@@ -12721,7 +12711,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" s="4" t="s">
         <v>10</v>
       </c>
@@ -12747,7 +12737,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" s="4" t="s">
         <v>14</v>
       </c>
@@ -12773,7 +12763,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" s="4" t="s">
         <v>14</v>
       </c>
@@ -12799,7 +12789,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" s="4" t="s">
         <v>14</v>
       </c>
@@ -12825,7 +12815,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" s="4" t="s">
         <v>14</v>
       </c>
@@ -12851,7 +12841,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" s="4" t="s">
         <v>14</v>
       </c>
@@ -12877,7 +12867,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8">
       <c r="A337" s="4" t="s">
         <v>14</v>
       </c>
@@ -12903,7 +12893,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8">
       <c r="A338" s="4" t="s">
         <v>14</v>
       </c>
@@ -12929,7 +12919,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8">
       <c r="A339" s="4" t="s">
         <v>14</v>
       </c>
@@ -12955,7 +12945,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8">
       <c r="A340" s="4" t="s">
         <v>14</v>
       </c>
@@ -12981,7 +12971,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8">
       <c r="A341" s="4" t="s">
         <v>14</v>
       </c>
@@ -13007,7 +12997,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8">
       <c r="A342" s="4" t="s">
         <v>14</v>
       </c>
@@ -13033,7 +13023,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8">
       <c r="A343" s="4" t="s">
         <v>14</v>
       </c>
@@ -13059,7 +13049,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>14</v>
       </c>
@@ -13085,7 +13075,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8">
       <c r="A345" s="4" t="s">
         <v>15</v>
       </c>
@@ -13111,7 +13101,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8">
       <c r="A346" s="4" t="s">
         <v>15</v>
       </c>
@@ -13137,7 +13127,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8">
       <c r="A347" s="4" t="s">
         <v>15</v>
       </c>
@@ -13163,7 +13153,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8">
       <c r="A348" s="4" t="s">
         <v>15</v>
       </c>
@@ -13189,7 +13179,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8">
       <c r="A349" s="4" t="s">
         <v>15</v>
       </c>
@@ -13215,7 +13205,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" s="4" t="s">
         <v>15</v>
       </c>
@@ -13241,7 +13231,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8">
       <c r="A351" s="4" t="s">
         <v>15</v>
       </c>
@@ -13267,7 +13257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8">
       <c r="A352" s="4" t="s">
         <v>16</v>
       </c>
@@ -13293,7 +13283,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" s="4" t="s">
         <v>16</v>
       </c>
@@ -13319,7 +13309,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8">
       <c r="A354" s="4" t="s">
         <v>16</v>
       </c>
@@ -13345,7 +13335,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8">
       <c r="A355" s="4" t="s">
         <v>16</v>
       </c>
@@ -13371,7 +13361,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>16</v>
       </c>
@@ -13397,7 +13387,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8">
       <c r="A357" s="4" t="s">
         <v>16</v>
       </c>
@@ -13423,7 +13413,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8">
       <c r="A358" s="4" t="s">
         <v>16</v>
       </c>
@@ -13449,7 +13439,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8">
       <c r="A359" s="4" t="s">
         <v>16</v>
       </c>
@@ -13475,7 +13465,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" s="4" t="s">
         <v>16</v>
       </c>
@@ -13501,7 +13491,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8">
       <c r="A361" s="4" t="s">
         <v>8</v>
       </c>
@@ -13527,7 +13517,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8">
       <c r="A362" s="4" t="s">
         <v>8</v>
       </c>
@@ -13553,7 +13543,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8">
       <c r="A363" s="4" t="s">
         <v>8</v>
       </c>
@@ -13579,7 +13569,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8">
       <c r="A364" s="4" t="s">
         <v>8</v>
       </c>
@@ -13605,7 +13595,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" s="4" t="s">
         <v>8</v>
       </c>
@@ -13631,7 +13621,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8">
       <c r="A366" s="4" t="s">
         <v>8</v>
       </c>
@@ -13657,7 +13647,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8">
       <c r="A367" s="4" t="s">
         <v>8</v>
       </c>
@@ -13683,7 +13673,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>8</v>
       </c>
@@ -13709,7 +13699,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" s="4" t="s">
         <v>8</v>
       </c>
@@ -13735,7 +13725,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8">
       <c r="A370" s="4" t="s">
         <v>8</v>
       </c>
@@ -13761,7 +13751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" s="4" t="s">
         <v>8</v>
       </c>
@@ -13787,7 +13777,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" s="4" t="s">
         <v>8</v>
       </c>
@@ -13813,7 +13803,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" s="4" t="s">
         <v>8</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8">
       <c r="A374" s="4" t="s">
         <v>8</v>
       </c>
@@ -13865,7 +13855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" s="4" t="s">
         <v>8</v>
       </c>
@@ -13891,7 +13881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8">
       <c r="A376" s="4" t="s">
         <v>8</v>
       </c>
@@ -13917,7 +13907,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" s="4" t="s">
         <v>8</v>
       </c>
@@ -13943,7 +13933,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" s="4" t="s">
         <v>8</v>
       </c>
@@ -13969,7 +13959,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" s="4" t="s">
         <v>8</v>
       </c>
@@ -13995,7 +13985,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" s="4" t="s">
         <v>8</v>
       </c>
@@ -14021,7 +14011,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8">
       <c r="A381" s="4" t="s">
         <v>8</v>
       </c>
@@ -14047,7 +14037,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" s="4" t="s">
         <v>8</v>
       </c>
@@ -14073,7 +14063,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" s="4" t="s">
         <v>8</v>
       </c>
@@ -14099,7 +14089,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8">
       <c r="A384" s="4" t="s">
         <v>8</v>
       </c>
@@ -14125,7 +14115,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8">
       <c r="A385" s="4" t="s">
         <v>8</v>
       </c>
@@ -14151,7 +14141,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8">
       <c r="A386" s="4" t="s">
         <v>8</v>
       </c>
@@ -14177,7 +14167,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8">
       <c r="A387" s="4" t="s">
         <v>8</v>
       </c>
@@ -14203,7 +14193,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8">
       <c r="A388" s="4" t="s">
         <v>8</v>
       </c>
@@ -14229,7 +14219,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8">
       <c r="A389" s="4" t="s">
         <v>8</v>
       </c>
@@ -14255,7 +14245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8">
       <c r="A390" s="4" t="s">
         <v>8</v>
       </c>
@@ -14281,7 +14271,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8">
       <c r="A391" s="4" t="s">
         <v>8</v>
       </c>
@@ -14307,7 +14297,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8">
       <c r="A392" s="4" t="s">
         <v>8</v>
       </c>
@@ -14333,7 +14323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8">
       <c r="A393" s="4" t="s">
         <v>8</v>
       </c>
@@ -14359,7 +14349,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8">
       <c r="A394" s="4" t="s">
         <v>8</v>
       </c>
@@ -14385,7 +14375,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8">
       <c r="A395" s="4" t="s">
         <v>8</v>
       </c>
@@ -14411,7 +14401,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8">
       <c r="A396" s="4" t="s">
         <v>8</v>
       </c>
@@ -14437,7 +14427,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8">
       <c r="A397" s="4" t="s">
         <v>8</v>
       </c>
@@ -14463,7 +14453,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8">
       <c r="A398" s="4" t="s">
         <v>8</v>
       </c>
@@ -14489,7 +14479,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8">
       <c r="A399" s="4" t="s">
         <v>8</v>
       </c>
@@ -14515,7 +14505,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8">
       <c r="A400" s="4" t="s">
         <v>8</v>
       </c>
@@ -14541,7 +14531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8">
       <c r="A401" s="4" t="s">
         <v>8</v>
       </c>
@@ -14567,7 +14557,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8">
       <c r="A402" s="4" t="s">
         <v>8</v>
       </c>
@@ -14593,7 +14583,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8">
       <c r="A403" s="4" t="s">
         <v>8</v>
       </c>
@@ -14619,7 +14609,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8">
       <c r="A404" s="4" t="s">
         <v>8</v>
       </c>
@@ -14645,7 +14635,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8">
       <c r="A405" s="4" t="s">
         <v>8</v>
       </c>
@@ -14671,7 +14661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" s="4" t="s">
         <v>8</v>
       </c>
@@ -14697,7 +14687,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" s="4" t="s">
         <v>8</v>
       </c>
@@ -14723,7 +14713,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8">
       <c r="A408" s="4" t="s">
         <v>8</v>
       </c>
@@ -14749,7 +14739,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8">
       <c r="A409" s="4" t="s">
         <v>8</v>
       </c>
@@ -14775,7 +14765,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8">
       <c r="A410" s="4" t="s">
         <v>8</v>
       </c>
@@ -14801,7 +14791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8">
       <c r="A411" s="4" t="s">
         <v>8</v>
       </c>
@@ -14827,7 +14817,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8">
       <c r="A412" s="4" t="s">
         <v>8</v>
       </c>
@@ -14853,7 +14843,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8">
       <c r="A413" s="4" t="s">
         <v>8</v>
       </c>
@@ -14879,7 +14869,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8">
       <c r="A414" s="4" t="s">
         <v>8</v>
       </c>
@@ -14905,7 +14895,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8">
       <c r="A415" s="4" t="s">
         <v>8</v>
       </c>
@@ -14931,7 +14921,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8">
       <c r="A416" s="4" t="s">
         <v>8</v>
       </c>
@@ -14957,7 +14947,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8">
       <c r="A417" s="4" t="s">
         <v>8</v>
       </c>
@@ -14983,7 +14973,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" s="4" t="s">
         <v>8</v>
       </c>
@@ -15009,7 +14999,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8">
       <c r="A419" s="4" t="s">
         <v>8</v>
       </c>
@@ -15035,7 +15025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8">
       <c r="A420" s="4" t="s">
         <v>8</v>
       </c>
@@ -15061,7 +15051,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8">
       <c r="A421" s="4" t="s">
         <v>8</v>
       </c>
@@ -15087,7 +15077,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8">
       <c r="A422" s="4" t="s">
         <v>8</v>
       </c>
@@ -15113,7 +15103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8">
       <c r="A423" s="4" t="s">
         <v>8</v>
       </c>
@@ -15139,7 +15129,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8">
       <c r="A424" s="4" t="s">
         <v>8</v>
       </c>
@@ -15165,7 +15155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8">
       <c r="A425" s="4" t="s">
         <v>8</v>
       </c>
@@ -15191,7 +15181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8">
       <c r="A426" s="4" t="s">
         <v>8</v>
       </c>
@@ -15217,7 +15207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8">
       <c r="A427" s="4" t="s">
         <v>8</v>
       </c>
@@ -15243,7 +15233,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8">
       <c r="A428" s="4" t="s">
         <v>8</v>
       </c>
@@ -15269,7 +15259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8">
       <c r="A429" s="4" t="s">
         <v>8</v>
       </c>
@@ -15295,7 +15285,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8">
       <c r="A430" s="4" t="s">
         <v>8</v>
       </c>
@@ -15321,7 +15311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8">
       <c r="A431" s="4" t="s">
         <v>8</v>
       </c>
@@ -15347,7 +15337,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8">
       <c r="A432" s="4" t="s">
         <v>8</v>
       </c>
@@ -15373,7 +15363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8">
       <c r="A433" s="4" t="s">
         <v>8</v>
       </c>
@@ -15399,7 +15389,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8">
       <c r="A434" s="4" t="s">
         <v>8</v>
       </c>
@@ -15425,7 +15415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8">
       <c r="A435" s="4" t="s">
         <v>8</v>
       </c>
@@ -15451,7 +15441,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8">
       <c r="A436" s="4" t="s">
         <v>8</v>
       </c>
@@ -15477,7 +15467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8">
       <c r="A437" s="4" t="s">
         <v>8</v>
       </c>
@@ -15503,7 +15493,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8">
       <c r="A438" s="4" t="s">
         <v>8</v>
       </c>
@@ -15529,7 +15519,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8">
       <c r="A439" s="4" t="s">
         <v>8</v>
       </c>
@@ -15555,7 +15545,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8">
       <c r="A440" s="4" t="s">
         <v>8</v>
       </c>
@@ -15581,7 +15571,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8">
       <c r="A441" s="4" t="s">
         <v>8</v>
       </c>
@@ -15607,7 +15597,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8">
       <c r="A442" s="4" t="s">
         <v>16</v>
       </c>
@@ -15633,7 +15623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8">
       <c r="A443" s="4" t="s">
         <v>16</v>
       </c>
@@ -15659,7 +15649,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8">
       <c r="A444" s="4" t="s">
         <v>16</v>
       </c>
@@ -15685,7 +15675,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8">
       <c r="A445" s="4" t="s">
         <v>16</v>
       </c>
@@ -15711,7 +15701,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8">
       <c r="A446" s="4" t="s">
         <v>16</v>
       </c>
@@ -15737,7 +15727,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8">
       <c r="A447" s="4" t="s">
         <v>16</v>
       </c>
@@ -15763,7 +15753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8">
       <c r="A448" s="4" t="s">
         <v>16</v>
       </c>
@@ -15789,7 +15779,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8">
       <c r="A449" s="4" t="s">
         <v>16</v>
       </c>
@@ -15815,7 +15805,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8">
       <c r="A450" s="4" t="s">
         <v>16</v>
       </c>
@@ -15841,7 +15831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8">
       <c r="A451" s="4" t="s">
         <v>16</v>
       </c>
@@ -15867,7 +15857,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8">
       <c r="A452" s="4" t="s">
         <v>15</v>
       </c>
@@ -15893,7 +15883,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8">
       <c r="A453" s="4" t="s">
         <v>15</v>
       </c>
@@ -15919,7 +15909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8">
       <c r="A454" s="4" t="s">
         <v>15</v>
       </c>
@@ -15945,7 +15935,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8">
       <c r="A455" s="4" t="s">
         <v>15</v>
       </c>
@@ -15971,7 +15961,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8">
       <c r="A456" s="4" t="s">
         <v>15</v>
       </c>
@@ -15997,7 +15987,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8">
       <c r="A457" s="4" t="s">
         <v>15</v>
       </c>
@@ -16023,7 +16013,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8">
       <c r="A458" s="4" t="s">
         <v>5</v>
       </c>
@@ -16049,7 +16039,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8">
       <c r="A459" s="4" t="s">
         <v>5</v>
       </c>
@@ -16075,7 +16065,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8">
       <c r="A460" s="4" t="s">
         <v>5</v>
       </c>
@@ -16101,7 +16091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8">
       <c r="A461" s="4" t="s">
         <v>5</v>
       </c>
@@ -16127,7 +16117,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8">
       <c r="A462" s="4" t="s">
         <v>5</v>
       </c>
@@ -16153,7 +16143,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8">
       <c r="A463" s="4" t="s">
         <v>5</v>
       </c>
@@ -16179,7 +16169,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8">
       <c r="A464" s="4" t="s">
         <v>5</v>
       </c>
@@ -16205,7 +16195,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8">
       <c r="A465" s="4" t="s">
         <v>5</v>
       </c>
@@ -16231,7 +16221,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8">
       <c r="A466" s="4" t="s">
         <v>5</v>
       </c>
@@ -16257,7 +16247,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8">
       <c r="A467" s="4" t="s">
         <v>5</v>
       </c>
@@ -16283,7 +16273,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8">
       <c r="A468" s="4" t="s">
         <v>5</v>
       </c>
@@ -16309,7 +16299,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8">
       <c r="A469" s="4" t="s">
         <v>5</v>
       </c>
@@ -16335,7 +16325,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8">
       <c r="A470" s="4" t="s">
         <v>5</v>
       </c>
@@ -16361,7 +16351,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8">
       <c r="A471" s="4" t="s">
         <v>5</v>
       </c>
@@ -16387,7 +16377,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8">
       <c r="A472" s="4" t="s">
         <v>5</v>
       </c>
@@ -16413,7 +16403,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8">
       <c r="A473" s="4" t="s">
         <v>17</v>
       </c>
@@ -16439,7 +16429,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8">
       <c r="A474" s="4" t="s">
         <v>17</v>
       </c>
@@ -16465,7 +16455,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8">
       <c r="A475" s="4" t="s">
         <v>17</v>
       </c>
@@ -16491,7 +16481,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8">
       <c r="A476" s="4" t="s">
         <v>5</v>
       </c>
@@ -16517,7 +16507,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8">
       <c r="A477" s="4" t="s">
         <v>10</v>
       </c>
@@ -16543,7 +16533,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8">
       <c r="A478" s="4" t="s">
         <v>18</v>
       </c>
@@ -16569,7 +16559,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8">
       <c r="A479" s="4" t="s">
         <v>18</v>
       </c>
@@ -16595,7 +16585,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8">
       <c r="A480" s="4" t="s">
         <v>18</v>
       </c>
@@ -16621,7 +16611,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8">
       <c r="A481" s="4" t="s">
         <v>7</v>
       </c>
@@ -16647,7 +16637,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8">
       <c r="A482" s="4" t="s">
         <v>7</v>
       </c>
@@ -16673,7 +16663,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8">
       <c r="A483" s="4" t="s">
         <v>7</v>
       </c>
@@ -16699,7 +16689,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8">
       <c r="A484" s="4" t="s">
         <v>7</v>
       </c>
@@ -16725,7 +16715,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8">
       <c r="A485" s="4" t="s">
         <v>7</v>
       </c>
@@ -16751,7 +16741,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8">
       <c r="A486" s="4" t="s">
         <v>10</v>
       </c>
@@ -16777,7 +16767,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8">
       <c r="A487" s="4" t="s">
         <v>10</v>
       </c>
@@ -16803,7 +16793,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8">
       <c r="A488" s="4" t="s">
         <v>10</v>
       </c>
@@ -16829,7 +16819,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8">
       <c r="A489" s="4" t="s">
         <v>10</v>
       </c>
@@ -16855,7 +16845,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8">
       <c r="A490" s="4" t="s">
         <v>10</v>
       </c>
@@ -16881,7 +16871,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8">
       <c r="A491" s="4" t="s">
         <v>10</v>
       </c>
@@ -16907,7 +16897,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8">
       <c r="A492" s="4" t="s">
         <v>10</v>
       </c>
@@ -16933,7 +16923,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8">
       <c r="A493" s="4" t="s">
         <v>10</v>
       </c>
@@ -16959,7 +16949,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8">
       <c r="A494" s="4" t="s">
         <v>10</v>
       </c>
@@ -16985,7 +16975,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8">
       <c r="A495" s="4" t="s">
         <v>10</v>
       </c>
@@ -17011,7 +17001,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8">
       <c r="A496" s="4" t="s">
         <v>10</v>
       </c>
@@ -17037,7 +17027,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8">
       <c r="A497" s="4" t="s">
         <v>10</v>
       </c>
@@ -17063,7 +17053,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8">
       <c r="A498" s="4" t="s">
         <v>10</v>
       </c>
@@ -17089,7 +17079,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8">
       <c r="A499" s="4" t="s">
         <v>10</v>
       </c>
@@ -17115,7 +17105,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8">
       <c r="A500" s="4" t="s">
         <v>10</v>
       </c>
@@ -17141,7 +17131,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8">
       <c r="A501" s="4" t="s">
         <v>10</v>
       </c>
@@ -17167,7 +17157,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8">
       <c r="A502" s="4" t="s">
         <v>10</v>
       </c>
@@ -17193,7 +17183,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8">
       <c r="A503" s="4" t="s">
         <v>10</v>
       </c>
@@ -17219,7 +17209,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8">
       <c r="A504" s="4" t="s">
         <v>10</v>
       </c>
@@ -17245,7 +17235,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8">
       <c r="A505" s="4" t="s">
         <v>10</v>
       </c>
@@ -17271,7 +17261,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8">
       <c r="A506" s="4" t="s">
         <v>10</v>
       </c>
@@ -17297,7 +17287,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8">
       <c r="A507" s="4" t="s">
         <v>10</v>
       </c>
@@ -17323,7 +17313,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8">
       <c r="A508" s="4" t="s">
         <v>8</v>
       </c>
@@ -17349,7 +17339,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8">
       <c r="A509" s="4" t="s">
         <v>8</v>
       </c>
@@ -17375,7 +17365,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8">
       <c r="A510" s="4" t="s">
         <v>8</v>
       </c>
@@ -17401,7 +17391,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8">
       <c r="A511" s="4" t="s">
         <v>10</v>
       </c>
@@ -17427,7 +17417,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8">
       <c r="A512" s="4" t="s">
         <v>8</v>
       </c>
@@ -17453,7 +17443,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8">
       <c r="A513" s="4" t="s">
         <v>8</v>
       </c>
@@ -17479,7 +17469,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8">
       <c r="A514" s="4" t="s">
         <v>8</v>
       </c>
@@ -17505,7 +17495,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8">
       <c r="A515" s="4" t="s">
         <v>8</v>
       </c>
@@ -17531,7 +17521,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8">
       <c r="A516" s="4" t="s">
         <v>8</v>
       </c>
@@ -17557,7 +17547,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8">
       <c r="A517" s="4" t="s">
         <v>8</v>
       </c>
@@ -17583,7 +17573,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8">
       <c r="A518" s="4" t="s">
         <v>8</v>
       </c>
@@ -17609,7 +17599,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8">
       <c r="A519" s="4" t="s">
         <v>8</v>
       </c>
@@ -17635,7 +17625,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8">
       <c r="A520" s="4" t="s">
         <v>8</v>
       </c>
@@ -17661,7 +17651,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8">
       <c r="A521" s="4" t="s">
         <v>8</v>
       </c>
@@ -17687,7 +17677,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8">
       <c r="A522" s="4" t="s">
         <v>8</v>
       </c>
@@ -17713,7 +17703,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8">
       <c r="A523" s="4" t="s">
         <v>8</v>
       </c>
@@ -17739,7 +17729,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8">
       <c r="A524" s="4" t="s">
         <v>8</v>
       </c>
@@ -17765,7 +17755,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8">
       <c r="A525" s="4" t="s">
         <v>8</v>
       </c>
@@ -17791,7 +17781,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8">
       <c r="A526" s="4" t="s">
         <v>8</v>
       </c>
@@ -17817,7 +17807,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8">
       <c r="A527" s="4" t="s">
         <v>8</v>
       </c>
@@ -17843,7 +17833,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8">
       <c r="A528" s="4" t="s">
         <v>16</v>
       </c>
@@ -17869,7 +17859,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8">
       <c r="A529" s="4" t="s">
         <v>16</v>
       </c>
@@ -17895,7 +17885,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8">
       <c r="A530" s="4" t="s">
         <v>16</v>
       </c>
@@ -17921,7 +17911,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8">
       <c r="A531" s="4" t="s">
         <v>16</v>
       </c>
@@ -17947,7 +17937,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8">
       <c r="A532" s="4" t="s">
         <v>16</v>
       </c>
@@ -17973,7 +17963,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8">
       <c r="A533" s="4" t="s">
         <v>16</v>
       </c>
@@ -17999,7 +17989,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8">
       <c r="A534" s="4" t="s">
         <v>16</v>
       </c>
@@ -18025,7 +18015,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8">
       <c r="A535" s="4" t="s">
         <v>16</v>
       </c>
@@ -18051,7 +18041,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8">
       <c r="A536" s="4" t="s">
         <v>16</v>
       </c>
@@ -18077,7 +18067,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8">
       <c r="A537" s="4" t="s">
         <v>16</v>
       </c>
@@ -18103,7 +18093,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8">
       <c r="A538" s="4" t="s">
         <v>16</v>
       </c>
@@ -18129,7 +18119,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8">
       <c r="A539" s="4" t="s">
         <v>16</v>
       </c>
@@ -18155,7 +18145,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8">
       <c r="A540" s="4" t="s">
         <v>16</v>
       </c>
@@ -18181,7 +18171,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8">
       <c r="A541" s="4" t="s">
         <v>16</v>
       </c>
@@ -18207,7 +18197,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8">
       <c r="A542" s="4" t="s">
         <v>16</v>
       </c>
@@ -18233,7 +18223,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8">
       <c r="A543" s="4" t="s">
         <v>16</v>
       </c>
@@ -18259,7 +18249,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8">
       <c r="A544" s="4" t="s">
         <v>16</v>
       </c>
@@ -18285,7 +18275,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8">
       <c r="A545" s="4" t="s">
         <v>16</v>
       </c>
@@ -18311,7 +18301,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8">
       <c r="A546" s="4" t="s">
         <v>16</v>
       </c>
@@ -18337,7 +18327,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8">
       <c r="A547" s="4" t="s">
         <v>16</v>
       </c>
@@ -18363,7 +18353,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8">
       <c r="A548" s="4" t="s">
         <v>15</v>
       </c>
@@ -18389,7 +18379,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8">
       <c r="A549" s="4" t="s">
         <v>15</v>
       </c>
@@ -18415,7 +18405,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8">
       <c r="A550" s="4" t="s">
         <v>15</v>
       </c>
@@ -18441,7 +18431,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8">
       <c r="A551" s="4" t="s">
         <v>15</v>
       </c>
@@ -18467,7 +18457,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8">
       <c r="A552" s="4" t="s">
         <v>15</v>
       </c>
@@ -18493,7 +18483,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8">
       <c r="A553" s="4" t="s">
         <v>15</v>
       </c>
@@ -18519,7 +18509,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8">
       <c r="A554" s="4" t="s">
         <v>15</v>
       </c>
@@ -18545,7 +18535,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8">
       <c r="A555" s="4" t="s">
         <v>15</v>
       </c>
@@ -18571,7 +18561,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8">
       <c r="A556" s="4" t="s">
         <v>15</v>
       </c>
@@ -18597,7 +18587,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8">
       <c r="A557" s="4" t="s">
         <v>15</v>
       </c>
@@ -18623,7 +18613,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8">
       <c r="A558" s="4" t="s">
         <v>15</v>
       </c>
@@ -18649,7 +18639,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8">
       <c r="A559" s="4" t="s">
         <v>15</v>
       </c>
@@ -18675,7 +18665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8">
       <c r="A560" s="4" t="s">
         <v>15</v>
       </c>
@@ -18701,7 +18691,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8">
       <c r="A561" s="4" t="s">
         <v>15</v>
       </c>
@@ -18727,7 +18717,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8">
       <c r="A562" s="4" t="s">
         <v>15</v>
       </c>
@@ -18753,7 +18743,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8">
       <c r="A563" s="4" t="s">
         <v>15</v>
       </c>
@@ -18779,7 +18769,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8">
       <c r="A564" s="4" t="s">
         <v>15</v>
       </c>
@@ -18805,7 +18795,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8">
       <c r="A565" s="4" t="s">
         <v>15</v>
       </c>
@@ -18831,7 +18821,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8">
       <c r="A566" s="4" t="s">
         <v>15</v>
       </c>
@@ -18857,7 +18847,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8">
       <c r="A567" s="4" t="s">
         <v>15</v>
       </c>
@@ -18883,7 +18873,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8">
       <c r="A568" s="4" t="s">
         <v>15</v>
       </c>
@@ -18909,7 +18899,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8">
       <c r="A569" s="4" t="s">
         <v>16</v>
       </c>
@@ -18935,7 +18925,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8">
       <c r="A570" s="4" t="s">
         <v>16</v>
       </c>
@@ -18961,7 +18951,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8">
       <c r="A571" s="4" t="s">
         <v>16</v>
       </c>
@@ -18987,7 +18977,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8">
       <c r="A572" s="4" t="s">
         <v>16</v>
       </c>
@@ -19013,7 +19003,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8">
       <c r="A573" s="4" t="s">
         <v>16</v>
       </c>
@@ -19039,7 +19029,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8">
       <c r="A574" s="4" t="s">
         <v>16</v>
       </c>
@@ -19065,7 +19055,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8">
       <c r="A575" s="4" t="s">
         <v>16</v>
       </c>
@@ -19091,7 +19081,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8">
       <c r="A576" s="4" t="s">
         <v>16</v>
       </c>
@@ -19117,7 +19107,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8">
       <c r="A577" s="4" t="s">
         <v>16</v>
       </c>
@@ -19143,7 +19133,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8">
       <c r="A578" s="4" t="s">
         <v>16</v>
       </c>
@@ -19169,7 +19159,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8">
       <c r="A579" s="4" t="s">
         <v>16</v>
       </c>
@@ -19195,7 +19185,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8">
       <c r="A580" s="4" t="s">
         <v>16</v>
       </c>
@@ -19221,7 +19211,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8">
       <c r="A581" s="4" t="s">
         <v>16</v>
       </c>
@@ -19247,7 +19237,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8">
       <c r="A582" s="4" t="s">
         <v>16</v>
       </c>
@@ -19273,7 +19263,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8">
       <c r="A583" s="4" t="s">
         <v>16</v>
       </c>
@@ -19299,7 +19289,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8">
       <c r="A584" s="4" t="s">
         <v>16</v>
       </c>
@@ -19325,7 +19315,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8">
       <c r="A585" s="4" t="s">
         <v>16</v>
       </c>
@@ -19351,7 +19341,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8">
       <c r="A586" s="4" t="s">
         <v>16</v>
       </c>
@@ -19377,7 +19367,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8">
       <c r="A587" s="4" t="s">
         <v>16</v>
       </c>
@@ -19403,7 +19393,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8">
       <c r="A588" s="4" t="s">
         <v>16</v>
       </c>
@@ -19429,7 +19419,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8">
       <c r="A589" s="4" t="s">
         <v>15</v>
       </c>
@@ -19455,7 +19445,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8">
       <c r="A590" s="4" t="s">
         <v>15</v>
       </c>
@@ -19481,7 +19471,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8">
       <c r="A591" s="4" t="s">
         <v>15</v>
       </c>
@@ -19507,7 +19497,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8">
       <c r="A592" s="4" t="s">
         <v>15</v>
       </c>
@@ -19533,7 +19523,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8">
       <c r="A593" s="4" t="s">
         <v>15</v>
       </c>
@@ -19559,7 +19549,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8">
       <c r="A594" s="4" t="s">
         <v>15</v>
       </c>
@@ -19585,7 +19575,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8">
       <c r="A595" s="4" t="s">
         <v>15</v>
       </c>
@@ -19611,7 +19601,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8">
       <c r="A596" s="4" t="s">
         <v>15</v>
       </c>
@@ -19637,7 +19627,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8">
       <c r="A597" s="4" t="s">
         <v>15</v>
       </c>
@@ -19663,7 +19653,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8">
       <c r="A598" s="4" t="s">
         <v>15</v>
       </c>
@@ -19689,7 +19679,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8">
       <c r="A599" s="4" t="s">
         <v>15</v>
       </c>
@@ -19715,7 +19705,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8">
       <c r="A600" s="4" t="s">
         <v>15</v>
       </c>
@@ -19741,7 +19731,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8">
       <c r="A601" s="4" t="s">
         <v>15</v>
       </c>
@@ -19767,7 +19757,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8">
       <c r="A602" s="4" t="s">
         <v>15</v>
       </c>
@@ -19793,7 +19783,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8">
       <c r="A603" s="4" t="s">
         <v>15</v>
       </c>
@@ -19819,7 +19809,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8">
       <c r="A604" s="4" t="s">
         <v>15</v>
       </c>
@@ -19845,7 +19835,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8">
       <c r="A605" s="4" t="s">
         <v>15</v>
       </c>
@@ -19871,7 +19861,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8">
       <c r="A606" s="4" t="s">
         <v>15</v>
       </c>
@@ -19897,7 +19887,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8">
       <c r="A607" s="4" t="s">
         <v>15</v>
       </c>
@@ -19923,7 +19913,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8">
       <c r="A608" s="4" t="s">
         <v>15</v>
       </c>
@@ -19949,7 +19939,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8">
       <c r="A609" s="4" t="s">
         <v>15</v>
       </c>
@@ -19975,7 +19965,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8">
       <c r="A610" s="4" t="s">
         <v>15</v>
       </c>
@@ -20001,7 +19991,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8">
       <c r="A611" s="4" t="s">
         <v>15</v>
       </c>
@@ -20027,7 +20017,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8">
       <c r="A612" s="4" t="s">
         <v>15</v>
       </c>
@@ -20053,7 +20043,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8">
       <c r="A613" s="4" t="s">
         <v>15</v>
       </c>
@@ -20079,7 +20069,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8">
       <c r="A614" s="4" t="s">
         <v>15</v>
       </c>
@@ -20105,7 +20095,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8">
       <c r="A615" s="4" t="s">
         <v>15</v>
       </c>
@@ -20131,7 +20121,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8">
       <c r="A616" s="4" t="s">
         <v>15</v>
       </c>
@@ -20157,7 +20147,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8">
       <c r="A617" s="4" t="s">
         <v>15</v>
       </c>
@@ -20183,7 +20173,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8">
       <c r="A618" s="4" t="s">
         <v>15</v>
       </c>
@@ -20209,7 +20199,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8">
       <c r="A619" s="4" t="s">
         <v>15</v>
       </c>
@@ -20235,7 +20225,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8">
       <c r="A620" s="4" t="s">
         <v>15</v>
       </c>
@@ -20261,7 +20251,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8">
       <c r="A621" s="4" t="s">
         <v>15</v>
       </c>
@@ -20287,7 +20277,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8">
       <c r="A622" s="4" t="s">
         <v>15</v>
       </c>
@@ -20313,7 +20303,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8">
       <c r="A623" s="4" t="s">
         <v>15</v>
       </c>
@@ -20339,7 +20329,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8">
       <c r="A624" s="4" t="s">
         <v>15</v>
       </c>
@@ -20365,7 +20355,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8">
       <c r="A625" s="4" t="s">
         <v>15</v>
       </c>
@@ -20391,7 +20381,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8">
       <c r="A626" s="4" t="s">
         <v>15</v>
       </c>
@@ -20417,7 +20407,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8">
       <c r="A627" s="4" t="s">
         <v>15</v>
       </c>
@@ -20443,7 +20433,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8">
       <c r="A628" s="4" t="s">
         <v>15</v>
       </c>
@@ -20469,7 +20459,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8">
       <c r="A629" s="4" t="s">
         <v>15</v>
       </c>
@@ -20495,7 +20485,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8">
       <c r="A630" s="4" t="s">
         <v>15</v>
       </c>
@@ -20521,7 +20511,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8">
       <c r="A631" s="4" t="s">
         <v>15</v>
       </c>
@@ -20547,7 +20537,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8">
       <c r="A632" s="4" t="s">
         <v>15</v>
       </c>
@@ -20573,7 +20563,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8">
       <c r="A633" s="4" t="s">
         <v>15</v>
       </c>
@@ -20599,7 +20589,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8">
       <c r="A634" s="4" t="s">
         <v>15</v>
       </c>
@@ -20625,7 +20615,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8">
       <c r="A635" s="4" t="s">
         <v>15</v>
       </c>
@@ -20651,7 +20641,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8">
       <c r="A636" s="4" t="s">
         <v>15</v>
       </c>
@@ -20677,7 +20667,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8">
       <c r="A637" s="4" t="s">
         <v>15</v>
       </c>
@@ -20703,7 +20693,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8">
       <c r="A638" s="4" t="s">
         <v>15</v>
       </c>
@@ -20729,7 +20719,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8">
       <c r="A639" s="4" t="s">
         <v>15</v>
       </c>
@@ -20755,7 +20745,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8">
       <c r="A640" s="4" t="s">
         <v>15</v>
       </c>
@@ -20781,7 +20771,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8">
       <c r="A641" s="4" t="s">
         <v>15</v>
       </c>
@@ -20807,7 +20797,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8">
       <c r="A642" s="4" t="s">
         <v>16</v>
       </c>
@@ -20833,7 +20823,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8">
       <c r="A643" s="4" t="s">
         <v>16</v>
       </c>
@@ -20859,7 +20849,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8">
       <c r="A644" s="4" t="s">
         <v>16</v>
       </c>
@@ -20885,7 +20875,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8">
       <c r="A645" s="4" t="s">
         <v>16</v>
       </c>
@@ -20911,7 +20901,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8">
       <c r="A646" s="4" t="s">
         <v>16</v>
       </c>
@@ -20937,7 +20927,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8">
       <c r="A647" s="4" t="s">
         <v>16</v>
       </c>
@@ -20963,7 +20953,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8">
       <c r="A648" s="4" t="s">
         <v>16</v>
       </c>
@@ -20989,7 +20979,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8">
       <c r="A649" s="4" t="s">
         <v>16</v>
       </c>
@@ -21015,7 +21005,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8">
       <c r="A650" s="4" t="s">
         <v>16</v>
       </c>
@@ -21041,7 +21031,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8">
       <c r="A651" s="4" t="s">
         <v>16</v>
       </c>
@@ -21067,7 +21057,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8">
       <c r="A652" s="4" t="s">
         <v>16</v>
       </c>
@@ -21093,7 +21083,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8">
       <c r="A653" s="4" t="s">
         <v>16</v>
       </c>
@@ -21119,7 +21109,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8">
       <c r="A654" s="4" t="s">
         <v>16</v>
       </c>
@@ -21145,7 +21135,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8">
       <c r="A655" s="4" t="s">
         <v>16</v>
       </c>
@@ -21171,7 +21161,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8">
       <c r="A656" s="4" t="s">
         <v>16</v>
       </c>
@@ -21197,7 +21187,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8">
       <c r="A657" s="4" t="s">
         <v>16</v>
       </c>
@@ -21223,7 +21213,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8">
       <c r="A658" s="4" t="s">
         <v>16</v>
       </c>
@@ -21249,7 +21239,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8">
       <c r="A659" s="4" t="s">
         <v>16</v>
       </c>
@@ -21275,7 +21265,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8">
       <c r="A660" s="4" t="s">
         <v>16</v>
       </c>
@@ -21301,7 +21291,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8">
       <c r="A661" s="4" t="s">
         <v>16</v>
       </c>
@@ -21327,7 +21317,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8">
       <c r="A662" s="4" t="s">
         <v>2</v>
       </c>
@@ -21353,7 +21343,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8">
       <c r="A663" s="4" t="s">
         <v>2</v>
       </c>
@@ -21379,7 +21369,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8">
       <c r="A664" s="4" t="s">
         <v>2</v>
       </c>
@@ -21405,7 +21395,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8">
       <c r="A665" s="4" t="s">
         <v>2</v>
       </c>
@@ -21431,7 +21421,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8">
       <c r="A666" s="4" t="s">
         <v>2</v>
       </c>
@@ -21457,7 +21447,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8">
       <c r="A667" s="4" t="s">
         <v>2</v>
       </c>
@@ -21483,7 +21473,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8">
       <c r="A668" s="4" t="s">
         <v>2</v>
       </c>
@@ -21509,7 +21499,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8">
       <c r="A669" s="4" t="s">
         <v>2</v>
       </c>
@@ -21535,7 +21525,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8">
       <c r="A670" s="4" t="s">
         <v>2</v>
       </c>
@@ -21561,7 +21551,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8">
       <c r="A671" s="4" t="s">
         <v>2</v>
       </c>
@@ -21587,7 +21577,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8">
       <c r="A672" s="4" t="s">
         <v>2</v>
       </c>
@@ -21613,7 +21603,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8">
       <c r="A673" s="4" t="s">
         <v>2</v>
       </c>
@@ -21639,7 +21629,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8">
       <c r="A674" s="4" t="s">
         <v>2</v>
       </c>
@@ -21665,7 +21655,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8">
       <c r="A675" s="4" t="s">
         <v>2</v>
       </c>
@@ -21691,7 +21681,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8">
       <c r="A676" s="4" t="s">
         <v>2</v>
       </c>
@@ -21717,7 +21707,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8">
       <c r="A677" s="4" t="s">
         <v>2</v>
       </c>
@@ -21743,7 +21733,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8">
       <c r="A678" s="4" t="s">
         <v>2</v>
       </c>
@@ -21769,7 +21759,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8">
       <c r="A679" s="4" t="s">
         <v>2</v>
       </c>
@@ -21795,7 +21785,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8">
       <c r="A680" s="4" t="s">
         <v>2</v>
       </c>
@@ -21821,7 +21811,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8">
       <c r="A681" s="4" t="s">
         <v>2</v>
       </c>
@@ -21847,7 +21837,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8">
       <c r="A682" s="4" t="s">
         <v>2</v>
       </c>
@@ -21873,7 +21863,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8">
       <c r="A683" s="4" t="s">
         <v>2</v>
       </c>
@@ -21899,7 +21889,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8">
       <c r="A684" s="4" t="s">
         <v>2</v>
       </c>
@@ -21925,7 +21915,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8">
       <c r="A685" s="4" t="s">
         <v>2</v>
       </c>
@@ -21951,7 +21941,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8">
       <c r="A686" s="4" t="s">
         <v>2</v>
       </c>
@@ -21977,7 +21967,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8">
       <c r="A687" s="4" t="s">
         <v>2</v>
       </c>
@@ -22003,7 +21993,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8">
       <c r="A688" s="4" t="s">
         <v>2</v>
       </c>
@@ -22029,7 +22019,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8">
       <c r="A689" s="4" t="s">
         <v>2</v>
       </c>
@@ -22055,7 +22045,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8">
       <c r="A690" s="4" t="s">
         <v>2</v>
       </c>
@@ -22081,7 +22071,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8">
       <c r="A691" s="4" t="s">
         <v>2</v>
       </c>
@@ -22107,7 +22097,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8">
       <c r="A692" s="4" t="s">
         <v>2</v>
       </c>
@@ -22133,7 +22123,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8">
       <c r="A693" s="4" t="s">
         <v>2</v>
       </c>
@@ -22159,7 +22149,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8">
       <c r="A694" s="4" t="s">
         <v>2</v>
       </c>
@@ -22185,7 +22175,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8">
       <c r="A695" s="4" t="s">
         <v>2</v>
       </c>
@@ -22211,7 +22201,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8">
       <c r="A696" s="4" t="s">
         <v>2</v>
       </c>
@@ -22237,7 +22227,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8">
       <c r="A697" s="4" t="s">
         <v>2</v>
       </c>
@@ -22263,7 +22253,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8">
       <c r="A698" s="4" t="s">
         <v>2</v>
       </c>
@@ -22289,7 +22279,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8">
       <c r="A699" s="4" t="s">
         <v>2</v>
       </c>
@@ -22315,7 +22305,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8">
       <c r="A700" s="4" t="s">
         <v>2</v>
       </c>
@@ -22341,7 +22331,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8">
       <c r="A701" s="4" t="s">
         <v>2</v>
       </c>
@@ -22367,7 +22357,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8">
       <c r="A702" s="4" t="s">
         <v>2</v>
       </c>
@@ -22393,7 +22383,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8">
       <c r="A703" s="4" t="s">
         <v>2</v>
       </c>
@@ -22419,7 +22409,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8">
       <c r="A704" s="4" t="s">
         <v>2</v>
       </c>
@@ -22445,7 +22435,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8">
       <c r="A705" s="4" t="s">
         <v>2</v>
       </c>
@@ -22471,7 +22461,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8">
       <c r="A706" s="4" t="s">
         <v>2</v>
       </c>
@@ -22497,7 +22487,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8">
       <c r="A707" s="4" t="s">
         <v>2</v>
       </c>
@@ -22523,7 +22513,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8">
       <c r="A708" s="4" t="s">
         <v>2</v>
       </c>
@@ -22549,7 +22539,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8">
       <c r="A709" s="4" t="s">
         <v>2</v>
       </c>
@@ -22575,7 +22565,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8">
       <c r="A710" s="4" t="s">
         <v>2</v>
       </c>
@@ -22601,7 +22591,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8">
       <c r="A711" s="4" t="s">
         <v>2</v>
       </c>
@@ -22627,7 +22617,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8">
       <c r="A712" s="4" t="s">
         <v>2</v>
       </c>
@@ -22653,7 +22643,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8">
       <c r="A713" s="4" t="s">
         <v>2</v>
       </c>
@@ -22679,7 +22669,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8">
       <c r="A714" s="4" t="s">
         <v>2</v>
       </c>
@@ -22705,7 +22695,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8">
       <c r="A715" s="4" t="s">
         <v>2</v>
       </c>
@@ -22731,7 +22721,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8">
       <c r="A716" s="4" t="s">
         <v>2</v>
       </c>
@@ -22757,7 +22747,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8">
       <c r="A717" s="4" t="s">
         <v>2</v>
       </c>
@@ -22783,7 +22773,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8">
       <c r="A718" s="4" t="s">
         <v>2</v>
       </c>
@@ -22809,7 +22799,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8">
       <c r="A719" s="4" t="s">
         <v>2</v>
       </c>
@@ -22835,7 +22825,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8">
       <c r="A720" s="4" t="s">
         <v>2</v>
       </c>
@@ -22861,7 +22851,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8">
       <c r="A721" s="4" t="s">
         <v>2</v>
       </c>
@@ -22887,7 +22877,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8">
       <c r="A722" s="4" t="s">
         <v>2</v>
       </c>
@@ -22913,7 +22903,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8">
       <c r="A723" s="4" t="s">
         <v>2</v>
       </c>
@@ -22939,7 +22929,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8">
       <c r="A724" s="4" t="s">
         <v>2</v>
       </c>
@@ -22965,7 +22955,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8">
       <c r="A725" s="4" t="s">
         <v>2</v>
       </c>
@@ -22991,7 +22981,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8">
       <c r="A726" s="4" t="s">
         <v>2</v>
       </c>
@@ -23017,7 +23007,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8">
       <c r="A727" s="4" t="s">
         <v>2</v>
       </c>
@@ -23043,7 +23033,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8">
       <c r="A728" s="4" t="s">
         <v>2</v>
       </c>
@@ -23069,7 +23059,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8">
       <c r="A729" s="4" t="s">
         <v>2</v>
       </c>
@@ -23095,7 +23085,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8">
       <c r="A730" s="4" t="s">
         <v>2</v>
       </c>
@@ -23121,7 +23111,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8">
       <c r="A731" s="4" t="s">
         <v>2</v>
       </c>
@@ -23147,7 +23137,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8">
       <c r="A732" s="4" t="s">
         <v>2</v>
       </c>
@@ -23173,7 +23163,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8">
       <c r="A733" s="4" t="s">
         <v>2</v>
       </c>
@@ -23199,7 +23189,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8">
       <c r="A734" s="4" t="s">
         <v>2</v>
       </c>
@@ -23225,7 +23215,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8">
       <c r="A735" s="4" t="s">
         <v>2</v>
       </c>
@@ -23251,7 +23241,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8">
       <c r="A736" s="4" t="s">
         <v>2</v>
       </c>
@@ -23277,7 +23267,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8">
       <c r="A737" s="4" t="s">
         <v>2</v>
       </c>
@@ -23303,7 +23293,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8">
       <c r="A738" s="4" t="s">
         <v>2</v>
       </c>
@@ -23329,7 +23319,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8">
       <c r="A739" s="4" t="s">
         <v>2</v>
       </c>
@@ -23355,7 +23345,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8">
       <c r="A740" s="4" t="s">
         <v>2</v>
       </c>
@@ -23381,7 +23371,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8">
       <c r="A741" s="4" t="s">
         <v>2</v>
       </c>
@@ -23407,7 +23397,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8">
       <c r="A742" s="4" t="s">
         <v>2</v>
       </c>
@@ -23433,7 +23423,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8">
       <c r="A743" s="4" t="s">
         <v>15</v>
       </c>
@@ -23459,7 +23449,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8">
       <c r="A744" s="4" t="s">
         <v>15</v>
       </c>
@@ -23485,7 +23475,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8">
       <c r="A745" s="4" t="s">
         <v>15</v>
       </c>
@@ -23511,7 +23501,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8">
       <c r="A746" s="4" t="s">
         <v>15</v>
       </c>
@@ -23537,7 +23527,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8">
       <c r="A747" s="4" t="s">
         <v>15</v>
       </c>
@@ -23563,7 +23553,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8">
       <c r="A748" s="4" t="s">
         <v>15</v>
       </c>
@@ -23589,7 +23579,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8">
       <c r="A749" s="4" t="s">
         <v>15</v>
       </c>
@@ -23615,7 +23605,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8">
       <c r="A750" s="4" t="s">
         <v>15</v>
       </c>
@@ -23641,7 +23631,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8">
       <c r="A751" s="4" t="s">
         <v>15</v>
       </c>
@@ -23667,7 +23657,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8">
       <c r="A752" s="4" t="s">
         <v>15</v>
       </c>
@@ -23693,7 +23683,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8">
       <c r="A753" s="4" t="s">
         <v>15</v>
       </c>
@@ -23719,7 +23709,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8">
       <c r="A754" s="4" t="s">
         <v>15</v>
       </c>
@@ -23745,7 +23735,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8">
       <c r="A755" s="4" t="s">
         <v>15</v>
       </c>
@@ -23771,7 +23761,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8">
       <c r="A756" s="4" t="s">
         <v>15</v>
       </c>
@@ -23797,7 +23787,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8">
       <c r="A757" s="4" t="s">
         <v>15</v>
       </c>
@@ -23823,7 +23813,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8">
       <c r="A758" s="4" t="s">
         <v>15</v>
       </c>
@@ -23849,7 +23839,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8">
       <c r="A759" s="4" t="s">
         <v>15</v>
       </c>
@@ -23875,7 +23865,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8">
       <c r="A760" s="4" t="s">
         <v>2</v>
       </c>
@@ -23901,7 +23891,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8">
       <c r="A761" s="4" t="s">
         <v>2</v>
       </c>
@@ -23927,7 +23917,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8">
       <c r="A762" s="4" t="s">
         <v>2</v>
       </c>
@@ -23953,7 +23943,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8">
       <c r="A763" s="4" t="s">
         <v>2</v>
       </c>
@@ -23979,7 +23969,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8">
       <c r="A764" s="4" t="s">
         <v>8</v>
       </c>
@@ -24005,7 +23995,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8">
       <c r="A765" s="4" t="s">
         <v>8</v>
       </c>
@@ -24031,7 +24021,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8">
       <c r="A766" s="4" t="s">
         <v>8</v>
       </c>
@@ -24057,7 +24047,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8">
       <c r="A767" s="4" t="s">
         <v>8</v>
       </c>
@@ -24083,7 +24073,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8">
       <c r="A768" s="4" t="s">
         <v>8</v>
       </c>
@@ -24109,7 +24099,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8">
       <c r="A769" s="4" t="s">
         <v>8</v>
       </c>
@@ -24135,7 +24125,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8">
       <c r="A770" s="4" t="s">
         <v>8</v>
       </c>
@@ -24161,7 +24151,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8">
       <c r="A771" s="4" t="s">
         <v>8</v>
       </c>
@@ -24187,7 +24177,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8">
       <c r="A772" s="4" t="s">
         <v>8</v>
       </c>
@@ -24213,7 +24203,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8">
       <c r="A773" s="4" t="s">
         <v>8</v>
       </c>
@@ -24239,7 +24229,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8">
       <c r="A774" s="4" t="s">
         <v>8</v>
       </c>
@@ -24265,7 +24255,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8">
       <c r="A775" s="4" t="s">
         <v>8</v>
       </c>
@@ -24291,7 +24281,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8">
       <c r="A776" s="4" t="s">
         <v>8</v>
       </c>
@@ -24317,7 +24307,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8">
       <c r="A777" s="4" t="s">
         <v>8</v>
       </c>
@@ -24343,7 +24333,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8">
       <c r="A778" s="4" t="s">
         <v>8</v>
       </c>
@@ -24369,7 +24359,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8">
       <c r="A779" s="4" t="s">
         <v>8</v>
       </c>
@@ -24395,7 +24385,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8">
       <c r="A780" s="4" t="s">
         <v>8</v>
       </c>
@@ -24421,7 +24411,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8">
       <c r="A781" s="4" t="s">
         <v>8</v>
       </c>
@@ -24447,7 +24437,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8">
       <c r="A782" s="4" t="s">
         <v>8</v>
       </c>
@@ -24473,7 +24463,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8">
       <c r="A783" s="4" t="s">
         <v>8</v>
       </c>
@@ -24499,7 +24489,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8">
       <c r="A784" s="4" t="s">
         <v>8</v>
       </c>
@@ -24525,7 +24515,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8">
       <c r="A785" s="4" t="s">
         <v>8</v>
       </c>
@@ -24551,7 +24541,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8">
       <c r="A786" s="4" t="s">
         <v>8</v>
       </c>
@@ -24577,7 +24567,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8">
       <c r="A787" s="4" t="s">
         <v>8</v>
       </c>
@@ -24603,7 +24593,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8">
       <c r="A788" s="4" t="s">
         <v>8</v>
       </c>
@@ -24629,7 +24619,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8">
       <c r="A789" s="4" t="s">
         <v>8</v>
       </c>
@@ -24655,7 +24645,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8">
       <c r="A790" s="4" t="s">
         <v>8</v>
       </c>
@@ -24681,7 +24671,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8">
       <c r="A791" s="4" t="s">
         <v>8</v>
       </c>
@@ -24707,7 +24697,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8">
       <c r="A792" s="4" t="s">
         <v>16</v>
       </c>
@@ -24733,7 +24723,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8">
       <c r="A793" s="4" t="s">
         <v>16</v>
       </c>
@@ -24759,7 +24749,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8">
       <c r="A794" s="4" t="s">
         <v>16</v>
       </c>
@@ -24785,7 +24775,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8">
       <c r="A795" s="4" t="s">
         <v>16</v>
       </c>
@@ -24811,7 +24801,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8">
       <c r="A796" s="4" t="s">
         <v>16</v>
       </c>
@@ -24837,7 +24827,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8">
       <c r="A797" s="4" t="s">
         <v>16</v>
       </c>
@@ -24863,7 +24853,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8">
       <c r="A798" s="4" t="s">
         <v>16</v>
       </c>
@@ -24889,7 +24879,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8">
       <c r="A799" s="4" t="s">
         <v>16</v>
       </c>
@@ -24915,7 +24905,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8">
       <c r="A800" s="4" t="s">
         <v>16</v>
       </c>
@@ -24941,7 +24931,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8">
       <c r="A801" s="4" t="s">
         <v>16</v>
       </c>
@@ -24967,7 +24957,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8">
       <c r="A802" s="4" t="s">
         <v>16</v>
       </c>
@@ -24993,7 +24983,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8">
       <c r="A803" s="4" t="s">
         <v>16</v>
       </c>
@@ -25019,7 +25009,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8">
       <c r="A804" s="4" t="s">
         <v>16</v>
       </c>
@@ -25045,7 +25035,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8">
       <c r="A805" s="4" t="s">
         <v>16</v>
       </c>
@@ -25071,7 +25061,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8">
       <c r="A806" s="4" t="s">
         <v>16</v>
       </c>
@@ -25097,7 +25087,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8">
       <c r="A807" s="4" t="s">
         <v>8</v>
       </c>
@@ -25123,7 +25113,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8">
       <c r="A808" s="4" t="s">
         <v>8</v>
       </c>
@@ -25149,7 +25139,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8">
       <c r="A809" s="4" t="s">
         <v>8</v>
       </c>
@@ -25175,7 +25165,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8">
       <c r="A810" s="4" t="s">
         <v>8</v>
       </c>
@@ -25201,7 +25191,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8">
       <c r="A811" s="4" t="s">
         <v>8</v>
       </c>
@@ -25227,7 +25217,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8">
       <c r="A812" s="4" t="s">
         <v>8</v>
       </c>
@@ -25253,7 +25243,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8">
       <c r="A813" s="4" t="s">
         <v>8</v>
       </c>
@@ -25279,7 +25269,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8">
       <c r="A814" s="4" t="s">
         <v>8</v>
       </c>
@@ -25305,7 +25295,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8">
       <c r="A815" s="4" t="s">
         <v>8</v>
       </c>
@@ -25331,7 +25321,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8">
       <c r="A816" s="4" t="s">
         <v>8</v>
       </c>
@@ -25357,7 +25347,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8">
       <c r="A817" s="4" t="s">
         <v>8</v>
       </c>
@@ -25383,7 +25373,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8">
       <c r="A818" s="4" t="s">
         <v>8</v>
       </c>
@@ -25409,7 +25399,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8">
       <c r="A819" s="4" t="s">
         <v>8</v>
       </c>
@@ -25435,7 +25425,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8">
       <c r="A820" s="4" t="s">
         <v>8</v>
       </c>
@@ -25461,7 +25451,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8">
       <c r="A821" s="4" t="s">
         <v>8</v>
       </c>
@@ -25487,7 +25477,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8">
       <c r="A822" s="4" t="s">
         <v>8</v>
       </c>
@@ -25513,7 +25503,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8">
       <c r="A823" s="4" t="s">
         <v>8</v>
       </c>
@@ -25539,7 +25529,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8">
       <c r="A824" s="4" t="s">
         <v>8</v>
       </c>
@@ -25565,7 +25555,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8">
       <c r="A825" s="4" t="s">
         <v>8</v>
       </c>
@@ -25591,7 +25581,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8">
       <c r="A826" s="4" t="s">
         <v>8</v>
       </c>
@@ -25617,7 +25607,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8">
       <c r="A827" s="4" t="s">
         <v>10</v>
       </c>
@@ -25643,7 +25633,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8">
       <c r="A828" s="4" t="s">
         <v>10</v>
       </c>
@@ -25669,7 +25659,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8">
       <c r="A829" s="4" t="s">
         <v>10</v>
       </c>
@@ -25695,7 +25685,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8">
       <c r="A830" s="4" t="s">
         <v>10</v>
       </c>
@@ -25721,7 +25711,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8">
       <c r="A831" s="4" t="s">
         <v>10</v>
       </c>
@@ -25747,7 +25737,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8">
       <c r="A832" s="4" t="s">
         <v>10</v>
       </c>
@@ -25773,7 +25763,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8">
       <c r="A833" s="4" t="s">
         <v>10</v>
       </c>
@@ -25799,7 +25789,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8">
       <c r="A834" s="4" t="s">
         <v>10</v>
       </c>
@@ -25825,7 +25815,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8">
       <c r="A835" s="4" t="s">
         <v>10</v>
       </c>
@@ -25851,7 +25841,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8">
       <c r="A836" s="4" t="s">
         <v>10</v>
       </c>
@@ -25877,7 +25867,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8">
       <c r="A837" s="4" t="s">
         <v>10</v>
       </c>
@@ -25903,7 +25893,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8">
       <c r="A838" s="4" t="s">
         <v>10</v>
       </c>
@@ -25929,7 +25919,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8">
       <c r="A839" s="4" t="s">
         <v>10</v>
       </c>
@@ -25955,7 +25945,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8">
       <c r="A840" s="4" t="s">
         <v>10</v>
       </c>
@@ -25981,7 +25971,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8">
       <c r="A841" s="4" t="s">
         <v>10</v>
       </c>
@@ -26007,7 +25997,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8">
       <c r="A842" s="4" t="s">
         <v>10</v>
       </c>
@@ -26033,7 +26023,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8">
       <c r="A843" s="4" t="s">
         <v>10</v>
       </c>
@@ -26059,7 +26049,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8">
       <c r="A844" s="4" t="s">
         <v>10</v>
       </c>
@@ -26085,7 +26075,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8">
       <c r="A845" s="4" t="s">
         <v>10</v>
       </c>
@@ -26111,7 +26101,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8">
       <c r="A846" s="4" t="s">
         <v>10</v>
       </c>
@@ -26137,7 +26127,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8">
       <c r="A847" s="4" t="s">
         <v>10</v>
       </c>
@@ -26163,7 +26153,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8">
       <c r="A848" s="4" t="s">
         <v>10</v>
       </c>
@@ -26189,7 +26179,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8">
       <c r="A849" s="4" t="s">
         <v>10</v>
       </c>
@@ -26215,7 +26205,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8">
       <c r="A850" s="4" t="s">
         <v>10</v>
       </c>
@@ -26241,7 +26231,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8">
       <c r="A851" s="4" t="s">
         <v>10</v>
       </c>
@@ -26267,7 +26257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8">
       <c r="A852" s="4" t="s">
         <v>10</v>
       </c>
@@ -26293,7 +26283,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8">
       <c r="A853" s="4" t="s">
         <v>10</v>
       </c>
@@ -26319,7 +26309,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8">
       <c r="A854" s="4" t="s">
         <v>10</v>
       </c>
@@ -26345,7 +26335,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8">
       <c r="A855" s="4" t="s">
         <v>10</v>
       </c>
@@ -26371,7 +26361,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8">
       <c r="A856" s="4" t="s">
         <v>10</v>
       </c>
@@ -26397,7 +26387,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8">
       <c r="A857" s="4" t="s">
         <v>10</v>
       </c>
@@ -26423,7 +26413,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8">
       <c r="A858" s="4" t="s">
         <v>10</v>
       </c>
@@ -26449,7 +26439,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8">
       <c r="A859" s="4" t="s">
         <v>19</v>
       </c>
@@ -26475,7 +26465,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8">
       <c r="A860" s="4" t="s">
         <v>998</v>
       </c>
@@ -26501,7 +26491,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8">
       <c r="A861" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26527,7 +26517,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8">
       <c r="A862" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26553,7 +26543,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8">
       <c r="A863" s="4" t="s">
         <v>1007</v>
       </c>
@@ -26579,7 +26569,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8">
       <c r="A864" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26605,7 +26595,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8">
       <c r="A865" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26631,7 +26621,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8">
       <c r="A866" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26657,7 +26647,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8">
       <c r="A867" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26683,7 +26673,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8">
       <c r="A868" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26709,7 +26699,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8">
       <c r="A869" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26735,7 +26725,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8">
       <c r="A870" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26761,7 +26751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8">
       <c r="A871" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26787,7 +26777,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8">
       <c r="A872" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26813,7 +26803,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8">
       <c r="A873" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26839,7 +26829,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8">
       <c r="A874" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26865,7 +26855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8">
       <c r="A875" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26891,7 +26881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8">
       <c r="A876" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26917,7 +26907,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8">
       <c r="A877" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26943,7 +26933,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8">
       <c r="A878" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26969,7 +26959,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8">
       <c r="A879" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26995,7 +26985,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8">
       <c r="A880" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27021,7 +27011,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8">
       <c r="A881" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27047,7 +27037,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8">
       <c r="A882" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27073,7 +27063,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8">
       <c r="A883" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27099,7 +27089,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8">
       <c r="A884" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27125,7 +27115,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8">
       <c r="A885" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27151,7 +27141,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8">
       <c r="A886" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27177,7 +27167,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8">
       <c r="A887" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27203,7 +27193,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8">
       <c r="A888" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27229,7 +27219,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8">
       <c r="A889" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27255,7 +27245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8">
       <c r="A890" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27281,7 +27271,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8">
       <c r="A891" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27307,7 +27297,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8">
       <c r="A892" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27333,7 +27323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8">
       <c r="A893" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27359,7 +27349,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8">
       <c r="A894" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27385,7 +27375,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8">
       <c r="A895" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27411,7 +27401,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8">
       <c r="A896" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27437,7 +27427,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8">
       <c r="A897" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27463,7 +27453,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8">
       <c r="A898" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27489,7 +27479,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8">
       <c r="A899" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27515,7 +27505,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8">
       <c r="A900" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27541,7 +27531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8">
       <c r="A901" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27567,7 +27557,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8">
       <c r="A902" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27593,7 +27583,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8">
       <c r="A903" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27619,7 +27609,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8">
       <c r="A904" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27645,7 +27635,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8">
       <c r="A905" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27671,7 +27661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8">
       <c r="A906" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27697,7 +27687,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8">
       <c r="A907" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27723,7 +27713,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8">
       <c r="A908" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27749,7 +27739,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8">
       <c r="A909" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27775,7 +27765,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8">
       <c r="A910" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27801,7 +27791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8">
       <c r="A911" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27827,7 +27817,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8">
       <c r="A912" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27853,7 +27843,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8">
       <c r="A913" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27879,7 +27869,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8">
       <c r="A914" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27905,7 +27895,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8">
       <c r="A915" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27931,7 +27921,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8">
       <c r="A916" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27957,7 +27947,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8">
       <c r="A917" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27983,7 +27973,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8">
       <c r="A918" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28009,7 +27999,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8">
       <c r="A919" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28035,7 +28025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8">
       <c r="A920" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28061,7 +28051,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8">
       <c r="A921" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28087,7 +28077,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8">
       <c r="A922" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28113,7 +28103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8">
       <c r="A923" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28139,7 +28129,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8">
       <c r="A924" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28165,7 +28155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8">
       <c r="A925" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28191,7 +28181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8">
       <c r="A926" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28217,7 +28207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8">
       <c r="A927" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28243,7 +28233,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8">
       <c r="A928" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28269,7 +28259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8">
       <c r="A929" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28295,7 +28285,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8">
       <c r="A930" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28321,7 +28311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8">
       <c r="A931" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28347,7 +28337,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8">
       <c r="A932" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28373,7 +28363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8">
       <c r="A933" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28399,7 +28389,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8">
       <c r="A934" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28425,7 +28415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8">
       <c r="A935" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28451,7 +28441,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8">
       <c r="A936" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28477,7 +28467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8">
       <c r="A937" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28503,7 +28493,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8">
       <c r="A938" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28529,7 +28519,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8">
       <c r="A939" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28555,7 +28545,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8">
       <c r="A940" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28581,7 +28571,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8">
       <c r="A941" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28607,7 +28597,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8">
       <c r="A942" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28633,7 +28623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8">
       <c r="A943" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28659,7 +28649,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8">
       <c r="A944" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28685,7 +28675,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10">
       <c r="A945" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28711,7 +28701,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10">
       <c r="A946" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28737,7 +28727,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10">
       <c r="A947" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28763,7 +28753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10">
       <c r="A948" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28789,7 +28779,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10">
       <c r="A949" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28815,7 +28805,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10">
       <c r="A950" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28841,7 +28831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10">
       <c r="A951" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28867,7 +28857,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10">
       <c r="A952" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28905,19 +28895,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1102</v>
       </c>
@@ -28925,9 +28913,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>1118</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1105</v>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7691" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7701" uniqueCount="1120">
   <si>
     <t>subject</t>
   </si>
@@ -3375,6 +3375,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>230531_144757</t>
   </si>
 </sst>
 </file>
@@ -4107,7 +4110,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J952"/>
+  <dimension ref="A1:J953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28889,6 +28892,38 @@
         <v>1105</v>
       </c>
     </row>
+    <row r="953" spans="1:10">
+      <c r="A953" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C953" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D953" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E953" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F953" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G953" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H953" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I953" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J953" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7701" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="1122">
   <si>
     <t>subject</t>
   </si>
@@ -3378,6 +3378,12 @@
   </si>
   <si>
     <t>230531_144757</t>
+  </si>
+  <si>
+    <t>230531_170530</t>
+  </si>
+  <si>
+    <t>35, 35, 35</t>
   </si>
 </sst>
 </file>
@@ -4110,7 +4116,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J953"/>
+  <dimension ref="A1:J954"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28924,6 +28930,38 @@
         <v>1105</v>
       </c>
     </row>
+    <row r="954" spans="1:10">
+      <c r="A954" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C954" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E954" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F954" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H954" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I954" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J954" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28953,7 +28991,7 @@
         <v>1118</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="1124">
   <si>
     <t>subject</t>
   </si>
@@ -3384,6 +3384,12 @@
   </si>
   <si>
     <t>35, 35, 35</t>
+  </si>
+  <si>
+    <t>230531_174737</t>
+  </si>
+  <si>
+    <t>230531_175522</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4122,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J954"/>
+  <dimension ref="A1:J956"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28962,6 +28968,70 @@
         <v>1105</v>
       </c>
     </row>
+    <row r="955" spans="1:10">
+      <c r="A955" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C955" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D955" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E955" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F955" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G955" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H955" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I955" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J955" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C956" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D956" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E956" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F956" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G956" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H956" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I956" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J956" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="1124">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="1127">
   <si>
     <t>subject</t>
   </si>
@@ -3390,6 +3390,15 @@
   </si>
   <si>
     <t>230531_175522</t>
+  </si>
+  <si>
+    <t>230531_204437</t>
+  </si>
+  <si>
+    <t>230531_205106</t>
+  </si>
+  <si>
+    <t>230531_205404</t>
   </si>
 </sst>
 </file>
@@ -4122,7 +4131,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J956"/>
+  <dimension ref="A1:J959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29032,6 +29041,102 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="957" spans="1:10">
+      <c r="A957" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C957" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D957" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E957" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F957" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G957" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H957" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I957" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J957" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C958" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D958" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E958" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F958" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G958" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H958" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I958" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J958" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C959" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D959" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E959" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F959" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G959" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H959" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I959" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J959" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="1134">
   <si>
     <t>subject</t>
   </si>
@@ -3399,6 +3399,27 @@
   </si>
   <si>
     <t>230531_205404</t>
+  </si>
+  <si>
+    <t>BL-003_025_230601</t>
+  </si>
+  <si>
+    <t>230601_002851</t>
+  </si>
+  <si>
+    <t>Exp#4_113s</t>
+  </si>
+  <si>
+    <t>230601_013013</t>
+  </si>
+  <si>
+    <t>230601_021131</t>
+  </si>
+  <si>
+    <t>230601_140111</t>
+  </si>
+  <si>
+    <t>230601_171210</t>
   </si>
 </sst>
 </file>
@@ -4131,7 +4152,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J959"/>
+  <dimension ref="A1:J964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28699,7 +28720,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="945" spans="1:10">
+    <row r="945" spans="1:8">
       <c r="A945" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28725,7 +28746,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="946" spans="1:10">
+    <row r="946" spans="1:8">
       <c r="A946" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28751,7 +28772,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="947" spans="1:10">
+    <row r="947" spans="1:8">
       <c r="A947" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28777,7 +28798,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="948" spans="1:10">
+    <row r="948" spans="1:8">
       <c r="A948" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28803,7 +28824,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="949" spans="1:10">
+    <row r="949" spans="1:8">
       <c r="A949" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28829,7 +28850,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="950" spans="1:10">
+    <row r="950" spans="1:8">
       <c r="A950" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28855,7 +28876,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="951" spans="1:10">
+    <row r="951" spans="1:8">
       <c r="A951" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28881,7 +28902,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="952" spans="1:10">
+    <row r="952" spans="1:8">
       <c r="A952" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28913,7 +28934,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="953" spans="1:10">
+    <row r="953" spans="1:8">
       <c r="A953" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28945,7 +28966,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="954" spans="1:10">
+    <row r="954" spans="1:8">
       <c r="A954" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28977,7 +28998,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="955" spans="1:10">
+    <row r="955" spans="1:8">
       <c r="A955" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29009,7 +29030,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="956" spans="1:10">
+    <row r="956" spans="1:8">
       <c r="A956" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29041,7 +29062,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="957" spans="1:10">
+    <row r="957" spans="1:8">
       <c r="A957" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29073,7 +29094,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="958" spans="1:10">
+    <row r="958" spans="1:8">
       <c r="A958" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29105,7 +29126,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="959" spans="1:10">
+    <row r="959" spans="1:8">
       <c r="A959" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29134,6 +29155,166 @@
         <v>1118</v>
       </c>
       <c r="J959" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8">
+      <c r="A960" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C960" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E960" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F960" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G960" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H960" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I960" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J960" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C961" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D961" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E961" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F961" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G961" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H961" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I961" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J961" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C962" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D962" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E962" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F962" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G962" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H962" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I962" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J962" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C963" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D963" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E963" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F963" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G963" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H963" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I963" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J963" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C964" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D964" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E964" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F964" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G964" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H964" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I964" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J964" s="4" t="s">
         <v>1121</v>
       </c>
     </row>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7820" uniqueCount="1136">
   <si>
     <t>subject</t>
   </si>
@@ -3420,6 +3420,12 @@
   </si>
   <si>
     <t>230601_171210</t>
+  </si>
+  <si>
+    <t>BL-003_025_230602</t>
+  </si>
+  <si>
+    <t>230602_015346</t>
   </si>
 </sst>
 </file>
@@ -4152,7 +4158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J964"/>
+  <dimension ref="A1:J965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29318,6 +29324,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="965" spans="1:10">
+      <c r="A965" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C965" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D965" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E965" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F965" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G965" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H965" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I965" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J965" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7820" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7841" uniqueCount="1138">
   <si>
     <t>subject</t>
   </si>
@@ -3426,6 +3426,12 @@
   </si>
   <si>
     <t>230602_015346</t>
+  </si>
+  <si>
+    <t>230602_130856</t>
+  </si>
+  <si>
+    <t>230602_131037</t>
   </si>
 </sst>
 </file>
@@ -4158,7 +4164,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J965"/>
+  <dimension ref="A1:J967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29356,6 +29362,70 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="966" spans="1:10">
+      <c r="A966" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C966" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D966" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E966" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F966" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G966" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H966" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I966" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J966" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C967" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D967" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E967" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F967" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G967" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H967" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I967" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J967" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7841" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7850" uniqueCount="1139">
   <si>
     <t>subject</t>
   </si>
@@ -3432,6 +3432,9 @@
   </si>
   <si>
     <t>230602_131037</t>
+  </si>
+  <si>
+    <t>230602_234654</t>
   </si>
 </sst>
 </file>
@@ -4164,7 +4167,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J967"/>
+  <dimension ref="A1:J968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29426,6 +29429,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="968" spans="1:10">
+      <c r="A968" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C968" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D968" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E968" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F968" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G968" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H968" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I968" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J968" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7850" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="1139">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7860" uniqueCount="1141">
   <si>
     <t>subject</t>
   </si>
@@ -3435,6 +3435,12 @@
   </si>
   <si>
     <t>230602_234654</t>
+  </si>
+  <si>
+    <t>BL-003_025_230603</t>
+  </si>
+  <si>
+    <t>230603_232600</t>
   </si>
 </sst>
 </file>
@@ -4167,7 +4173,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J968"/>
+  <dimension ref="A1:J969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29461,6 +29467,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="969" spans="1:10">
+      <c r="A969" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C969" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E969" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F969" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G969" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H969" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I969" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J969" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7860" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="1140">
   <si>
     <t>subject</t>
   </si>
@@ -3434,13 +3434,10 @@
     <t>230602_131037</t>
   </si>
   <si>
-    <t>230602_234654</t>
-  </si>
-  <si>
-    <t>BL-003_025_230603</t>
-  </si>
-  <si>
-    <t>230603_232600</t>
+    <t>230602_172216</t>
+  </si>
+  <si>
+    <t>230602_200551</t>
   </si>
 </sst>
 </file>
@@ -29475,11 +29472,11 @@
         <v>999</v>
       </c>
       <c r="C969" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D969" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="D969" s="4" t="s">
-        <v>1140</v>
-      </c>
       <c r="E969" s="4" t="s">
         <v>986</v>
       </c>
@@ -29487,7 +29484,7 @@
         <v>990</v>
       </c>
       <c r="G969" s="4" t="s">
-        <v>1129</v>
+        <v>1070</v>
       </c>
       <c r="H969" s="4" t="s">
         <v>996</v>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7870" uniqueCount="1142">
   <si>
     <t>subject</t>
   </si>
@@ -3438,6 +3438,12 @@
   </si>
   <si>
     <t>230602_200551</t>
+  </si>
+  <si>
+    <t>BL-003_025_230604</t>
+  </si>
+  <si>
+    <t>230604_232745</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4176,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J969"/>
+  <dimension ref="A1:J970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29496,6 +29502,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="970" spans="1:10">
+      <c r="A970" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C970" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E970" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F970" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G970" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H970" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I970" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J970" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7870" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="1143">
   <si>
     <t>subject</t>
   </si>
@@ -3444,6 +3444,9 @@
   </si>
   <si>
     <t>230604_232745</t>
+  </si>
+  <si>
+    <t>230604_235243</t>
   </si>
 </sst>
 </file>
@@ -4176,7 +4179,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J970"/>
+  <dimension ref="A1:J971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29534,6 +29537,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="971" spans="1:10">
+      <c r="A971" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C971" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D971" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E971" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F971" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G971" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H971" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I971" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J971" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="1149">
   <si>
     <t>subject</t>
   </si>
@@ -3447,6 +3447,24 @@
   </si>
   <si>
     <t>230604_235243</t>
+  </si>
+  <si>
+    <t>BL-003_025_230605</t>
+  </si>
+  <si>
+    <t>230605_205438</t>
+  </si>
+  <si>
+    <t>230605_211055</t>
+  </si>
+  <si>
+    <t>230605_211207</t>
+  </si>
+  <si>
+    <t>230605_211602</t>
+  </si>
+  <si>
+    <t>230605_212045</t>
   </si>
 </sst>
 </file>
@@ -4179,7 +4197,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J971"/>
+  <dimension ref="A1:J976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29569,6 +29587,166 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="972" spans="1:10">
+      <c r="A972" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C972" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D972" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E972" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F972" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G972" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H972" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I972" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J972" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
+      <c r="A973" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C973" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D973" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E973" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F973" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G973" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H973" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="I973" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J973" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C974" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D974" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E974" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F974" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G974" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H974" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="I974" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J974" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C975" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D975" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E975" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F975" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G975" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H975" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I975" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J975" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C976" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D976" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E976" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F976" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G976" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H976" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="I976" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J976" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7941" uniqueCount="1151">
   <si>
     <t>subject</t>
   </si>
@@ -3465,6 +3465,12 @@
   </si>
   <si>
     <t>230605_212045</t>
+  </si>
+  <si>
+    <t>BL-003_025_230606</t>
+  </si>
+  <si>
+    <t>230606_004650</t>
   </si>
 </sst>
 </file>
@@ -4197,7 +4203,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J976"/>
+  <dimension ref="A1:J977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29747,6 +29753,38 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="977" spans="1:10">
+      <c r="A977" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C977" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D977" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E977" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F977" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G977" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H977" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I977" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J977" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29773,10 +29811,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1118</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1121</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7950" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="1152">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\oqni\Recordings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF08B52-9843-41CE-AF76-E48EBAD30F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="1154">
   <si>
     <t>subject</t>
   </si>
@@ -3474,13 +3480,19 @@
   </si>
   <si>
     <t>230606_192921</t>
+  </si>
+  <si>
+    <t>BL-003_025_230607</t>
+  </si>
+  <si>
+    <t>230607_234556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3495,9 +3507,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3564,6 +3573,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3853,18 +3870,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="0">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +3905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3896,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3936,7 +3953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +4001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +4009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -4000,7 +4017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -4008,7 +4025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -4016,7 +4033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>998</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1003</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>1010</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1033</v>
       </c>
@@ -4048,7 +4065,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1107</v>
       </c>
@@ -4062,18 +4079,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4081,15 +4098,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1.2</v>
       </c>
@@ -4097,17 +4114,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3.1</v>
       </c>
@@ -4115,7 +4132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -4123,15 +4140,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4.2</v>
       </c>
@@ -4145,19 +4162,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4168,7 +4185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -4190,7 +4207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -4205,12 +4222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J978"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
@@ -4224,7 +4243,7 @@
     <col min="10" max="10" width="8" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="0">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4256,12 +4275,12 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>1121</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>66</v>
@@ -4282,7 +4301,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4308,7 +4327,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4334,7 +4353,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4386,7 +4405,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4412,7 +4431,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4483,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -4490,7 +4509,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -4516,7 +4535,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -4542,7 +4561,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -4568,7 +4587,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4613,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4620,7 +4639,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4665,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -4672,7 +4691,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4717,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +4743,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4750,7 +4769,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -4802,7 +4821,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4828,7 +4847,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4873,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -4880,7 +4899,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4925,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -4932,7 +4951,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4977,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +5003,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -5010,7 +5029,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -5036,7 +5055,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -5062,7 +5081,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -5088,7 +5107,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5114,7 +5133,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -5140,7 +5159,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -5166,7 +5185,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5192,7 +5211,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -5218,7 +5237,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -5244,7 +5263,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5270,7 +5289,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5315,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -5322,7 +5341,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5367,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5419,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5445,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5471,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5478,7 +5497,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5504,7 +5523,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -5530,7 +5549,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5575,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -5582,7 +5601,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -5634,7 +5653,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -5660,7 +5679,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -5686,7 +5705,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5731,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +5757,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5783,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -5790,7 +5809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -5816,7 +5835,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -5842,7 +5861,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5887,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -5894,7 +5913,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -5920,7 +5939,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -5946,7 +5965,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -5972,7 +5991,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -5998,7 +6017,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -6024,7 +6043,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -6050,7 +6069,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +6095,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6121,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>2</v>
       </c>
@@ -6128,7 +6147,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>2</v>
       </c>
@@ -6154,7 +6173,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +6225,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>2</v>
       </c>
@@ -6232,7 +6251,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>2</v>
       </c>
@@ -6258,7 +6277,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -6284,7 +6303,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>2</v>
       </c>
@@ -6310,7 +6329,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>2</v>
       </c>
@@ -6336,7 +6355,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
@@ -6362,7 +6381,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
@@ -6388,7 +6407,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -6466,7 +6485,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -6492,7 +6511,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -6518,7 +6537,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -6544,7 +6563,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -6570,7 +6589,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -6596,7 +6615,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -6622,7 +6641,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -6674,7 +6693,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -6700,7 +6719,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -6726,7 +6745,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -6752,7 +6771,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -6778,7 +6797,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -6804,7 +6823,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +6849,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -6856,7 +6875,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6927,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
@@ -6934,7 +6953,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
@@ -6986,7 +7005,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>12</v>
       </c>
@@ -7012,7 +7031,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>12</v>
       </c>
@@ -7038,7 +7057,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -7064,7 +7083,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -7090,7 +7109,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>12</v>
       </c>
@@ -7116,7 +7135,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
@@ -7142,7 +7161,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>5</v>
       </c>
@@ -7168,7 +7187,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>5</v>
       </c>
@@ -7194,7 +7213,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7220,7 +7239,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -7246,7 +7265,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7291,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +7317,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -7324,7 +7343,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>3</v>
       </c>
@@ -7350,7 +7369,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>3</v>
       </c>
@@ -7376,7 +7395,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>3</v>
       </c>
@@ -7402,7 +7421,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>3</v>
       </c>
@@ -7428,7 +7447,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>3</v>
       </c>
@@ -7454,7 +7473,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
@@ -7480,7 +7499,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>3</v>
       </c>
@@ -7506,7 +7525,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>3</v>
       </c>
@@ -7532,7 +7551,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>3</v>
       </c>
@@ -7558,7 +7577,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>5</v>
       </c>
@@ -7584,7 +7603,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>5</v>
       </c>
@@ -7610,7 +7629,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>5</v>
       </c>
@@ -7636,7 +7655,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
@@ -7662,7 +7681,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>13</v>
       </c>
@@ -7688,7 +7707,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -7714,7 +7733,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>13</v>
       </c>
@@ -7740,7 +7759,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>13</v>
       </c>
@@ -7766,7 +7785,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>13</v>
       </c>
@@ -7792,7 +7811,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>3</v>
       </c>
@@ -7818,7 +7837,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
@@ -7844,7 +7863,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
@@ -7870,7 +7889,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>8</v>
       </c>
@@ -7896,7 +7915,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>8</v>
       </c>
@@ -7948,7 +7967,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>8</v>
       </c>
@@ -7974,7 +7993,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>13</v>
       </c>
@@ -8000,7 +8019,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
@@ -8026,7 +8045,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
@@ -8052,7 +8071,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>5</v>
       </c>
@@ -8078,7 +8097,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
@@ -8104,7 +8123,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>5</v>
       </c>
@@ -8130,7 +8149,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>5</v>
       </c>
@@ -8156,7 +8175,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>5</v>
       </c>
@@ -8182,7 +8201,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>4</v>
       </c>
@@ -8208,7 +8227,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>4</v>
       </c>
@@ -8234,7 +8253,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>4</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>4</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>4</v>
       </c>
@@ -8312,7 +8331,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
@@ -8338,7 +8357,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>4</v>
       </c>
@@ -8364,7 +8383,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>13</v>
       </c>
@@ -8390,7 +8409,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>13</v>
       </c>
@@ -8416,7 +8435,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>13</v>
       </c>
@@ -8442,7 +8461,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>13</v>
       </c>
@@ -8468,7 +8487,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>13</v>
       </c>
@@ -8494,7 +8513,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>13</v>
       </c>
@@ -8520,7 +8539,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>13</v>
       </c>
@@ -8546,7 +8565,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +8591,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>13</v>
       </c>
@@ -8598,7 +8617,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
@@ -8624,7 +8643,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
@@ -8650,7 +8669,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>4</v>
       </c>
@@ -8676,7 +8695,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>4</v>
       </c>
@@ -8702,7 +8721,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
@@ -8728,7 +8747,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>4</v>
       </c>
@@ -8754,7 +8773,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>4</v>
       </c>
@@ -8780,7 +8799,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>4</v>
       </c>
@@ -8806,7 +8825,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>4</v>
       </c>
@@ -8832,7 +8851,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>4</v>
       </c>
@@ -8858,7 +8877,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>4</v>
       </c>
@@ -8884,7 +8903,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>4</v>
       </c>
@@ -8910,7 +8929,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8955,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>4</v>
       </c>
@@ -8962,7 +8981,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>4</v>
       </c>
@@ -8988,7 +9007,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>4</v>
       </c>
@@ -9014,7 +9033,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>4</v>
       </c>
@@ -9040,7 +9059,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>4</v>
       </c>
@@ -9066,7 +9085,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>4</v>
       </c>
@@ -9092,7 +9111,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>4</v>
       </c>
@@ -9118,7 +9137,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>4</v>
       </c>
@@ -9144,7 +9163,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>4</v>
       </c>
@@ -9170,7 +9189,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>4</v>
       </c>
@@ -9196,7 +9215,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>4</v>
       </c>
@@ -9222,7 +9241,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
@@ -9248,7 +9267,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>4</v>
       </c>
@@ -9274,7 +9293,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>4</v>
       </c>
@@ -9300,7 +9319,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>4</v>
       </c>
@@ -9326,7 +9345,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>4</v>
       </c>
@@ -9352,7 +9371,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>4</v>
       </c>
@@ -9378,7 +9397,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>4</v>
       </c>
@@ -9404,7 +9423,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>4</v>
       </c>
@@ -9430,7 +9449,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>4</v>
       </c>
@@ -9456,7 +9475,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>4</v>
       </c>
@@ -9482,7 +9501,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>5</v>
       </c>
@@ -9508,7 +9527,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>5</v>
       </c>
@@ -9534,7 +9553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>5</v>
       </c>
@@ -9560,7 +9579,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>5</v>
       </c>
@@ -9586,7 +9605,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>5</v>
       </c>
@@ -9612,7 +9631,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>5</v>
       </c>
@@ -9638,7 +9657,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>5</v>
       </c>
@@ -9664,7 +9683,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
@@ -9690,7 +9709,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>8</v>
       </c>
@@ -9716,7 +9735,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>8</v>
       </c>
@@ -9742,7 +9761,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>8</v>
       </c>
@@ -9768,7 +9787,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>8</v>
       </c>
@@ -9794,7 +9813,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>8</v>
       </c>
@@ -9820,7 +9839,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>8</v>
       </c>
@@ -9846,7 +9865,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>8</v>
       </c>
@@ -9872,7 +9891,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>8</v>
       </c>
@@ -9898,7 +9917,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>8</v>
       </c>
@@ -9924,7 +9943,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>8</v>
       </c>
@@ -9950,7 +9969,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>8</v>
       </c>
@@ -9976,7 +9995,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>8</v>
       </c>
@@ -10002,7 +10021,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>8</v>
       </c>
@@ -10028,7 +10047,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>8</v>
       </c>
@@ -10054,7 +10073,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>8</v>
       </c>
@@ -10080,7 +10099,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>8</v>
       </c>
@@ -10106,7 +10125,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>8</v>
       </c>
@@ -10132,7 +10151,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>8</v>
       </c>
@@ -10158,7 +10177,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>8</v>
       </c>
@@ -10184,7 +10203,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>8</v>
       </c>
@@ -10210,7 +10229,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -10236,7 +10255,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>8</v>
       </c>
@@ -10262,7 +10281,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>8</v>
       </c>
@@ -10288,7 +10307,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>8</v>
       </c>
@@ -10314,7 +10333,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>8</v>
       </c>
@@ -10340,7 +10359,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>8</v>
       </c>
@@ -10366,7 +10385,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>8</v>
       </c>
@@ -10392,7 +10411,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>8</v>
       </c>
@@ -10418,7 +10437,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>8</v>
       </c>
@@ -10444,7 +10463,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>4</v>
       </c>
@@ -10470,7 +10489,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>4</v>
       </c>
@@ -10496,7 +10515,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>4</v>
       </c>
@@ -10522,7 +10541,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>4</v>
       </c>
@@ -10548,7 +10567,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>4</v>
       </c>
@@ -10574,7 +10593,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>4</v>
       </c>
@@ -10600,7 +10619,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>4</v>
       </c>
@@ -10626,7 +10645,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>4</v>
       </c>
@@ -10652,7 +10671,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>4</v>
       </c>
@@ -10678,7 +10697,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>4</v>
       </c>
@@ -10704,7 +10723,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>4</v>
       </c>
@@ -10730,7 +10749,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>8</v>
       </c>
@@ -10756,7 +10775,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>8</v>
       </c>
@@ -10782,7 +10801,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>8</v>
       </c>
@@ -10808,7 +10827,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>8</v>
       </c>
@@ -10834,7 +10853,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>8</v>
       </c>
@@ -10860,7 +10879,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>8</v>
       </c>
@@ -10886,7 +10905,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>8</v>
       </c>
@@ -10912,7 +10931,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>8</v>
       </c>
@@ -10938,7 +10957,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>8</v>
       </c>
@@ -10964,7 +10983,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>8</v>
       </c>
@@ -10990,7 +11009,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>8</v>
       </c>
@@ -11016,7 +11035,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>8</v>
       </c>
@@ -11042,7 +11061,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>8</v>
       </c>
@@ -11068,7 +11087,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>8</v>
       </c>
@@ -11094,7 +11113,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>8</v>
       </c>
@@ -11120,7 +11139,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>8</v>
       </c>
@@ -11146,7 +11165,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>8</v>
       </c>
@@ -11172,7 +11191,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>8</v>
       </c>
@@ -11198,7 +11217,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>8</v>
       </c>
@@ -11224,7 +11243,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>8</v>
       </c>
@@ -11250,7 +11269,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>8</v>
       </c>
@@ -11276,7 +11295,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>8</v>
       </c>
@@ -11302,7 +11321,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>8</v>
       </c>
@@ -11328,7 +11347,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>8</v>
       </c>
@@ -11354,7 +11373,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>8</v>
       </c>
@@ -11380,7 +11399,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>8</v>
       </c>
@@ -11406,7 +11425,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>8</v>
       </c>
@@ -11432,7 +11451,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>8</v>
       </c>
@@ -11458,7 +11477,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>8</v>
       </c>
@@ -11484,7 +11503,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>8</v>
       </c>
@@ -11510,7 +11529,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>8</v>
       </c>
@@ -11536,7 +11555,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>8</v>
       </c>
@@ -11562,7 +11581,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>8</v>
       </c>
@@ -11588,7 +11607,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>8</v>
       </c>
@@ -11614,7 +11633,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>8</v>
       </c>
@@ -11640,7 +11659,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>8</v>
       </c>
@@ -11666,7 +11685,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>8</v>
       </c>
@@ -11692,7 +11711,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>8</v>
       </c>
@@ -11718,7 +11737,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>8</v>
       </c>
@@ -11744,7 +11763,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>8</v>
       </c>
@@ -11770,7 +11789,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>8</v>
       </c>
@@ -11796,7 +11815,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>8</v>
       </c>
@@ -11822,7 +11841,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>8</v>
       </c>
@@ -11848,7 +11867,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>8</v>
       </c>
@@ -11874,7 +11893,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>8</v>
       </c>
@@ -11900,7 +11919,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>8</v>
       </c>
@@ -11926,7 +11945,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>8</v>
       </c>
@@ -11952,7 +11971,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>8</v>
       </c>
@@ -11978,7 +11997,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>8</v>
       </c>
@@ -12004,7 +12023,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>8</v>
       </c>
@@ -12030,7 +12049,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>8</v>
       </c>
@@ -12056,7 +12075,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>8</v>
       </c>
@@ -12082,7 +12101,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>8</v>
       </c>
@@ -12108,7 +12127,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>8</v>
       </c>
@@ -12134,7 +12153,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>8</v>
       </c>
@@ -12160,7 +12179,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>8</v>
       </c>
@@ -12186,7 +12205,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>8</v>
       </c>
@@ -12212,7 +12231,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>8</v>
       </c>
@@ -12238,7 +12257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>8</v>
       </c>
@@ -12264,7 +12283,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>8</v>
       </c>
@@ -12290,7 +12309,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>8</v>
       </c>
@@ -12316,7 +12335,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>14</v>
       </c>
@@ -12342,7 +12361,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>14</v>
       </c>
@@ -12368,7 +12387,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>14</v>
       </c>
@@ -12394,7 +12413,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>14</v>
       </c>
@@ -12420,7 +12439,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>14</v>
       </c>
@@ -12446,7 +12465,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>14</v>
       </c>
@@ -12472,7 +12491,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>14</v>
       </c>
@@ -12498,7 +12517,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>14</v>
       </c>
@@ -12524,7 +12543,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>14</v>
       </c>
@@ -12550,7 +12569,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>14</v>
       </c>
@@ -12576,7 +12595,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>14</v>
       </c>
@@ -12602,7 +12621,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>14</v>
       </c>
@@ -12628,7 +12647,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>14</v>
       </c>
@@ -12654,7 +12673,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>14</v>
       </c>
@@ -12680,7 +12699,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>14</v>
       </c>
@@ -12706,7 +12725,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>14</v>
       </c>
@@ -12732,7 +12751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>14</v>
       </c>
@@ -12758,7 +12777,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>14</v>
       </c>
@@ -12784,7 +12803,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>14</v>
       </c>
@@ -12810,7 +12829,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>10</v>
       </c>
@@ -12836,7 +12855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>14</v>
       </c>
@@ -12862,7 +12881,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>14</v>
       </c>
@@ -12888,7 +12907,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>14</v>
       </c>
@@ -12914,7 +12933,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>14</v>
       </c>
@@ -12940,7 +12959,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>14</v>
       </c>
@@ -12966,7 +12985,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>14</v>
       </c>
@@ -12992,7 +13011,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>14</v>
       </c>
@@ -13018,7 +13037,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>14</v>
       </c>
@@ -13044,7 +13063,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>14</v>
       </c>
@@ -13070,7 +13089,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>14</v>
       </c>
@@ -13096,7 +13115,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>14</v>
       </c>
@@ -13122,7 +13141,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>14</v>
       </c>
@@ -13148,7 +13167,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>14</v>
       </c>
@@ -13174,7 +13193,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>15</v>
       </c>
@@ -13200,7 +13219,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>15</v>
       </c>
@@ -13226,7 +13245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>15</v>
       </c>
@@ -13252,7 +13271,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>15</v>
       </c>
@@ -13278,7 +13297,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>15</v>
       </c>
@@ -13304,7 +13323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>15</v>
       </c>
@@ -13330,7 +13349,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>15</v>
       </c>
@@ -13356,7 +13375,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>16</v>
       </c>
@@ -13382,7 +13401,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>16</v>
       </c>
@@ -13408,7 +13427,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>16</v>
       </c>
@@ -13434,7 +13453,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>16</v>
       </c>
@@ -13460,7 +13479,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>16</v>
       </c>
@@ -13486,7 +13505,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>16</v>
       </c>
@@ -13512,7 +13531,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>16</v>
       </c>
@@ -13538,7 +13557,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>16</v>
       </c>
@@ -13564,7 +13583,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>16</v>
       </c>
@@ -13590,7 +13609,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>8</v>
       </c>
@@ -13616,7 +13635,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>8</v>
       </c>
@@ -13642,7 +13661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>8</v>
       </c>
@@ -13668,7 +13687,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>8</v>
       </c>
@@ -13694,7 +13713,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>8</v>
       </c>
@@ -13720,7 +13739,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>8</v>
       </c>
@@ -13746,7 +13765,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>8</v>
       </c>
@@ -13772,7 +13791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>8</v>
       </c>
@@ -13798,7 +13817,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>8</v>
       </c>
@@ -13824,7 +13843,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>8</v>
       </c>
@@ -13850,7 +13869,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>8</v>
       </c>
@@ -13876,7 +13895,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>8</v>
       </c>
@@ -13902,7 +13921,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>8</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>8</v>
       </c>
@@ -13954,7 +13973,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>8</v>
       </c>
@@ -13980,7 +13999,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>8</v>
       </c>
@@ -14006,7 +14025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>8</v>
       </c>
@@ -14032,7 +14051,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>8</v>
       </c>
@@ -14058,7 +14077,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>8</v>
       </c>
@@ -14084,7 +14103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>8</v>
       </c>
@@ -14110,7 +14129,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>8</v>
       </c>
@@ -14136,7 +14155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>8</v>
       </c>
@@ -14162,7 +14181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>8</v>
       </c>
@@ -14188,7 +14207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>8</v>
       </c>
@@ -14214,7 +14233,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>8</v>
       </c>
@@ -14240,7 +14259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>8</v>
       </c>
@@ -14266,7 +14285,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>8</v>
       </c>
@@ -14292,7 +14311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>8</v>
       </c>
@@ -14318,7 +14337,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>8</v>
       </c>
@@ -14344,7 +14363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>8</v>
       </c>
@@ -14370,7 +14389,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>8</v>
       </c>
@@ -14396,7 +14415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>8</v>
       </c>
@@ -14422,7 +14441,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>8</v>
       </c>
@@ -14448,7 +14467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>8</v>
       </c>
@@ -14474,7 +14493,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>8</v>
       </c>
@@ -14500,7 +14519,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>8</v>
       </c>
@@ -14526,7 +14545,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>8</v>
       </c>
@@ -14552,7 +14571,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>8</v>
       </c>
@@ -14578,7 +14597,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>8</v>
       </c>
@@ -14604,7 +14623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>8</v>
       </c>
@@ -14630,7 +14649,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>8</v>
       </c>
@@ -14656,7 +14675,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>8</v>
       </c>
@@ -14682,7 +14701,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>8</v>
       </c>
@@ -14708,7 +14727,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>8</v>
       </c>
@@ -14734,7 +14753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>8</v>
       </c>
@@ -14760,7 +14779,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14805,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>8</v>
       </c>
@@ -14812,7 +14831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>8</v>
       </c>
@@ -14838,7 +14857,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>8</v>
       </c>
@@ -14864,7 +14883,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>8</v>
       </c>
@@ -14890,7 +14909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>8</v>
       </c>
@@ -14916,7 +14935,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>8</v>
       </c>
@@ -14942,7 +14961,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>8</v>
       </c>
@@ -14968,7 +14987,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>8</v>
       </c>
@@ -14994,7 +15013,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>8</v>
       </c>
@@ -15020,7 +15039,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>8</v>
       </c>
@@ -15046,7 +15065,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>8</v>
       </c>
@@ -15072,7 +15091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>8</v>
       </c>
@@ -15098,7 +15117,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>8</v>
       </c>
@@ -15124,7 +15143,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>8</v>
       </c>
@@ -15150,7 +15169,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>8</v>
       </c>
@@ -15176,7 +15195,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>8</v>
       </c>
@@ -15202,7 +15221,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>8</v>
       </c>
@@ -15228,7 +15247,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>8</v>
       </c>
@@ -15254,7 +15273,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>8</v>
       </c>
@@ -15280,7 +15299,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>8</v>
       </c>
@@ -15306,7 +15325,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>8</v>
       </c>
@@ -15332,7 +15351,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>8</v>
       </c>
@@ -15358,7 +15377,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>8</v>
       </c>
@@ -15384,7 +15403,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>8</v>
       </c>
@@ -15410,7 +15429,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>8</v>
       </c>
@@ -15436,7 +15455,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>8</v>
       </c>
@@ -15462,7 +15481,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>8</v>
       </c>
@@ -15488,7 +15507,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>8</v>
       </c>
@@ -15514,7 +15533,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>8</v>
       </c>
@@ -15540,7 +15559,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>8</v>
       </c>
@@ -15566,7 +15585,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>8</v>
       </c>
@@ -15592,7 +15611,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>8</v>
       </c>
@@ -15618,7 +15637,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>8</v>
       </c>
@@ -15644,7 +15663,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>8</v>
       </c>
@@ -15670,7 +15689,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>8</v>
       </c>
@@ -15696,7 +15715,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>16</v>
       </c>
@@ -15722,7 +15741,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>16</v>
       </c>
@@ -15748,7 +15767,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>16</v>
       </c>
@@ -15774,7 +15793,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>16</v>
       </c>
@@ -15800,7 +15819,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>16</v>
       </c>
@@ -15826,7 +15845,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>16</v>
       </c>
@@ -15852,7 +15871,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>16</v>
       </c>
@@ -15878,7 +15897,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>16</v>
       </c>
@@ -15904,7 +15923,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>16</v>
       </c>
@@ -15930,7 +15949,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>16</v>
       </c>
@@ -15956,7 +15975,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>15</v>
       </c>
@@ -15982,7 +16001,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>15</v>
       </c>
@@ -16008,7 +16027,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>15</v>
       </c>
@@ -16034,7 +16053,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>15</v>
       </c>
@@ -16060,7 +16079,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>15</v>
       </c>
@@ -16086,7 +16105,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>15</v>
       </c>
@@ -16112,7 +16131,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>5</v>
       </c>
@@ -16138,7 +16157,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>5</v>
       </c>
@@ -16164,7 +16183,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>5</v>
       </c>
@@ -16190,7 +16209,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>5</v>
       </c>
@@ -16216,7 +16235,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>5</v>
       </c>
@@ -16242,7 +16261,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>5</v>
       </c>
@@ -16268,7 +16287,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>5</v>
       </c>
@@ -16294,7 +16313,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>5</v>
       </c>
@@ -16320,7 +16339,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>5</v>
       </c>
@@ -16346,7 +16365,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>5</v>
       </c>
@@ -16372,7 +16391,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>5</v>
       </c>
@@ -16398,7 +16417,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>5</v>
       </c>
@@ -16424,7 +16443,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>5</v>
       </c>
@@ -16450,7 +16469,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>5</v>
       </c>
@@ -16476,7 +16495,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>5</v>
       </c>
@@ -16502,7 +16521,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>17</v>
       </c>
@@ -16528,7 +16547,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>17</v>
       </c>
@@ -16554,7 +16573,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>17</v>
       </c>
@@ -16580,7 +16599,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>5</v>
       </c>
@@ -16606,7 +16625,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>10</v>
       </c>
@@ -16632,7 +16651,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>18</v>
       </c>
@@ -16658,7 +16677,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>18</v>
       </c>
@@ -16684,7 +16703,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>18</v>
       </c>
@@ -16710,7 +16729,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>7</v>
       </c>
@@ -16736,7 +16755,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>7</v>
       </c>
@@ -16762,7 +16781,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>7</v>
       </c>
@@ -16788,7 +16807,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>7</v>
       </c>
@@ -16814,7 +16833,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>7</v>
       </c>
@@ -16840,7 +16859,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>10</v>
       </c>
@@ -16866,7 +16885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>10</v>
       </c>
@@ -16892,7 +16911,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>10</v>
       </c>
@@ -16918,7 +16937,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>10</v>
       </c>
@@ -16944,7 +16963,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>10</v>
       </c>
@@ -16970,7 +16989,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>10</v>
       </c>
@@ -16996,7 +17015,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>10</v>
       </c>
@@ -17022,7 +17041,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>10</v>
       </c>
@@ -17048,7 +17067,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>10</v>
       </c>
@@ -17074,7 +17093,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>10</v>
       </c>
@@ -17100,7 +17119,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>10</v>
       </c>
@@ -17126,7 +17145,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>10</v>
       </c>
@@ -17152,7 +17171,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>10</v>
       </c>
@@ -17178,7 +17197,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>10</v>
       </c>
@@ -17204,7 +17223,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>10</v>
       </c>
@@ -17230,7 +17249,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>10</v>
       </c>
@@ -17256,7 +17275,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>10</v>
       </c>
@@ -17282,7 +17301,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>10</v>
       </c>
@@ -17308,7 +17327,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>10</v>
       </c>
@@ -17334,7 +17353,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>10</v>
       </c>
@@ -17360,7 +17379,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>10</v>
       </c>
@@ -17386,7 +17405,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>10</v>
       </c>
@@ -17412,7 +17431,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>8</v>
       </c>
@@ -17438,7 +17457,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>8</v>
       </c>
@@ -17464,7 +17483,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>8</v>
       </c>
@@ -17490,7 +17509,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>10</v>
       </c>
@@ -17516,7 +17535,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>8</v>
       </c>
@@ -17542,7 +17561,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>8</v>
       </c>
@@ -17568,7 +17587,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>8</v>
       </c>
@@ -17594,7 +17613,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>8</v>
       </c>
@@ -17620,7 +17639,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>8</v>
       </c>
@@ -17646,7 +17665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>8</v>
       </c>
@@ -17672,7 +17691,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>8</v>
       </c>
@@ -17698,7 +17717,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>8</v>
       </c>
@@ -17724,7 +17743,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>8</v>
       </c>
@@ -17750,7 +17769,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>8</v>
       </c>
@@ -17776,7 +17795,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>8</v>
       </c>
@@ -17802,7 +17821,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>8</v>
       </c>
@@ -17828,7 +17847,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>8</v>
       </c>
@@ -17854,7 +17873,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>8</v>
       </c>
@@ -17880,7 +17899,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>8</v>
       </c>
@@ -17906,7 +17925,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>8</v>
       </c>
@@ -17932,7 +17951,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>16</v>
       </c>
@@ -17958,7 +17977,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>16</v>
       </c>
@@ -17984,7 +18003,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>16</v>
       </c>
@@ -18010,7 +18029,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>16</v>
       </c>
@@ -18036,7 +18055,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>16</v>
       </c>
@@ -18062,7 +18081,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>16</v>
       </c>
@@ -18088,7 +18107,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>16</v>
       </c>
@@ -18114,7 +18133,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>16</v>
       </c>
@@ -18140,7 +18159,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>16</v>
       </c>
@@ -18166,7 +18185,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>16</v>
       </c>
@@ -18192,7 +18211,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>16</v>
       </c>
@@ -18218,7 +18237,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>16</v>
       </c>
@@ -18244,7 +18263,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>16</v>
       </c>
@@ -18270,7 +18289,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>16</v>
       </c>
@@ -18296,7 +18315,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>16</v>
       </c>
@@ -18322,7 +18341,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>16</v>
       </c>
@@ -18348,7 +18367,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>16</v>
       </c>
@@ -18374,7 +18393,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>16</v>
       </c>
@@ -18400,7 +18419,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>16</v>
       </c>
@@ -18426,7 +18445,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>16</v>
       </c>
@@ -18452,7 +18471,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>15</v>
       </c>
@@ -18478,7 +18497,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>15</v>
       </c>
@@ -18504,7 +18523,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>15</v>
       </c>
@@ -18530,7 +18549,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>15</v>
       </c>
@@ -18556,7 +18575,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>15</v>
       </c>
@@ -18582,7 +18601,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>15</v>
       </c>
@@ -18608,7 +18627,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>15</v>
       </c>
@@ -18634,7 +18653,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>15</v>
       </c>
@@ -18660,7 +18679,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>15</v>
       </c>
@@ -18686,7 +18705,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>15</v>
       </c>
@@ -18712,7 +18731,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>15</v>
       </c>
@@ -18738,7 +18757,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>15</v>
       </c>
@@ -18764,7 +18783,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>15</v>
       </c>
@@ -18790,7 +18809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>15</v>
       </c>
@@ -18816,7 +18835,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>15</v>
       </c>
@@ -18842,7 +18861,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>15</v>
       </c>
@@ -18868,7 +18887,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>15</v>
       </c>
@@ -18894,7 +18913,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>15</v>
       </c>
@@ -18920,7 +18939,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>15</v>
       </c>
@@ -18946,7 +18965,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>15</v>
       </c>
@@ -18972,7 +18991,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>15</v>
       </c>
@@ -18998,7 +19017,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>16</v>
       </c>
@@ -19024,7 +19043,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>16</v>
       </c>
@@ -19050,7 +19069,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>16</v>
       </c>
@@ -19076,7 +19095,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>16</v>
       </c>
@@ -19102,7 +19121,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>16</v>
       </c>
@@ -19128,7 +19147,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>16</v>
       </c>
@@ -19154,7 +19173,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>16</v>
       </c>
@@ -19180,7 +19199,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>16</v>
       </c>
@@ -19206,7 +19225,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>16</v>
       </c>
@@ -19232,7 +19251,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>16</v>
       </c>
@@ -19258,7 +19277,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>16</v>
       </c>
@@ -19284,7 +19303,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>16</v>
       </c>
@@ -19310,7 +19329,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>16</v>
       </c>
@@ -19336,7 +19355,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>16</v>
       </c>
@@ -19362,7 +19381,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>16</v>
       </c>
@@ -19388,7 +19407,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>16</v>
       </c>
@@ -19414,7 +19433,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>16</v>
       </c>
@@ -19440,7 +19459,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>16</v>
       </c>
@@ -19466,7 +19485,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>16</v>
       </c>
@@ -19492,7 +19511,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>16</v>
       </c>
@@ -19518,7 +19537,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>15</v>
       </c>
@@ -19544,7 +19563,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>15</v>
       </c>
@@ -19570,7 +19589,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>15</v>
       </c>
@@ -19596,7 +19615,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>15</v>
       </c>
@@ -19622,7 +19641,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19667,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>15</v>
       </c>
@@ -19674,7 +19693,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>15</v>
       </c>
@@ -19700,7 +19719,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>15</v>
       </c>
@@ -19726,7 +19745,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>15</v>
       </c>
@@ -19752,7 +19771,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>15</v>
       </c>
@@ -19778,7 +19797,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>15</v>
       </c>
@@ -19804,7 +19823,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>15</v>
       </c>
@@ -19830,7 +19849,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
         <v>15</v>
       </c>
@@ -19856,7 +19875,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>15</v>
       </c>
@@ -19882,7 +19901,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>15</v>
       </c>
@@ -19908,7 +19927,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>15</v>
       </c>
@@ -19934,7 +19953,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>15</v>
       </c>
@@ -19960,7 +19979,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>15</v>
       </c>
@@ -19986,7 +20005,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>15</v>
       </c>
@@ -20012,7 +20031,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>15</v>
       </c>
@@ -20038,7 +20057,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>15</v>
       </c>
@@ -20064,7 +20083,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>15</v>
       </c>
@@ -20090,7 +20109,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>15</v>
       </c>
@@ -20116,7 +20135,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>15</v>
       </c>
@@ -20142,7 +20161,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>15</v>
       </c>
@@ -20168,7 +20187,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>15</v>
       </c>
@@ -20194,7 +20213,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>15</v>
       </c>
@@ -20220,7 +20239,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>15</v>
       </c>
@@ -20246,7 +20265,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>15</v>
       </c>
@@ -20272,7 +20291,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>15</v>
       </c>
@@ -20298,7 +20317,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>15</v>
       </c>
@@ -20324,7 +20343,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>15</v>
       </c>
@@ -20350,7 +20369,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>15</v>
       </c>
@@ -20376,7 +20395,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>15</v>
       </c>
@@ -20402,7 +20421,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>15</v>
       </c>
@@ -20428,7 +20447,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>15</v>
       </c>
@@ -20454,7 +20473,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>15</v>
       </c>
@@ -20480,7 +20499,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>15</v>
       </c>
@@ -20506,7 +20525,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>15</v>
       </c>
@@ -20532,7 +20551,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>15</v>
       </c>
@@ -20558,7 +20577,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>15</v>
       </c>
@@ -20584,7 +20603,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>15</v>
       </c>
@@ -20610,7 +20629,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>15</v>
       </c>
@@ -20636,7 +20655,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>15</v>
       </c>
@@ -20662,7 +20681,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>15</v>
       </c>
@@ -20688,7 +20707,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>15</v>
       </c>
@@ -20714,7 +20733,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>15</v>
       </c>
@@ -20740,7 +20759,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>15</v>
       </c>
@@ -20766,7 +20785,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>15</v>
       </c>
@@ -20792,7 +20811,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>15</v>
       </c>
@@ -20818,7 +20837,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>15</v>
       </c>
@@ -20844,7 +20863,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>15</v>
       </c>
@@ -20870,7 +20889,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>15</v>
       </c>
@@ -20896,7 +20915,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>16</v>
       </c>
@@ -20922,7 +20941,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>16</v>
       </c>
@@ -20948,7 +20967,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>16</v>
       </c>
@@ -20974,7 +20993,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>16</v>
       </c>
@@ -21000,7 +21019,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>16</v>
       </c>
@@ -21026,7 +21045,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>16</v>
       </c>
@@ -21052,7 +21071,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>16</v>
       </c>
@@ -21078,7 +21097,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>16</v>
       </c>
@@ -21104,7 +21123,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>16</v>
       </c>
@@ -21130,7 +21149,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>16</v>
       </c>
@@ -21156,7 +21175,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>16</v>
       </c>
@@ -21182,7 +21201,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>16</v>
       </c>
@@ -21208,7 +21227,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>16</v>
       </c>
@@ -21234,7 +21253,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>16</v>
       </c>
@@ -21260,7 +21279,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>16</v>
       </c>
@@ -21286,7 +21305,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>16</v>
       </c>
@@ -21312,7 +21331,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>16</v>
       </c>
@@ -21338,7 +21357,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>16</v>
       </c>
@@ -21364,7 +21383,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>16</v>
       </c>
@@ -21390,7 +21409,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>16</v>
       </c>
@@ -21416,7 +21435,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>2</v>
       </c>
@@ -21442,7 +21461,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>2</v>
       </c>
@@ -21468,7 +21487,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>2</v>
       </c>
@@ -21494,7 +21513,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>2</v>
       </c>
@@ -21520,7 +21539,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>2</v>
       </c>
@@ -21546,7 +21565,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>2</v>
       </c>
@@ -21572,7 +21591,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>2</v>
       </c>
@@ -21598,7 +21617,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>2</v>
       </c>
@@ -21624,7 +21643,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>2</v>
       </c>
@@ -21650,7 +21669,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>2</v>
       </c>
@@ -21676,7 +21695,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>2</v>
       </c>
@@ -21702,7 +21721,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>2</v>
       </c>
@@ -21728,7 +21747,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>2</v>
       </c>
@@ -21754,7 +21773,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>2</v>
       </c>
@@ -21780,7 +21799,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>2</v>
       </c>
@@ -21806,7 +21825,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>2</v>
       </c>
@@ -21832,7 +21851,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>2</v>
       </c>
@@ -21858,7 +21877,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>2</v>
       </c>
@@ -21884,7 +21903,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>2</v>
       </c>
@@ -21910,7 +21929,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>2</v>
       </c>
@@ -21936,7 +21955,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>2</v>
       </c>
@@ -21962,7 +21981,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>2</v>
       </c>
@@ -21988,7 +22007,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>2</v>
       </c>
@@ -22014,7 +22033,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>2</v>
       </c>
@@ -22040,7 +22059,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>2</v>
       </c>
@@ -22066,7 +22085,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>2</v>
       </c>
@@ -22092,7 +22111,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>2</v>
       </c>
@@ -22118,7 +22137,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>2</v>
       </c>
@@ -22144,7 +22163,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>2</v>
       </c>
@@ -22170,7 +22189,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>2</v>
       </c>
@@ -22196,7 +22215,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>2</v>
       </c>
@@ -22222,7 +22241,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="4" t="s">
         <v>2</v>
       </c>
@@ -22248,7 +22267,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="4" t="s">
         <v>2</v>
       </c>
@@ -22274,7 +22293,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="4" t="s">
         <v>2</v>
       </c>
@@ -22300,7 +22319,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="4" t="s">
         <v>2</v>
       </c>
@@ -22326,7 +22345,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="4" t="s">
         <v>2</v>
       </c>
@@ -22352,7 +22371,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="4" t="s">
         <v>2</v>
       </c>
@@ -22378,7 +22397,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="4" t="s">
         <v>2</v>
       </c>
@@ -22404,7 +22423,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="4" t="s">
         <v>2</v>
       </c>
@@ -22430,7 +22449,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>2</v>
       </c>
@@ -22456,7 +22475,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>2</v>
       </c>
@@ -22482,7 +22501,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="4" t="s">
         <v>2</v>
       </c>
@@ -22508,7 +22527,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="4" t="s">
         <v>2</v>
       </c>
@@ -22534,7 +22553,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" s="4" t="s">
         <v>2</v>
       </c>
@@ -22560,7 +22579,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" s="4" t="s">
         <v>2</v>
       </c>
@@ -22586,7 +22605,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" s="4" t="s">
         <v>2</v>
       </c>
@@ -22612,7 +22631,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" s="4" t="s">
         <v>2</v>
       </c>
@@ -22638,7 +22657,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" s="4" t="s">
         <v>2</v>
       </c>
@@ -22664,7 +22683,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" s="4" t="s">
         <v>2</v>
       </c>
@@ -22690,7 +22709,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="4" t="s">
         <v>2</v>
       </c>
@@ -22716,7 +22735,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" s="4" t="s">
         <v>2</v>
       </c>
@@ -22742,7 +22761,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
         <v>2</v>
       </c>
@@ -22768,7 +22787,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>2</v>
       </c>
@@ -22794,7 +22813,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" s="4" t="s">
         <v>2</v>
       </c>
@@ -22820,7 +22839,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" s="4" t="s">
         <v>2</v>
       </c>
@@ -22846,7 +22865,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="4" t="s">
         <v>2</v>
       </c>
@@ -22872,7 +22891,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" s="4" t="s">
         <v>2</v>
       </c>
@@ -22898,7 +22917,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="4" t="s">
         <v>2</v>
       </c>
@@ -22924,7 +22943,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" s="4" t="s">
         <v>2</v>
       </c>
@@ -22950,7 +22969,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="4" t="s">
         <v>2</v>
       </c>
@@ -22976,7 +22995,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" s="4" t="s">
         <v>2</v>
       </c>
@@ -23002,7 +23021,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" s="4" t="s">
         <v>2</v>
       </c>
@@ -23028,7 +23047,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" s="4" t="s">
         <v>2</v>
       </c>
@@ -23054,7 +23073,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" s="4" t="s">
         <v>2</v>
       </c>
@@ -23080,7 +23099,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" s="4" t="s">
         <v>2</v>
       </c>
@@ -23106,7 +23125,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" s="4" t="s">
         <v>2</v>
       </c>
@@ -23132,7 +23151,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" s="4" t="s">
         <v>2</v>
       </c>
@@ -23158,7 +23177,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="4" t="s">
         <v>2</v>
       </c>
@@ -23184,7 +23203,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="4" t="s">
         <v>2</v>
       </c>
@@ -23210,7 +23229,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" s="4" t="s">
         <v>2</v>
       </c>
@@ -23236,7 +23255,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" s="4" t="s">
         <v>2</v>
       </c>
@@ -23262,7 +23281,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" s="4" t="s">
         <v>2</v>
       </c>
@@ -23288,7 +23307,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="4" t="s">
         <v>2</v>
       </c>
@@ -23314,7 +23333,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" s="4" t="s">
         <v>2</v>
       </c>
@@ -23340,7 +23359,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" s="4" t="s">
         <v>2</v>
       </c>
@@ -23366,7 +23385,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" s="4" t="s">
         <v>2</v>
       </c>
@@ -23392,7 +23411,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="4" t="s">
         <v>2</v>
       </c>
@@ -23418,7 +23437,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" s="4" t="s">
         <v>2</v>
       </c>
@@ -23444,7 +23463,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" s="4" t="s">
         <v>2</v>
       </c>
@@ -23470,7 +23489,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" s="4" t="s">
         <v>2</v>
       </c>
@@ -23496,7 +23515,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" s="4" t="s">
         <v>2</v>
       </c>
@@ -23522,7 +23541,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" s="4" t="s">
         <v>15</v>
       </c>
@@ -23548,7 +23567,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" s="4" t="s">
         <v>15</v>
       </c>
@@ -23574,7 +23593,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" s="4" t="s">
         <v>15</v>
       </c>
@@ -23600,7 +23619,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="4" t="s">
         <v>15</v>
       </c>
@@ -23626,7 +23645,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="4" t="s">
         <v>15</v>
       </c>
@@ -23652,7 +23671,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" s="4" t="s">
         <v>15</v>
       </c>
@@ -23678,7 +23697,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
         <v>15</v>
       </c>
@@ -23704,7 +23723,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
         <v>15</v>
       </c>
@@ -23730,7 +23749,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
         <v>15</v>
       </c>
@@ -23756,7 +23775,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
         <v>15</v>
       </c>
@@ -23782,7 +23801,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="4" t="s">
         <v>15</v>
       </c>
@@ -23808,7 +23827,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="4" t="s">
         <v>15</v>
       </c>
@@ -23834,7 +23853,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" s="4" t="s">
         <v>15</v>
       </c>
@@ -23860,7 +23879,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
         <v>15</v>
       </c>
@@ -23886,7 +23905,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" s="4" t="s">
         <v>15</v>
       </c>
@@ -23912,7 +23931,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" s="4" t="s">
         <v>15</v>
       </c>
@@ -23938,7 +23957,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
         <v>15</v>
       </c>
@@ -23964,7 +23983,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
         <v>2</v>
       </c>
@@ -23990,7 +24009,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
         <v>2</v>
       </c>
@@ -24016,7 +24035,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
         <v>2</v>
       </c>
@@ -24042,7 +24061,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
         <v>2</v>
       </c>
@@ -24068,7 +24087,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" s="4" t="s">
         <v>8</v>
       </c>
@@ -24094,7 +24113,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" s="4" t="s">
         <v>8</v>
       </c>
@@ -24120,7 +24139,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" s="4" t="s">
         <v>8</v>
       </c>
@@ -24146,7 +24165,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" s="4" t="s">
         <v>8</v>
       </c>
@@ -24172,7 +24191,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" s="4" t="s">
         <v>8</v>
       </c>
@@ -24198,7 +24217,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" s="4" t="s">
         <v>8</v>
       </c>
@@ -24224,7 +24243,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" s="4" t="s">
         <v>8</v>
       </c>
@@ -24250,7 +24269,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>8</v>
       </c>
@@ -24276,7 +24295,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>8</v>
       </c>
@@ -24302,7 +24321,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" s="4" t="s">
         <v>8</v>
       </c>
@@ -24328,7 +24347,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" s="4" t="s">
         <v>8</v>
       </c>
@@ -24354,7 +24373,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
         <v>8</v>
       </c>
@@ -24380,7 +24399,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="4" t="s">
         <v>8</v>
       </c>
@@ -24406,7 +24425,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
         <v>8</v>
       </c>
@@ -24432,7 +24451,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" s="4" t="s">
         <v>8</v>
       </c>
@@ -24458,7 +24477,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="4" t="s">
         <v>8</v>
       </c>
@@ -24484,7 +24503,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
         <v>8</v>
       </c>
@@ -24510,7 +24529,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
         <v>8</v>
       </c>
@@ -24536,7 +24555,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
         <v>8</v>
       </c>
@@ -24562,7 +24581,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
         <v>8</v>
       </c>
@@ -24588,7 +24607,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
         <v>8</v>
       </c>
@@ -24614,7 +24633,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>8</v>
       </c>
@@ -24640,7 +24659,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>8</v>
       </c>
@@ -24666,7 +24685,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>8</v>
       </c>
@@ -24692,7 +24711,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>8</v>
       </c>
@@ -24718,7 +24737,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>8</v>
       </c>
@@ -24744,7 +24763,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
         <v>8</v>
       </c>
@@ -24770,7 +24789,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
         <v>8</v>
       </c>
@@ -24796,7 +24815,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
         <v>16</v>
       </c>
@@ -24822,7 +24841,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" s="4" t="s">
         <v>16</v>
       </c>
@@ -24848,7 +24867,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="4" t="s">
         <v>16</v>
       </c>
@@ -24874,7 +24893,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="4" t="s">
         <v>16</v>
       </c>
@@ -24900,7 +24919,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="4" t="s">
         <v>16</v>
       </c>
@@ -24926,7 +24945,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
         <v>16</v>
       </c>
@@ -24952,7 +24971,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
         <v>16</v>
       </c>
@@ -24978,7 +24997,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
         <v>16</v>
       </c>
@@ -25004,7 +25023,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
         <v>16</v>
       </c>
@@ -25030,7 +25049,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
         <v>16</v>
       </c>
@@ -25056,7 +25075,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
         <v>16</v>
       </c>
@@ -25082,7 +25101,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
         <v>16</v>
       </c>
@@ -25108,7 +25127,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
         <v>16</v>
       </c>
@@ -25134,7 +25153,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
         <v>16</v>
       </c>
@@ -25160,7 +25179,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
         <v>16</v>
       </c>
@@ -25186,7 +25205,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
         <v>8</v>
       </c>
@@ -25212,7 +25231,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
         <v>8</v>
       </c>
@@ -25238,7 +25257,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
         <v>8</v>
       </c>
@@ -25264,7 +25283,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
         <v>8</v>
       </c>
@@ -25290,7 +25309,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
         <v>8</v>
       </c>
@@ -25316,7 +25335,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
         <v>8</v>
       </c>
@@ -25342,7 +25361,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
         <v>8</v>
       </c>
@@ -25368,7 +25387,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
         <v>8</v>
       </c>
@@ -25394,7 +25413,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
         <v>8</v>
       </c>
@@ -25420,7 +25439,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
         <v>8</v>
       </c>
@@ -25446,7 +25465,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
         <v>8</v>
       </c>
@@ -25472,7 +25491,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
         <v>8</v>
       </c>
@@ -25498,7 +25517,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
         <v>8</v>
       </c>
@@ -25524,7 +25543,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
         <v>8</v>
       </c>
@@ -25550,7 +25569,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
         <v>8</v>
       </c>
@@ -25576,7 +25595,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
         <v>8</v>
       </c>
@@ -25602,7 +25621,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
         <v>8</v>
       </c>
@@ -25628,7 +25647,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
         <v>8</v>
       </c>
@@ -25654,7 +25673,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
         <v>8</v>
       </c>
@@ -25680,7 +25699,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
         <v>8</v>
       </c>
@@ -25706,7 +25725,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
         <v>10</v>
       </c>
@@ -25732,7 +25751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
         <v>10</v>
       </c>
@@ -25758,7 +25777,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
         <v>10</v>
       </c>
@@ -25784,7 +25803,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
         <v>10</v>
       </c>
@@ -25810,7 +25829,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
         <v>10</v>
       </c>
@@ -25836,7 +25855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
         <v>10</v>
       </c>
@@ -25862,7 +25881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
         <v>10</v>
       </c>
@@ -25888,7 +25907,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
         <v>10</v>
       </c>
@@ -25914,7 +25933,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
         <v>10</v>
       </c>
@@ -25940,7 +25959,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
         <v>10</v>
       </c>
@@ -25966,7 +25985,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
         <v>10</v>
       </c>
@@ -25992,7 +26011,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
         <v>10</v>
       </c>
@@ -26018,7 +26037,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>10</v>
       </c>
@@ -26044,7 +26063,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
         <v>10</v>
       </c>
@@ -26070,7 +26089,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" s="4" t="s">
         <v>10</v>
       </c>
@@ -26096,7 +26115,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" s="4" t="s">
         <v>10</v>
       </c>
@@ -26122,7 +26141,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" s="4" t="s">
         <v>10</v>
       </c>
@@ -26148,7 +26167,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" s="4" t="s">
         <v>10</v>
       </c>
@@ -26174,7 +26193,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" s="4" t="s">
         <v>10</v>
       </c>
@@ -26200,7 +26219,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" s="4" t="s">
         <v>10</v>
       </c>
@@ -26226,7 +26245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" s="4" t="s">
         <v>10</v>
       </c>
@@ -26252,7 +26271,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" s="4" t="s">
         <v>10</v>
       </c>
@@ -26278,7 +26297,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" s="4" t="s">
         <v>10</v>
       </c>
@@ -26304,7 +26323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" s="4" t="s">
         <v>10</v>
       </c>
@@ -26330,7 +26349,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" s="4" t="s">
         <v>10</v>
       </c>
@@ -26356,7 +26375,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" s="4" t="s">
         <v>10</v>
       </c>
@@ -26382,7 +26401,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" s="4" t="s">
         <v>10</v>
       </c>
@@ -26408,7 +26427,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" s="4" t="s">
         <v>10</v>
       </c>
@@ -26434,7 +26453,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" s="4" t="s">
         <v>10</v>
       </c>
@@ -26460,7 +26479,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" s="4" t="s">
         <v>10</v>
       </c>
@@ -26486,7 +26505,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" s="4" t="s">
         <v>10</v>
       </c>
@@ -26512,7 +26531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" s="4" t="s">
         <v>10</v>
       </c>
@@ -26538,7 +26557,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" s="4" t="s">
         <v>19</v>
       </c>
@@ -26564,7 +26583,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" s="4" t="s">
         <v>998</v>
       </c>
@@ -26590,7 +26609,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26616,7 +26635,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26642,7 +26661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" s="4" t="s">
         <v>1007</v>
       </c>
@@ -26668,7 +26687,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26694,7 +26713,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26720,7 +26739,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26746,7 +26765,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26772,7 +26791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26798,7 +26817,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26824,7 +26843,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26850,7 +26869,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26876,7 +26895,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26902,7 +26921,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26928,7 +26947,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26954,7 +26973,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26980,7 +26999,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27006,7 +27025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27032,7 +27051,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27058,7 +27077,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27084,7 +27103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27110,7 +27129,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27136,7 +27155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27162,7 +27181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27188,7 +27207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27214,7 +27233,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27240,7 +27259,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27266,7 +27285,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27292,7 +27311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27318,7 +27337,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27344,7 +27363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27370,7 +27389,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27396,7 +27415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27422,7 +27441,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27448,7 +27467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27474,7 +27493,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27500,7 +27519,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27526,7 +27545,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27552,7 +27571,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27578,7 +27597,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27604,7 +27623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27630,7 +27649,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27656,7 +27675,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27682,7 +27701,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27708,7 +27727,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27734,7 +27753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27760,7 +27779,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27786,7 +27805,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27812,7 +27831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27838,7 +27857,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27864,7 +27883,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27890,7 +27909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27916,7 +27935,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27942,7 +27961,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27968,7 +27987,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27994,7 +28013,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28020,7 +28039,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28046,7 +28065,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28072,7 +28091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28098,7 +28117,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28124,7 +28143,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28150,7 +28169,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28176,7 +28195,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28202,7 +28221,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28228,7 +28247,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28254,7 +28273,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28280,7 +28299,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28306,7 +28325,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28332,7 +28351,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28358,7 +28377,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28384,7 +28403,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28410,7 +28429,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28436,7 +28455,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28462,7 +28481,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28488,7 +28507,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28514,7 +28533,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28540,7 +28559,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28566,7 +28585,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28592,7 +28611,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28618,7 +28637,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28644,7 +28663,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28670,7 +28689,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28696,7 +28715,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28722,7 +28741,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28748,7 +28767,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28774,7 +28793,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28800,7 +28819,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28826,7 +28845,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28852,7 +28871,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28878,7 +28897,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28904,7 +28923,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28930,7 +28949,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28956,7 +28975,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28988,7 +29007,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29020,7 +29039,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29052,7 +29071,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29084,7 +29103,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A956" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29116,7 +29135,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29148,7 +29167,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29180,7 +29199,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A959" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29212,7 +29231,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A960" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29244,7 +29263,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="961" spans="1:10">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29276,7 +29295,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="962" spans="1:10">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29308,7 +29327,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="963" spans="1:10">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29340,7 +29359,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="964" spans="1:10">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29372,7 +29391,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="965" spans="1:10">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A965" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29404,7 +29423,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="966" spans="1:10">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29436,7 +29455,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="967" spans="1:10">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29468,7 +29487,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="968" spans="1:10">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29500,7 +29519,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="969" spans="1:10">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29532,7 +29551,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="970" spans="1:10">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29564,7 +29583,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="971" spans="1:10">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29596,7 +29615,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="972" spans="1:10">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29628,7 +29647,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="973" spans="1:10">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29660,7 +29679,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="974" spans="1:10">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29692,7 +29711,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="975" spans="1:10">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29724,7 +29743,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="976" spans="1:10">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A976" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29756,7 +29775,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="977" spans="1:10">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A977" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29788,7 +29807,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="978" spans="1:10">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A978" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29817,6 +29836,38 @@
         <v>1121</v>
       </c>
       <c r="J978" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A979" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C979" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D979" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E979" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F979" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G979" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H979" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I979" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J979" s="4" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -29826,17 +29877,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1102</v>
       </c>
@@ -29844,12 +29897,12 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1118</v>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\oqni\Recordings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF08B52-9843-41CE-AF76-E48EBAD30F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7959" uniqueCount="1154">
   <si>
     <t>subject</t>
   </si>
@@ -3491,8 +3485,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3507,6 +3501,9 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3573,14 +3570,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3870,18 +3859,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" customHeight="0">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3905,7 +3894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3913,7 +3902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3921,7 +3910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +3926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3945,7 +3934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3953,7 +3942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3961,7 +3950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3969,7 +3958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3977,7 +3966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +3974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3993,7 +3982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -4001,7 +3990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -4009,7 +3998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -4017,7 +4006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -4025,7 +4014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>998</v>
       </c>
@@ -4041,7 +4030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>1003</v>
       </c>
@@ -4049,7 +4038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>1010</v>
       </c>
@@ -4057,7 +4046,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>1033</v>
       </c>
@@ -4065,7 +4054,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>1107</v>
       </c>
@@ -4079,18 +4068,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4098,15 +4087,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>1.2</v>
       </c>
@@ -4114,17 +4103,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>3.1</v>
       </c>
@@ -4132,7 +4121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -4140,15 +4129,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>4.2</v>
       </c>
@@ -4162,19 +4151,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4185,7 +4174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -4196,7 +4185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -4207,7 +4196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -4222,14 +4211,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
@@ -4243,7 +4230,7 @@
     <col min="10" max="10" width="8" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" customHeight="0">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4275,7 +4262,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>1121</v>
       </c>
@@ -4301,7 +4288,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4314,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4353,7 +4340,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4366,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4405,7 +4392,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4431,7 +4418,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4457,7 +4444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4483,7 +4470,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +4496,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -4535,7 +4522,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -4561,7 +4548,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -4587,7 +4574,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -4613,7 +4600,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4639,7 +4626,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -4665,7 +4652,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4678,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -4717,7 +4704,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +4730,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4769,7 +4756,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4782,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -4821,7 +4808,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4847,7 +4834,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4860,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -4899,7 +4886,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -4925,7 +4912,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -4951,7 +4938,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -4977,7 +4964,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -5003,7 +4990,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -5029,7 +5016,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -5055,7 +5042,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5068,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -5107,7 +5094,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
@@ -5133,7 +5120,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -5159,7 +5146,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -5185,7 +5172,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5198,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -5237,7 +5224,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -5263,7 +5250,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5276,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5315,7 +5302,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5328,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5354,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5380,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -5419,7 +5406,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -5445,7 +5432,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5471,7 +5458,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5497,7 +5484,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +5510,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -5549,7 +5536,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +5562,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -5601,7 +5588,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5614,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -5653,7 +5640,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -5679,7 +5666,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +5692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -5731,7 +5718,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -5757,7 +5744,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -5783,7 +5770,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -5809,7 +5796,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -5835,7 +5822,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -5861,7 +5848,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -5887,7 +5874,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -5913,7 +5900,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -5939,7 +5926,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -5965,7 +5952,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +5978,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -6017,7 +6004,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -6043,7 +6030,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -6069,7 +6056,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -6095,7 +6082,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
@@ -6121,7 +6108,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="4" t="s">
         <v>2</v>
       </c>
@@ -6147,7 +6134,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6160,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
@@ -6199,7 +6186,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6212,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>2</v>
       </c>
@@ -6251,7 +6238,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>2</v>
       </c>
@@ -6277,7 +6264,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -6303,7 +6290,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6316,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>2</v>
       </c>
@@ -6355,7 +6342,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
@@ -6381,7 +6368,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
@@ -6407,7 +6394,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
@@ -6433,7 +6420,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -6459,7 +6446,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6472,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -6511,7 +6498,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -6537,7 +6524,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -6563,7 +6550,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -6589,7 +6576,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6602,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -6641,7 +6628,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -6667,7 +6654,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -6693,7 +6680,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6706,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -6745,7 +6732,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -6771,7 +6758,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -6797,7 +6784,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -6823,7 +6810,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -6849,7 +6836,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -6875,7 +6862,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -6901,7 +6888,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -6927,7 +6914,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
@@ -6953,7 +6940,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
@@ -6979,7 +6966,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +6992,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>12</v>
       </c>
@@ -7031,7 +7018,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>12</v>
       </c>
@@ -7057,7 +7044,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -7083,7 +7070,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -7109,7 +7096,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>12</v>
       </c>
@@ -7135,7 +7122,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
@@ -7161,7 +7148,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>5</v>
       </c>
@@ -7187,7 +7174,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="4" t="s">
         <v>5</v>
       </c>
@@ -7213,7 +7200,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7239,7 +7226,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -7265,7 +7252,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -7291,7 +7278,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -7317,7 +7304,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -7343,7 +7330,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>3</v>
       </c>
@@ -7369,7 +7356,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>3</v>
       </c>
@@ -7395,7 +7382,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>3</v>
       </c>
@@ -7421,7 +7408,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>3</v>
       </c>
@@ -7447,7 +7434,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>3</v>
       </c>
@@ -7473,7 +7460,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
@@ -7499,7 +7486,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>3</v>
       </c>
@@ -7525,7 +7512,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>3</v>
       </c>
@@ -7551,7 +7538,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>3</v>
       </c>
@@ -7577,7 +7564,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>5</v>
       </c>
@@ -7603,7 +7590,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>5</v>
       </c>
@@ -7629,7 +7616,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>5</v>
       </c>
@@ -7655,7 +7642,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
@@ -7681,7 +7668,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>13</v>
       </c>
@@ -7707,7 +7694,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -7733,7 +7720,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>13</v>
       </c>
@@ -7759,7 +7746,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>13</v>
       </c>
@@ -7785,7 +7772,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>13</v>
       </c>
@@ -7811,7 +7798,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>3</v>
       </c>
@@ -7837,7 +7824,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
@@ -7863,7 +7850,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>8</v>
       </c>
@@ -7889,7 +7876,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>8</v>
       </c>
@@ -7915,7 +7902,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
@@ -7941,7 +7928,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>8</v>
       </c>
@@ -7967,7 +7954,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>8</v>
       </c>
@@ -7993,7 +7980,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>13</v>
       </c>
@@ -8019,7 +8006,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
@@ -8045,7 +8032,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
@@ -8071,7 +8058,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>5</v>
       </c>
@@ -8097,7 +8084,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
@@ -8123,7 +8110,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +8136,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>5</v>
       </c>
@@ -8175,7 +8162,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>5</v>
       </c>
@@ -8201,7 +8188,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
         <v>4</v>
       </c>
@@ -8227,7 +8214,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>4</v>
       </c>
@@ -8253,7 +8240,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>4</v>
       </c>
@@ -8279,7 +8266,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>4</v>
       </c>
@@ -8305,7 +8292,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>4</v>
       </c>
@@ -8331,7 +8318,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
@@ -8357,7 +8344,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
         <v>4</v>
       </c>
@@ -8383,7 +8370,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>13</v>
       </c>
@@ -8409,7 +8396,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>13</v>
       </c>
@@ -8435,7 +8422,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>13</v>
       </c>
@@ -8461,7 +8448,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
         <v>13</v>
       </c>
@@ -8487,7 +8474,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
         <v>13</v>
       </c>
@@ -8513,7 +8500,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>13</v>
       </c>
@@ -8539,7 +8526,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>13</v>
       </c>
@@ -8565,7 +8552,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
@@ -8591,7 +8578,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
         <v>13</v>
       </c>
@@ -8617,7 +8604,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
@@ -8643,7 +8630,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
@@ -8669,7 +8656,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
         <v>4</v>
       </c>
@@ -8695,7 +8682,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
         <v>4</v>
       </c>
@@ -8721,7 +8708,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
@@ -8747,7 +8734,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
         <v>4</v>
       </c>
@@ -8773,7 +8760,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
         <v>4</v>
       </c>
@@ -8799,7 +8786,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>4</v>
       </c>
@@ -8825,7 +8812,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>4</v>
       </c>
@@ -8851,7 +8838,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>4</v>
       </c>
@@ -8877,7 +8864,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
         <v>4</v>
       </c>
@@ -8903,7 +8890,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
         <v>4</v>
       </c>
@@ -8929,7 +8916,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
         <v>4</v>
       </c>
@@ -8955,7 +8942,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>4</v>
       </c>
@@ -8981,7 +8968,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>4</v>
       </c>
@@ -9007,7 +8994,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
         <v>4</v>
       </c>
@@ -9033,7 +9020,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>4</v>
       </c>
@@ -9059,7 +9046,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>4</v>
       </c>
@@ -9085,7 +9072,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
         <v>4</v>
       </c>
@@ -9111,7 +9098,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>4</v>
       </c>
@@ -9137,7 +9124,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>4</v>
       </c>
@@ -9163,7 +9150,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>4</v>
       </c>
@@ -9189,7 +9176,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
         <v>4</v>
       </c>
@@ -9215,7 +9202,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>4</v>
       </c>
@@ -9241,7 +9228,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
@@ -9267,7 +9254,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>4</v>
       </c>
@@ -9293,7 +9280,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
         <v>4</v>
       </c>
@@ -9319,7 +9306,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
         <v>4</v>
       </c>
@@ -9345,7 +9332,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
         <v>4</v>
       </c>
@@ -9371,7 +9358,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
         <v>4</v>
       </c>
@@ -9397,7 +9384,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
         <v>4</v>
       </c>
@@ -9423,7 +9410,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
         <v>4</v>
       </c>
@@ -9449,7 +9436,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
         <v>4</v>
       </c>
@@ -9475,7 +9462,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
         <v>4</v>
       </c>
@@ -9501,7 +9488,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
         <v>5</v>
       </c>
@@ -9527,7 +9514,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
         <v>5</v>
       </c>
@@ -9553,7 +9540,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
         <v>5</v>
       </c>
@@ -9579,7 +9566,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
         <v>5</v>
       </c>
@@ -9605,7 +9592,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
         <v>5</v>
       </c>
@@ -9631,7 +9618,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
         <v>5</v>
       </c>
@@ -9657,7 +9644,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
         <v>5</v>
       </c>
@@ -9683,7 +9670,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
@@ -9709,7 +9696,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
         <v>8</v>
       </c>
@@ -9735,7 +9722,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
         <v>8</v>
       </c>
@@ -9761,7 +9748,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
         <v>8</v>
       </c>
@@ -9787,7 +9774,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
         <v>8</v>
       </c>
@@ -9813,7 +9800,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
         <v>8</v>
       </c>
@@ -9839,7 +9826,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
         <v>8</v>
       </c>
@@ -9865,7 +9852,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
         <v>8</v>
       </c>
@@ -9891,7 +9878,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
         <v>8</v>
       </c>
@@ -9917,7 +9904,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
         <v>8</v>
       </c>
@@ -9943,7 +9930,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
         <v>8</v>
       </c>
@@ -9969,7 +9956,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
         <v>8</v>
       </c>
@@ -9995,7 +9982,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
         <v>8</v>
       </c>
@@ -10021,7 +10008,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>8</v>
       </c>
@@ -10047,7 +10034,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
         <v>8</v>
       </c>
@@ -10073,7 +10060,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
         <v>8</v>
       </c>
@@ -10099,7 +10086,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
         <v>8</v>
       </c>
@@ -10125,7 +10112,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
         <v>8</v>
       </c>
@@ -10151,7 +10138,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
         <v>8</v>
       </c>
@@ -10177,7 +10164,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
         <v>8</v>
       </c>
@@ -10203,7 +10190,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
         <v>8</v>
       </c>
@@ -10229,7 +10216,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -10255,7 +10242,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
         <v>8</v>
       </c>
@@ -10281,7 +10268,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
         <v>8</v>
       </c>
@@ -10307,7 +10294,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
         <v>8</v>
       </c>
@@ -10333,7 +10320,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
         <v>8</v>
       </c>
@@ -10359,7 +10346,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="4" t="s">
         <v>8</v>
       </c>
@@ -10385,7 +10372,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" s="4" t="s">
         <v>8</v>
       </c>
@@ -10411,7 +10398,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="4" t="s">
         <v>8</v>
       </c>
@@ -10437,7 +10424,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" s="4" t="s">
         <v>8</v>
       </c>
@@ -10463,7 +10450,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
         <v>4</v>
       </c>
@@ -10489,7 +10476,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>4</v>
       </c>
@@ -10515,7 +10502,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="4" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10528,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="4" t="s">
         <v>4</v>
       </c>
@@ -10567,7 +10554,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="4" t="s">
         <v>4</v>
       </c>
@@ -10593,7 +10580,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="4" t="s">
         <v>4</v>
       </c>
@@ -10619,7 +10606,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="4" t="s">
         <v>4</v>
       </c>
@@ -10645,7 +10632,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" s="4" t="s">
         <v>4</v>
       </c>
@@ -10671,7 +10658,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="4" t="s">
         <v>4</v>
       </c>
@@ -10697,7 +10684,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="4" t="s">
         <v>4</v>
       </c>
@@ -10723,7 +10710,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>4</v>
       </c>
@@ -10749,7 +10736,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="4" t="s">
         <v>8</v>
       </c>
@@ -10775,7 +10762,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="4" t="s">
         <v>8</v>
       </c>
@@ -10801,7 +10788,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>8</v>
       </c>
@@ -10827,7 +10814,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>8</v>
       </c>
@@ -10853,7 +10840,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="4" t="s">
         <v>8</v>
       </c>
@@ -10879,7 +10866,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="4" t="s">
         <v>8</v>
       </c>
@@ -10905,7 +10892,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" s="4" t="s">
         <v>8</v>
       </c>
@@ -10931,7 +10918,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8">
       <c r="A258" s="4" t="s">
         <v>8</v>
       </c>
@@ -10957,7 +10944,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" s="4" t="s">
         <v>8</v>
       </c>
@@ -10983,7 +10970,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" s="4" t="s">
         <v>8</v>
       </c>
@@ -11009,7 +10996,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" s="4" t="s">
         <v>8</v>
       </c>
@@ -11035,7 +11022,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" s="4" t="s">
         <v>8</v>
       </c>
@@ -11061,7 +11048,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" s="4" t="s">
         <v>8</v>
       </c>
@@ -11087,7 +11074,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" s="4" t="s">
         <v>8</v>
       </c>
@@ -11113,7 +11100,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" s="4" t="s">
         <v>8</v>
       </c>
@@ -11139,7 +11126,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" s="4" t="s">
         <v>8</v>
       </c>
@@ -11165,7 +11152,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" s="4" t="s">
         <v>8</v>
       </c>
@@ -11191,7 +11178,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
         <v>8</v>
       </c>
@@ -11217,7 +11204,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" s="4" t="s">
         <v>8</v>
       </c>
@@ -11243,7 +11230,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" s="4" t="s">
         <v>8</v>
       </c>
@@ -11269,7 +11256,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" s="4" t="s">
         <v>8</v>
       </c>
@@ -11295,7 +11282,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" s="4" t="s">
         <v>8</v>
       </c>
@@ -11321,7 +11308,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" s="4" t="s">
         <v>8</v>
       </c>
@@ -11347,7 +11334,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" s="4" t="s">
         <v>8</v>
       </c>
@@ -11373,7 +11360,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" s="4" t="s">
         <v>8</v>
       </c>
@@ -11399,7 +11386,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>8</v>
       </c>
@@ -11425,7 +11412,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" s="4" t="s">
         <v>8</v>
       </c>
@@ -11451,7 +11438,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" s="4" t="s">
         <v>8</v>
       </c>
@@ -11477,7 +11464,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" s="4" t="s">
         <v>8</v>
       </c>
@@ -11503,7 +11490,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" s="4" t="s">
         <v>8</v>
       </c>
@@ -11529,7 +11516,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" s="4" t="s">
         <v>8</v>
       </c>
@@ -11555,7 +11542,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>8</v>
       </c>
@@ -11581,7 +11568,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" s="4" t="s">
         <v>8</v>
       </c>
@@ -11607,7 +11594,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" s="4" t="s">
         <v>8</v>
       </c>
@@ -11633,7 +11620,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" s="4" t="s">
         <v>8</v>
       </c>
@@ -11659,7 +11646,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" s="4" t="s">
         <v>8</v>
       </c>
@@ -11685,7 +11672,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>8</v>
       </c>
@@ -11711,7 +11698,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" s="4" t="s">
         <v>8</v>
       </c>
@@ -11737,7 +11724,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" s="4" t="s">
         <v>8</v>
       </c>
@@ -11763,7 +11750,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" s="4" t="s">
         <v>8</v>
       </c>
@@ -11789,7 +11776,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" s="4" t="s">
         <v>8</v>
       </c>
@@ -11815,7 +11802,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" s="4" t="s">
         <v>8</v>
       </c>
@@ -11841,7 +11828,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" s="4" t="s">
         <v>8</v>
       </c>
@@ -11867,7 +11854,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" s="4" t="s">
         <v>8</v>
       </c>
@@ -11893,7 +11880,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" s="4" t="s">
         <v>8</v>
       </c>
@@ -11919,7 +11906,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" s="4" t="s">
         <v>8</v>
       </c>
@@ -11945,7 +11932,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" s="4" t="s">
         <v>8</v>
       </c>
@@ -11971,7 +11958,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>8</v>
       </c>
@@ -11997,7 +11984,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" s="4" t="s">
         <v>8</v>
       </c>
@@ -12023,7 +12010,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" s="4" t="s">
         <v>8</v>
       </c>
@@ -12049,7 +12036,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" s="4" t="s">
         <v>8</v>
       </c>
@@ -12075,7 +12062,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" s="4" t="s">
         <v>8</v>
       </c>
@@ -12101,7 +12088,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" s="4" t="s">
         <v>8</v>
       </c>
@@ -12127,7 +12114,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" s="4" t="s">
         <v>8</v>
       </c>
@@ -12153,7 +12140,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" s="4" t="s">
         <v>8</v>
       </c>
@@ -12179,7 +12166,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" s="4" t="s">
         <v>8</v>
       </c>
@@ -12205,7 +12192,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" s="4" t="s">
         <v>8</v>
       </c>
@@ -12231,7 +12218,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" s="4" t="s">
         <v>8</v>
       </c>
@@ -12257,7 +12244,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" s="4" t="s">
         <v>8</v>
       </c>
@@ -12283,7 +12270,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8">
       <c r="A310" s="4" t="s">
         <v>8</v>
       </c>
@@ -12309,7 +12296,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" s="4" t="s">
         <v>8</v>
       </c>
@@ -12335,7 +12322,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" s="4" t="s">
         <v>14</v>
       </c>
@@ -12361,7 +12348,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8">
       <c r="A313" s="4" t="s">
         <v>14</v>
       </c>
@@ -12387,7 +12374,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" s="4" t="s">
         <v>14</v>
       </c>
@@ -12413,7 +12400,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8">
       <c r="A315" s="4" t="s">
         <v>14</v>
       </c>
@@ -12439,7 +12426,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" s="4" t="s">
         <v>14</v>
       </c>
@@ -12465,7 +12452,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" s="4" t="s">
         <v>14</v>
       </c>
@@ -12491,7 +12478,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" s="4" t="s">
         <v>14</v>
       </c>
@@ -12517,7 +12504,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8">
       <c r="A319" s="4" t="s">
         <v>14</v>
       </c>
@@ -12543,7 +12530,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" s="4" t="s">
         <v>14</v>
       </c>
@@ -12569,7 +12556,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" s="4" t="s">
         <v>14</v>
       </c>
@@ -12595,7 +12582,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" s="4" t="s">
         <v>14</v>
       </c>
@@ -12621,7 +12608,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" s="4" t="s">
         <v>14</v>
       </c>
@@ -12647,7 +12634,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" s="4" t="s">
         <v>14</v>
       </c>
@@ -12673,7 +12660,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" s="4" t="s">
         <v>14</v>
       </c>
@@ -12699,7 +12686,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" s="4" t="s">
         <v>14</v>
       </c>
@@ -12725,7 +12712,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" s="4" t="s">
         <v>14</v>
       </c>
@@ -12751,7 +12738,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" s="4" t="s">
         <v>14</v>
       </c>
@@ -12777,7 +12764,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" s="4" t="s">
         <v>14</v>
       </c>
@@ -12803,7 +12790,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" s="4" t="s">
         <v>14</v>
       </c>
@@ -12829,7 +12816,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" s="4" t="s">
         <v>10</v>
       </c>
@@ -12855,7 +12842,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" s="4" t="s">
         <v>14</v>
       </c>
@@ -12881,7 +12868,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" s="4" t="s">
         <v>14</v>
       </c>
@@ -12907,7 +12894,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" s="4" t="s">
         <v>14</v>
       </c>
@@ -12933,7 +12920,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" s="4" t="s">
         <v>14</v>
       </c>
@@ -12959,7 +12946,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" s="4" t="s">
         <v>14</v>
       </c>
@@ -12985,7 +12972,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8">
       <c r="A337" s="4" t="s">
         <v>14</v>
       </c>
@@ -13011,7 +12998,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8">
       <c r="A338" s="4" t="s">
         <v>14</v>
       </c>
@@ -13037,7 +13024,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8">
       <c r="A339" s="4" t="s">
         <v>14</v>
       </c>
@@ -13063,7 +13050,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8">
       <c r="A340" s="4" t="s">
         <v>14</v>
       </c>
@@ -13089,7 +13076,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8">
       <c r="A341" s="4" t="s">
         <v>14</v>
       </c>
@@ -13115,7 +13102,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8">
       <c r="A342" s="4" t="s">
         <v>14</v>
       </c>
@@ -13141,7 +13128,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8">
       <c r="A343" s="4" t="s">
         <v>14</v>
       </c>
@@ -13167,7 +13154,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>14</v>
       </c>
@@ -13193,7 +13180,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8">
       <c r="A345" s="4" t="s">
         <v>15</v>
       </c>
@@ -13219,7 +13206,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8">
       <c r="A346" s="4" t="s">
         <v>15</v>
       </c>
@@ -13245,7 +13232,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8">
       <c r="A347" s="4" t="s">
         <v>15</v>
       </c>
@@ -13271,7 +13258,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8">
       <c r="A348" s="4" t="s">
         <v>15</v>
       </c>
@@ -13297,7 +13284,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8">
       <c r="A349" s="4" t="s">
         <v>15</v>
       </c>
@@ -13323,7 +13310,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" s="4" t="s">
         <v>15</v>
       </c>
@@ -13349,7 +13336,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8">
       <c r="A351" s="4" t="s">
         <v>15</v>
       </c>
@@ -13375,7 +13362,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8">
       <c r="A352" s="4" t="s">
         <v>16</v>
       </c>
@@ -13401,7 +13388,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" s="4" t="s">
         <v>16</v>
       </c>
@@ -13427,7 +13414,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8">
       <c r="A354" s="4" t="s">
         <v>16</v>
       </c>
@@ -13453,7 +13440,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8">
       <c r="A355" s="4" t="s">
         <v>16</v>
       </c>
@@ -13479,7 +13466,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>16</v>
       </c>
@@ -13505,7 +13492,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8">
       <c r="A357" s="4" t="s">
         <v>16</v>
       </c>
@@ -13531,7 +13518,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8">
       <c r="A358" s="4" t="s">
         <v>16</v>
       </c>
@@ -13557,7 +13544,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8">
       <c r="A359" s="4" t="s">
         <v>16</v>
       </c>
@@ -13583,7 +13570,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" s="4" t="s">
         <v>16</v>
       </c>
@@ -13609,7 +13596,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8">
       <c r="A361" s="4" t="s">
         <v>8</v>
       </c>
@@ -13635,7 +13622,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8">
       <c r="A362" s="4" t="s">
         <v>8</v>
       </c>
@@ -13661,7 +13648,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8">
       <c r="A363" s="4" t="s">
         <v>8</v>
       </c>
@@ -13687,7 +13674,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8">
       <c r="A364" s="4" t="s">
         <v>8</v>
       </c>
@@ -13713,7 +13700,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" s="4" t="s">
         <v>8</v>
       </c>
@@ -13739,7 +13726,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8">
       <c r="A366" s="4" t="s">
         <v>8</v>
       </c>
@@ -13765,7 +13752,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8">
       <c r="A367" s="4" t="s">
         <v>8</v>
       </c>
@@ -13791,7 +13778,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>8</v>
       </c>
@@ -13817,7 +13804,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" s="4" t="s">
         <v>8</v>
       </c>
@@ -13843,7 +13830,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8">
       <c r="A370" s="4" t="s">
         <v>8</v>
       </c>
@@ -13869,7 +13856,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" s="4" t="s">
         <v>8</v>
       </c>
@@ -13895,7 +13882,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" s="4" t="s">
         <v>8</v>
       </c>
@@ -13921,7 +13908,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" s="4" t="s">
         <v>8</v>
       </c>
@@ -13947,7 +13934,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8">
       <c r="A374" s="4" t="s">
         <v>8</v>
       </c>
@@ -13973,7 +13960,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" s="4" t="s">
         <v>8</v>
       </c>
@@ -13999,7 +13986,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8">
       <c r="A376" s="4" t="s">
         <v>8</v>
       </c>
@@ -14025,7 +14012,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" s="4" t="s">
         <v>8</v>
       </c>
@@ -14051,7 +14038,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" s="4" t="s">
         <v>8</v>
       </c>
@@ -14077,7 +14064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" s="4" t="s">
         <v>8</v>
       </c>
@@ -14103,7 +14090,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" s="4" t="s">
         <v>8</v>
       </c>
@@ -14129,7 +14116,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8">
       <c r="A381" s="4" t="s">
         <v>8</v>
       </c>
@@ -14155,7 +14142,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" s="4" t="s">
         <v>8</v>
       </c>
@@ -14181,7 +14168,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" s="4" t="s">
         <v>8</v>
       </c>
@@ -14207,7 +14194,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8">
       <c r="A384" s="4" t="s">
         <v>8</v>
       </c>
@@ -14233,7 +14220,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8">
       <c r="A385" s="4" t="s">
         <v>8</v>
       </c>
@@ -14259,7 +14246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8">
       <c r="A386" s="4" t="s">
         <v>8</v>
       </c>
@@ -14285,7 +14272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8">
       <c r="A387" s="4" t="s">
         <v>8</v>
       </c>
@@ -14311,7 +14298,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8">
       <c r="A388" s="4" t="s">
         <v>8</v>
       </c>
@@ -14337,7 +14324,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8">
       <c r="A389" s="4" t="s">
         <v>8</v>
       </c>
@@ -14363,7 +14350,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8">
       <c r="A390" s="4" t="s">
         <v>8</v>
       </c>
@@ -14389,7 +14376,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8">
       <c r="A391" s="4" t="s">
         <v>8</v>
       </c>
@@ -14415,7 +14402,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8">
       <c r="A392" s="4" t="s">
         <v>8</v>
       </c>
@@ -14441,7 +14428,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8">
       <c r="A393" s="4" t="s">
         <v>8</v>
       </c>
@@ -14467,7 +14454,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8">
       <c r="A394" s="4" t="s">
         <v>8</v>
       </c>
@@ -14493,7 +14480,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8">
       <c r="A395" s="4" t="s">
         <v>8</v>
       </c>
@@ -14519,7 +14506,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8">
       <c r="A396" s="4" t="s">
         <v>8</v>
       </c>
@@ -14545,7 +14532,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8">
       <c r="A397" s="4" t="s">
         <v>8</v>
       </c>
@@ -14571,7 +14558,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8">
       <c r="A398" s="4" t="s">
         <v>8</v>
       </c>
@@ -14597,7 +14584,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8">
       <c r="A399" s="4" t="s">
         <v>8</v>
       </c>
@@ -14623,7 +14610,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8">
       <c r="A400" s="4" t="s">
         <v>8</v>
       </c>
@@ -14649,7 +14636,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8">
       <c r="A401" s="4" t="s">
         <v>8</v>
       </c>
@@ -14675,7 +14662,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8">
       <c r="A402" s="4" t="s">
         <v>8</v>
       </c>
@@ -14701,7 +14688,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8">
       <c r="A403" s="4" t="s">
         <v>8</v>
       </c>
@@ -14727,7 +14714,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8">
       <c r="A404" s="4" t="s">
         <v>8</v>
       </c>
@@ -14753,7 +14740,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8">
       <c r="A405" s="4" t="s">
         <v>8</v>
       </c>
@@ -14779,7 +14766,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" s="4" t="s">
         <v>8</v>
       </c>
@@ -14805,7 +14792,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" s="4" t="s">
         <v>8</v>
       </c>
@@ -14831,7 +14818,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8">
       <c r="A408" s="4" t="s">
         <v>8</v>
       </c>
@@ -14857,7 +14844,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8">
       <c r="A409" s="4" t="s">
         <v>8</v>
       </c>
@@ -14883,7 +14870,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8">
       <c r="A410" s="4" t="s">
         <v>8</v>
       </c>
@@ -14909,7 +14896,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8">
       <c r="A411" s="4" t="s">
         <v>8</v>
       </c>
@@ -14935,7 +14922,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8">
       <c r="A412" s="4" t="s">
         <v>8</v>
       </c>
@@ -14961,7 +14948,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8">
       <c r="A413" s="4" t="s">
         <v>8</v>
       </c>
@@ -14987,7 +14974,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8">
       <c r="A414" s="4" t="s">
         <v>8</v>
       </c>
@@ -15013,7 +15000,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8">
       <c r="A415" s="4" t="s">
         <v>8</v>
       </c>
@@ -15039,7 +15026,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8">
       <c r="A416" s="4" t="s">
         <v>8</v>
       </c>
@@ -15065,7 +15052,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8">
       <c r="A417" s="4" t="s">
         <v>8</v>
       </c>
@@ -15091,7 +15078,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" s="4" t="s">
         <v>8</v>
       </c>
@@ -15117,7 +15104,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8">
       <c r="A419" s="4" t="s">
         <v>8</v>
       </c>
@@ -15143,7 +15130,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8">
       <c r="A420" s="4" t="s">
         <v>8</v>
       </c>
@@ -15169,7 +15156,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8">
       <c r="A421" s="4" t="s">
         <v>8</v>
       </c>
@@ -15195,7 +15182,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8">
       <c r="A422" s="4" t="s">
         <v>8</v>
       </c>
@@ -15221,7 +15208,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8">
       <c r="A423" s="4" t="s">
         <v>8</v>
       </c>
@@ -15247,7 +15234,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8">
       <c r="A424" s="4" t="s">
         <v>8</v>
       </c>
@@ -15273,7 +15260,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8">
       <c r="A425" s="4" t="s">
         <v>8</v>
       </c>
@@ -15299,7 +15286,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8">
       <c r="A426" s="4" t="s">
         <v>8</v>
       </c>
@@ -15325,7 +15312,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8">
       <c r="A427" s="4" t="s">
         <v>8</v>
       </c>
@@ -15351,7 +15338,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8">
       <c r="A428" s="4" t="s">
         <v>8</v>
       </c>
@@ -15377,7 +15364,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8">
       <c r="A429" s="4" t="s">
         <v>8</v>
       </c>
@@ -15403,7 +15390,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8">
       <c r="A430" s="4" t="s">
         <v>8</v>
       </c>
@@ -15429,7 +15416,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8">
       <c r="A431" s="4" t="s">
         <v>8</v>
       </c>
@@ -15455,7 +15442,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8">
       <c r="A432" s="4" t="s">
         <v>8</v>
       </c>
@@ -15481,7 +15468,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8">
       <c r="A433" s="4" t="s">
         <v>8</v>
       </c>
@@ -15507,7 +15494,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8">
       <c r="A434" s="4" t="s">
         <v>8</v>
       </c>
@@ -15533,7 +15520,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8">
       <c r="A435" s="4" t="s">
         <v>8</v>
       </c>
@@ -15559,7 +15546,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8">
       <c r="A436" s="4" t="s">
         <v>8</v>
       </c>
@@ -15585,7 +15572,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8">
       <c r="A437" s="4" t="s">
         <v>8</v>
       </c>
@@ -15611,7 +15598,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8">
       <c r="A438" s="4" t="s">
         <v>8</v>
       </c>
@@ -15637,7 +15624,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8">
       <c r="A439" s="4" t="s">
         <v>8</v>
       </c>
@@ -15663,7 +15650,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8">
       <c r="A440" s="4" t="s">
         <v>8</v>
       </c>
@@ -15689,7 +15676,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8">
       <c r="A441" s="4" t="s">
         <v>8</v>
       </c>
@@ -15715,7 +15702,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8">
       <c r="A442" s="4" t="s">
         <v>16</v>
       </c>
@@ -15741,7 +15728,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8">
       <c r="A443" s="4" t="s">
         <v>16</v>
       </c>
@@ -15767,7 +15754,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8">
       <c r="A444" s="4" t="s">
         <v>16</v>
       </c>
@@ -15793,7 +15780,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8">
       <c r="A445" s="4" t="s">
         <v>16</v>
       </c>
@@ -15819,7 +15806,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8">
       <c r="A446" s="4" t="s">
         <v>16</v>
       </c>
@@ -15845,7 +15832,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8">
       <c r="A447" s="4" t="s">
         <v>16</v>
       </c>
@@ -15871,7 +15858,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8">
       <c r="A448" s="4" t="s">
         <v>16</v>
       </c>
@@ -15897,7 +15884,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8">
       <c r="A449" s="4" t="s">
         <v>16</v>
       </c>
@@ -15923,7 +15910,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8">
       <c r="A450" s="4" t="s">
         <v>16</v>
       </c>
@@ -15949,7 +15936,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8">
       <c r="A451" s="4" t="s">
         <v>16</v>
       </c>
@@ -15975,7 +15962,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8">
       <c r="A452" s="4" t="s">
         <v>15</v>
       </c>
@@ -16001,7 +15988,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8">
       <c r="A453" s="4" t="s">
         <v>15</v>
       </c>
@@ -16027,7 +16014,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8">
       <c r="A454" s="4" t="s">
         <v>15</v>
       </c>
@@ -16053,7 +16040,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8">
       <c r="A455" s="4" t="s">
         <v>15</v>
       </c>
@@ -16079,7 +16066,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8">
       <c r="A456" s="4" t="s">
         <v>15</v>
       </c>
@@ -16105,7 +16092,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8">
       <c r="A457" s="4" t="s">
         <v>15</v>
       </c>
@@ -16131,7 +16118,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8">
       <c r="A458" s="4" t="s">
         <v>5</v>
       </c>
@@ -16157,7 +16144,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8">
       <c r="A459" s="4" t="s">
         <v>5</v>
       </c>
@@ -16183,7 +16170,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8">
       <c r="A460" s="4" t="s">
         <v>5</v>
       </c>
@@ -16209,7 +16196,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8">
       <c r="A461" s="4" t="s">
         <v>5</v>
       </c>
@@ -16235,7 +16222,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8">
       <c r="A462" s="4" t="s">
         <v>5</v>
       </c>
@@ -16261,7 +16248,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8">
       <c r="A463" s="4" t="s">
         <v>5</v>
       </c>
@@ -16287,7 +16274,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8">
       <c r="A464" s="4" t="s">
         <v>5</v>
       </c>
@@ -16313,7 +16300,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8">
       <c r="A465" s="4" t="s">
         <v>5</v>
       </c>
@@ -16339,7 +16326,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8">
       <c r="A466" s="4" t="s">
         <v>5</v>
       </c>
@@ -16365,7 +16352,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8">
       <c r="A467" s="4" t="s">
         <v>5</v>
       </c>
@@ -16391,7 +16378,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8">
       <c r="A468" s="4" t="s">
         <v>5</v>
       </c>
@@ -16417,7 +16404,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8">
       <c r="A469" s="4" t="s">
         <v>5</v>
       </c>
@@ -16443,7 +16430,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8">
       <c r="A470" s="4" t="s">
         <v>5</v>
       </c>
@@ -16469,7 +16456,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8">
       <c r="A471" s="4" t="s">
         <v>5</v>
       </c>
@@ -16495,7 +16482,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8">
       <c r="A472" s="4" t="s">
         <v>5</v>
       </c>
@@ -16521,7 +16508,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8">
       <c r="A473" s="4" t="s">
         <v>17</v>
       </c>
@@ -16547,7 +16534,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8">
       <c r="A474" s="4" t="s">
         <v>17</v>
       </c>
@@ -16573,7 +16560,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8">
       <c r="A475" s="4" t="s">
         <v>17</v>
       </c>
@@ -16599,7 +16586,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8">
       <c r="A476" s="4" t="s">
         <v>5</v>
       </c>
@@ -16625,7 +16612,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8">
       <c r="A477" s="4" t="s">
         <v>10</v>
       </c>
@@ -16651,7 +16638,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8">
       <c r="A478" s="4" t="s">
         <v>18</v>
       </c>
@@ -16677,7 +16664,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8">
       <c r="A479" s="4" t="s">
         <v>18</v>
       </c>
@@ -16703,7 +16690,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8">
       <c r="A480" s="4" t="s">
         <v>18</v>
       </c>
@@ -16729,7 +16716,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8">
       <c r="A481" s="4" t="s">
         <v>7</v>
       </c>
@@ -16755,7 +16742,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8">
       <c r="A482" s="4" t="s">
         <v>7</v>
       </c>
@@ -16781,7 +16768,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8">
       <c r="A483" s="4" t="s">
         <v>7</v>
       </c>
@@ -16807,7 +16794,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8">
       <c r="A484" s="4" t="s">
         <v>7</v>
       </c>
@@ -16833,7 +16820,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8">
       <c r="A485" s="4" t="s">
         <v>7</v>
       </c>
@@ -16859,7 +16846,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8">
       <c r="A486" s="4" t="s">
         <v>10</v>
       </c>
@@ -16885,7 +16872,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8">
       <c r="A487" s="4" t="s">
         <v>10</v>
       </c>
@@ -16911,7 +16898,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8">
       <c r="A488" s="4" t="s">
         <v>10</v>
       </c>
@@ -16937,7 +16924,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8">
       <c r="A489" s="4" t="s">
         <v>10</v>
       </c>
@@ -16963,7 +16950,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8">
       <c r="A490" s="4" t="s">
         <v>10</v>
       </c>
@@ -16989,7 +16976,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8">
       <c r="A491" s="4" t="s">
         <v>10</v>
       </c>
@@ -17015,7 +17002,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8">
       <c r="A492" s="4" t="s">
         <v>10</v>
       </c>
@@ -17041,7 +17028,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8">
       <c r="A493" s="4" t="s">
         <v>10</v>
       </c>
@@ -17067,7 +17054,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8">
       <c r="A494" s="4" t="s">
         <v>10</v>
       </c>
@@ -17093,7 +17080,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8">
       <c r="A495" s="4" t="s">
         <v>10</v>
       </c>
@@ -17119,7 +17106,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8">
       <c r="A496" s="4" t="s">
         <v>10</v>
       </c>
@@ -17145,7 +17132,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8">
       <c r="A497" s="4" t="s">
         <v>10</v>
       </c>
@@ -17171,7 +17158,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8">
       <c r="A498" s="4" t="s">
         <v>10</v>
       </c>
@@ -17197,7 +17184,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8">
       <c r="A499" s="4" t="s">
         <v>10</v>
       </c>
@@ -17223,7 +17210,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8">
       <c r="A500" s="4" t="s">
         <v>10</v>
       </c>
@@ -17249,7 +17236,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8">
       <c r="A501" s="4" t="s">
         <v>10</v>
       </c>
@@ -17275,7 +17262,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8">
       <c r="A502" s="4" t="s">
         <v>10</v>
       </c>
@@ -17301,7 +17288,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8">
       <c r="A503" s="4" t="s">
         <v>10</v>
       </c>
@@ -17327,7 +17314,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8">
       <c r="A504" s="4" t="s">
         <v>10</v>
       </c>
@@ -17353,7 +17340,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8">
       <c r="A505" s="4" t="s">
         <v>10</v>
       </c>
@@ -17379,7 +17366,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8">
       <c r="A506" s="4" t="s">
         <v>10</v>
       </c>
@@ -17405,7 +17392,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8">
       <c r="A507" s="4" t="s">
         <v>10</v>
       </c>
@@ -17431,7 +17418,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8">
       <c r="A508" s="4" t="s">
         <v>8</v>
       </c>
@@ -17457,7 +17444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8">
       <c r="A509" s="4" t="s">
         <v>8</v>
       </c>
@@ -17483,7 +17470,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8">
       <c r="A510" s="4" t="s">
         <v>8</v>
       </c>
@@ -17509,7 +17496,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8">
       <c r="A511" s="4" t="s">
         <v>10</v>
       </c>
@@ -17535,7 +17522,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8">
       <c r="A512" s="4" t="s">
         <v>8</v>
       </c>
@@ -17561,7 +17548,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8">
       <c r="A513" s="4" t="s">
         <v>8</v>
       </c>
@@ -17587,7 +17574,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8">
       <c r="A514" s="4" t="s">
         <v>8</v>
       </c>
@@ -17613,7 +17600,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8">
       <c r="A515" s="4" t="s">
         <v>8</v>
       </c>
@@ -17639,7 +17626,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8">
       <c r="A516" s="4" t="s">
         <v>8</v>
       </c>
@@ -17665,7 +17652,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8">
       <c r="A517" s="4" t="s">
         <v>8</v>
       </c>
@@ -17691,7 +17678,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8">
       <c r="A518" s="4" t="s">
         <v>8</v>
       </c>
@@ -17717,7 +17704,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8">
       <c r="A519" s="4" t="s">
         <v>8</v>
       </c>
@@ -17743,7 +17730,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8">
       <c r="A520" s="4" t="s">
         <v>8</v>
       </c>
@@ -17769,7 +17756,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8">
       <c r="A521" s="4" t="s">
         <v>8</v>
       </c>
@@ -17795,7 +17782,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8">
       <c r="A522" s="4" t="s">
         <v>8</v>
       </c>
@@ -17821,7 +17808,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8">
       <c r="A523" s="4" t="s">
         <v>8</v>
       </c>
@@ -17847,7 +17834,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8">
       <c r="A524" s="4" t="s">
         <v>8</v>
       </c>
@@ -17873,7 +17860,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8">
       <c r="A525" s="4" t="s">
         <v>8</v>
       </c>
@@ -17899,7 +17886,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8">
       <c r="A526" s="4" t="s">
         <v>8</v>
       </c>
@@ -17925,7 +17912,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8">
       <c r="A527" s="4" t="s">
         <v>8</v>
       </c>
@@ -17951,7 +17938,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8">
       <c r="A528" s="4" t="s">
         <v>16</v>
       </c>
@@ -17977,7 +17964,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8">
       <c r="A529" s="4" t="s">
         <v>16</v>
       </c>
@@ -18003,7 +17990,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8">
       <c r="A530" s="4" t="s">
         <v>16</v>
       </c>
@@ -18029,7 +18016,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8">
       <c r="A531" s="4" t="s">
         <v>16</v>
       </c>
@@ -18055,7 +18042,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8">
       <c r="A532" s="4" t="s">
         <v>16</v>
       </c>
@@ -18081,7 +18068,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8">
       <c r="A533" s="4" t="s">
         <v>16</v>
       </c>
@@ -18107,7 +18094,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8">
       <c r="A534" s="4" t="s">
         <v>16</v>
       </c>
@@ -18133,7 +18120,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8">
       <c r="A535" s="4" t="s">
         <v>16</v>
       </c>
@@ -18159,7 +18146,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8">
       <c r="A536" s="4" t="s">
         <v>16</v>
       </c>
@@ -18185,7 +18172,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8">
       <c r="A537" s="4" t="s">
         <v>16</v>
       </c>
@@ -18211,7 +18198,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8">
       <c r="A538" s="4" t="s">
         <v>16</v>
       </c>
@@ -18237,7 +18224,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8">
       <c r="A539" s="4" t="s">
         <v>16</v>
       </c>
@@ -18263,7 +18250,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8">
       <c r="A540" s="4" t="s">
         <v>16</v>
       </c>
@@ -18289,7 +18276,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8">
       <c r="A541" s="4" t="s">
         <v>16</v>
       </c>
@@ -18315,7 +18302,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8">
       <c r="A542" s="4" t="s">
         <v>16</v>
       </c>
@@ -18341,7 +18328,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8">
       <c r="A543" s="4" t="s">
         <v>16</v>
       </c>
@@ -18367,7 +18354,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8">
       <c r="A544" s="4" t="s">
         <v>16</v>
       </c>
@@ -18393,7 +18380,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8">
       <c r="A545" s="4" t="s">
         <v>16</v>
       </c>
@@ -18419,7 +18406,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8">
       <c r="A546" s="4" t="s">
         <v>16</v>
       </c>
@@ -18445,7 +18432,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8">
       <c r="A547" s="4" t="s">
         <v>16</v>
       </c>
@@ -18471,7 +18458,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8">
       <c r="A548" s="4" t="s">
         <v>15</v>
       </c>
@@ -18497,7 +18484,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8">
       <c r="A549" s="4" t="s">
         <v>15</v>
       </c>
@@ -18523,7 +18510,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8">
       <c r="A550" s="4" t="s">
         <v>15</v>
       </c>
@@ -18549,7 +18536,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8">
       <c r="A551" s="4" t="s">
         <v>15</v>
       </c>
@@ -18575,7 +18562,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8">
       <c r="A552" s="4" t="s">
         <v>15</v>
       </c>
@@ -18601,7 +18588,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8">
       <c r="A553" s="4" t="s">
         <v>15</v>
       </c>
@@ -18627,7 +18614,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8">
       <c r="A554" s="4" t="s">
         <v>15</v>
       </c>
@@ -18653,7 +18640,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8">
       <c r="A555" s="4" t="s">
         <v>15</v>
       </c>
@@ -18679,7 +18666,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8">
       <c r="A556" s="4" t="s">
         <v>15</v>
       </c>
@@ -18705,7 +18692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8">
       <c r="A557" s="4" t="s">
         <v>15</v>
       </c>
@@ -18731,7 +18718,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8">
       <c r="A558" s="4" t="s">
         <v>15</v>
       </c>
@@ -18757,7 +18744,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8">
       <c r="A559" s="4" t="s">
         <v>15</v>
       </c>
@@ -18783,7 +18770,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8">
       <c r="A560" s="4" t="s">
         <v>15</v>
       </c>
@@ -18809,7 +18796,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8">
       <c r="A561" s="4" t="s">
         <v>15</v>
       </c>
@@ -18835,7 +18822,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8">
       <c r="A562" s="4" t="s">
         <v>15</v>
       </c>
@@ -18861,7 +18848,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8">
       <c r="A563" s="4" t="s">
         <v>15</v>
       </c>
@@ -18887,7 +18874,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8">
       <c r="A564" s="4" t="s">
         <v>15</v>
       </c>
@@ -18913,7 +18900,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8">
       <c r="A565" s="4" t="s">
         <v>15</v>
       </c>
@@ -18939,7 +18926,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8">
       <c r="A566" s="4" t="s">
         <v>15</v>
       </c>
@@ -18965,7 +18952,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8">
       <c r="A567" s="4" t="s">
         <v>15</v>
       </c>
@@ -18991,7 +18978,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8">
       <c r="A568" s="4" t="s">
         <v>15</v>
       </c>
@@ -19017,7 +19004,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8">
       <c r="A569" s="4" t="s">
         <v>16</v>
       </c>
@@ -19043,7 +19030,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8">
       <c r="A570" s="4" t="s">
         <v>16</v>
       </c>
@@ -19069,7 +19056,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8">
       <c r="A571" s="4" t="s">
         <v>16</v>
       </c>
@@ -19095,7 +19082,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8">
       <c r="A572" s="4" t="s">
         <v>16</v>
       </c>
@@ -19121,7 +19108,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8">
       <c r="A573" s="4" t="s">
         <v>16</v>
       </c>
@@ -19147,7 +19134,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8">
       <c r="A574" s="4" t="s">
         <v>16</v>
       </c>
@@ -19173,7 +19160,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8">
       <c r="A575" s="4" t="s">
         <v>16</v>
       </c>
@@ -19199,7 +19186,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8">
       <c r="A576" s="4" t="s">
         <v>16</v>
       </c>
@@ -19225,7 +19212,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8">
       <c r="A577" s="4" t="s">
         <v>16</v>
       </c>
@@ -19251,7 +19238,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8">
       <c r="A578" s="4" t="s">
         <v>16</v>
       </c>
@@ -19277,7 +19264,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8">
       <c r="A579" s="4" t="s">
         <v>16</v>
       </c>
@@ -19303,7 +19290,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8">
       <c r="A580" s="4" t="s">
         <v>16</v>
       </c>
@@ -19329,7 +19316,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8">
       <c r="A581" s="4" t="s">
         <v>16</v>
       </c>
@@ -19355,7 +19342,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8">
       <c r="A582" s="4" t="s">
         <v>16</v>
       </c>
@@ -19381,7 +19368,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8">
       <c r="A583" s="4" t="s">
         <v>16</v>
       </c>
@@ -19407,7 +19394,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8">
       <c r="A584" s="4" t="s">
         <v>16</v>
       </c>
@@ -19433,7 +19420,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8">
       <c r="A585" s="4" t="s">
         <v>16</v>
       </c>
@@ -19459,7 +19446,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8">
       <c r="A586" s="4" t="s">
         <v>16</v>
       </c>
@@ -19485,7 +19472,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8">
       <c r="A587" s="4" t="s">
         <v>16</v>
       </c>
@@ -19511,7 +19498,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8">
       <c r="A588" s="4" t="s">
         <v>16</v>
       </c>
@@ -19537,7 +19524,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8">
       <c r="A589" s="4" t="s">
         <v>15</v>
       </c>
@@ -19563,7 +19550,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8">
       <c r="A590" s="4" t="s">
         <v>15</v>
       </c>
@@ -19589,7 +19576,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8">
       <c r="A591" s="4" t="s">
         <v>15</v>
       </c>
@@ -19615,7 +19602,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8">
       <c r="A592" s="4" t="s">
         <v>15</v>
       </c>
@@ -19641,7 +19628,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8">
       <c r="A593" s="4" t="s">
         <v>15</v>
       </c>
@@ -19667,7 +19654,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8">
       <c r="A594" s="4" t="s">
         <v>15</v>
       </c>
@@ -19693,7 +19680,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8">
       <c r="A595" s="4" t="s">
         <v>15</v>
       </c>
@@ -19719,7 +19706,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8">
       <c r="A596" s="4" t="s">
         <v>15</v>
       </c>
@@ -19745,7 +19732,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8">
       <c r="A597" s="4" t="s">
         <v>15</v>
       </c>
@@ -19771,7 +19758,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8">
       <c r="A598" s="4" t="s">
         <v>15</v>
       </c>
@@ -19797,7 +19784,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8">
       <c r="A599" s="4" t="s">
         <v>15</v>
       </c>
@@ -19823,7 +19810,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8">
       <c r="A600" s="4" t="s">
         <v>15</v>
       </c>
@@ -19849,7 +19836,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8">
       <c r="A601" s="4" t="s">
         <v>15</v>
       </c>
@@ -19875,7 +19862,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8">
       <c r="A602" s="4" t="s">
         <v>15</v>
       </c>
@@ -19901,7 +19888,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8">
       <c r="A603" s="4" t="s">
         <v>15</v>
       </c>
@@ -19927,7 +19914,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8">
       <c r="A604" s="4" t="s">
         <v>15</v>
       </c>
@@ -19953,7 +19940,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8">
       <c r="A605" s="4" t="s">
         <v>15</v>
       </c>
@@ -19979,7 +19966,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8">
       <c r="A606" s="4" t="s">
         <v>15</v>
       </c>
@@ -20005,7 +19992,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8">
       <c r="A607" s="4" t="s">
         <v>15</v>
       </c>
@@ -20031,7 +20018,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8">
       <c r="A608" s="4" t="s">
         <v>15</v>
       </c>
@@ -20057,7 +20044,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8">
       <c r="A609" s="4" t="s">
         <v>15</v>
       </c>
@@ -20083,7 +20070,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8">
       <c r="A610" s="4" t="s">
         <v>15</v>
       </c>
@@ -20109,7 +20096,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8">
       <c r="A611" s="4" t="s">
         <v>15</v>
       </c>
@@ -20135,7 +20122,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8">
       <c r="A612" s="4" t="s">
         <v>15</v>
       </c>
@@ -20161,7 +20148,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8">
       <c r="A613" s="4" t="s">
         <v>15</v>
       </c>
@@ -20187,7 +20174,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8">
       <c r="A614" s="4" t="s">
         <v>15</v>
       </c>
@@ -20213,7 +20200,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8">
       <c r="A615" s="4" t="s">
         <v>15</v>
       </c>
@@ -20239,7 +20226,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8">
       <c r="A616" s="4" t="s">
         <v>15</v>
       </c>
@@ -20265,7 +20252,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8">
       <c r="A617" s="4" t="s">
         <v>15</v>
       </c>
@@ -20291,7 +20278,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8">
       <c r="A618" s="4" t="s">
         <v>15</v>
       </c>
@@ -20317,7 +20304,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8">
       <c r="A619" s="4" t="s">
         <v>15</v>
       </c>
@@ -20343,7 +20330,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8">
       <c r="A620" s="4" t="s">
         <v>15</v>
       </c>
@@ -20369,7 +20356,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8">
       <c r="A621" s="4" t="s">
         <v>15</v>
       </c>
@@ -20395,7 +20382,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8">
       <c r="A622" s="4" t="s">
         <v>15</v>
       </c>
@@ -20421,7 +20408,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8">
       <c r="A623" s="4" t="s">
         <v>15</v>
       </c>
@@ -20447,7 +20434,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8">
       <c r="A624" s="4" t="s">
         <v>15</v>
       </c>
@@ -20473,7 +20460,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8">
       <c r="A625" s="4" t="s">
         <v>15</v>
       </c>
@@ -20499,7 +20486,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8">
       <c r="A626" s="4" t="s">
         <v>15</v>
       </c>
@@ -20525,7 +20512,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8">
       <c r="A627" s="4" t="s">
         <v>15</v>
       </c>
@@ -20551,7 +20538,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8">
       <c r="A628" s="4" t="s">
         <v>15</v>
       </c>
@@ -20577,7 +20564,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8">
       <c r="A629" s="4" t="s">
         <v>15</v>
       </c>
@@ -20603,7 +20590,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8">
       <c r="A630" s="4" t="s">
         <v>15</v>
       </c>
@@ -20629,7 +20616,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8">
       <c r="A631" s="4" t="s">
         <v>15</v>
       </c>
@@ -20655,7 +20642,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8">
       <c r="A632" s="4" t="s">
         <v>15</v>
       </c>
@@ -20681,7 +20668,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8">
       <c r="A633" s="4" t="s">
         <v>15</v>
       </c>
@@ -20707,7 +20694,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8">
       <c r="A634" s="4" t="s">
         <v>15</v>
       </c>
@@ -20733,7 +20720,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8">
       <c r="A635" s="4" t="s">
         <v>15</v>
       </c>
@@ -20759,7 +20746,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8">
       <c r="A636" s="4" t="s">
         <v>15</v>
       </c>
@@ -20785,7 +20772,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8">
       <c r="A637" s="4" t="s">
         <v>15</v>
       </c>
@@ -20811,7 +20798,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8">
       <c r="A638" s="4" t="s">
         <v>15</v>
       </c>
@@ -20837,7 +20824,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8">
       <c r="A639" s="4" t="s">
         <v>15</v>
       </c>
@@ -20863,7 +20850,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8">
       <c r="A640" s="4" t="s">
         <v>15</v>
       </c>
@@ -20889,7 +20876,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8">
       <c r="A641" s="4" t="s">
         <v>15</v>
       </c>
@@ -20915,7 +20902,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8">
       <c r="A642" s="4" t="s">
         <v>16</v>
       </c>
@@ -20941,7 +20928,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8">
       <c r="A643" s="4" t="s">
         <v>16</v>
       </c>
@@ -20967,7 +20954,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8">
       <c r="A644" s="4" t="s">
         <v>16</v>
       </c>
@@ -20993,7 +20980,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8">
       <c r="A645" s="4" t="s">
         <v>16</v>
       </c>
@@ -21019,7 +21006,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8">
       <c r="A646" s="4" t="s">
         <v>16</v>
       </c>
@@ -21045,7 +21032,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8">
       <c r="A647" s="4" t="s">
         <v>16</v>
       </c>
@@ -21071,7 +21058,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8">
       <c r="A648" s="4" t="s">
         <v>16</v>
       </c>
@@ -21097,7 +21084,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8">
       <c r="A649" s="4" t="s">
         <v>16</v>
       </c>
@@ -21123,7 +21110,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8">
       <c r="A650" s="4" t="s">
         <v>16</v>
       </c>
@@ -21149,7 +21136,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8">
       <c r="A651" s="4" t="s">
         <v>16</v>
       </c>
@@ -21175,7 +21162,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8">
       <c r="A652" s="4" t="s">
         <v>16</v>
       </c>
@@ -21201,7 +21188,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8">
       <c r="A653" s="4" t="s">
         <v>16</v>
       </c>
@@ -21227,7 +21214,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8">
       <c r="A654" s="4" t="s">
         <v>16</v>
       </c>
@@ -21253,7 +21240,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8">
       <c r="A655" s="4" t="s">
         <v>16</v>
       </c>
@@ -21279,7 +21266,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8">
       <c r="A656" s="4" t="s">
         <v>16</v>
       </c>
@@ -21305,7 +21292,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8">
       <c r="A657" s="4" t="s">
         <v>16</v>
       </c>
@@ -21331,7 +21318,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8">
       <c r="A658" s="4" t="s">
         <v>16</v>
       </c>
@@ -21357,7 +21344,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8">
       <c r="A659" s="4" t="s">
         <v>16</v>
       </c>
@@ -21383,7 +21370,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8">
       <c r="A660" s="4" t="s">
         <v>16</v>
       </c>
@@ -21409,7 +21396,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8">
       <c r="A661" s="4" t="s">
         <v>16</v>
       </c>
@@ -21435,7 +21422,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8">
       <c r="A662" s="4" t="s">
         <v>2</v>
       </c>
@@ -21461,7 +21448,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8">
       <c r="A663" s="4" t="s">
         <v>2</v>
       </c>
@@ -21487,7 +21474,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8">
       <c r="A664" s="4" t="s">
         <v>2</v>
       </c>
@@ -21513,7 +21500,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8">
       <c r="A665" s="4" t="s">
         <v>2</v>
       </c>
@@ -21539,7 +21526,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8">
       <c r="A666" s="4" t="s">
         <v>2</v>
       </c>
@@ -21565,7 +21552,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8">
       <c r="A667" s="4" t="s">
         <v>2</v>
       </c>
@@ -21591,7 +21578,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8">
       <c r="A668" s="4" t="s">
         <v>2</v>
       </c>
@@ -21617,7 +21604,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8">
       <c r="A669" s="4" t="s">
         <v>2</v>
       </c>
@@ -21643,7 +21630,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8">
       <c r="A670" s="4" t="s">
         <v>2</v>
       </c>
@@ -21669,7 +21656,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8">
       <c r="A671" s="4" t="s">
         <v>2</v>
       </c>
@@ -21695,7 +21682,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8">
       <c r="A672" s="4" t="s">
         <v>2</v>
       </c>
@@ -21721,7 +21708,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8">
       <c r="A673" s="4" t="s">
         <v>2</v>
       </c>
@@ -21747,7 +21734,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8">
       <c r="A674" s="4" t="s">
         <v>2</v>
       </c>
@@ -21773,7 +21760,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8">
       <c r="A675" s="4" t="s">
         <v>2</v>
       </c>
@@ -21799,7 +21786,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8">
       <c r="A676" s="4" t="s">
         <v>2</v>
       </c>
@@ -21825,7 +21812,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8">
       <c r="A677" s="4" t="s">
         <v>2</v>
       </c>
@@ -21851,7 +21838,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8">
       <c r="A678" s="4" t="s">
         <v>2</v>
       </c>
@@ -21877,7 +21864,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8">
       <c r="A679" s="4" t="s">
         <v>2</v>
       </c>
@@ -21903,7 +21890,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8">
       <c r="A680" s="4" t="s">
         <v>2</v>
       </c>
@@ -21929,7 +21916,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8">
       <c r="A681" s="4" t="s">
         <v>2</v>
       </c>
@@ -21955,7 +21942,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8">
       <c r="A682" s="4" t="s">
         <v>2</v>
       </c>
@@ -21981,7 +21968,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8">
       <c r="A683" s="4" t="s">
         <v>2</v>
       </c>
@@ -22007,7 +21994,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8">
       <c r="A684" s="4" t="s">
         <v>2</v>
       </c>
@@ -22033,7 +22020,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8">
       <c r="A685" s="4" t="s">
         <v>2</v>
       </c>
@@ -22059,7 +22046,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8">
       <c r="A686" s="4" t="s">
         <v>2</v>
       </c>
@@ -22085,7 +22072,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8">
       <c r="A687" s="4" t="s">
         <v>2</v>
       </c>
@@ -22111,7 +22098,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8">
       <c r="A688" s="4" t="s">
         <v>2</v>
       </c>
@@ -22137,7 +22124,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8">
       <c r="A689" s="4" t="s">
         <v>2</v>
       </c>
@@ -22163,7 +22150,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8">
       <c r="A690" s="4" t="s">
         <v>2</v>
       </c>
@@ -22189,7 +22176,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8">
       <c r="A691" s="4" t="s">
         <v>2</v>
       </c>
@@ -22215,7 +22202,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8">
       <c r="A692" s="4" t="s">
         <v>2</v>
       </c>
@@ -22241,7 +22228,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8">
       <c r="A693" s="4" t="s">
         <v>2</v>
       </c>
@@ -22267,7 +22254,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8">
       <c r="A694" s="4" t="s">
         <v>2</v>
       </c>
@@ -22293,7 +22280,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8">
       <c r="A695" s="4" t="s">
         <v>2</v>
       </c>
@@ -22319,7 +22306,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8">
       <c r="A696" s="4" t="s">
         <v>2</v>
       </c>
@@ -22345,7 +22332,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8">
       <c r="A697" s="4" t="s">
         <v>2</v>
       </c>
@@ -22371,7 +22358,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8">
       <c r="A698" s="4" t="s">
         <v>2</v>
       </c>
@@ -22397,7 +22384,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8">
       <c r="A699" s="4" t="s">
         <v>2</v>
       </c>
@@ -22423,7 +22410,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8">
       <c r="A700" s="4" t="s">
         <v>2</v>
       </c>
@@ -22449,7 +22436,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8">
       <c r="A701" s="4" t="s">
         <v>2</v>
       </c>
@@ -22475,7 +22462,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8">
       <c r="A702" s="4" t="s">
         <v>2</v>
       </c>
@@ -22501,7 +22488,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8">
       <c r="A703" s="4" t="s">
         <v>2</v>
       </c>
@@ -22527,7 +22514,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8">
       <c r="A704" s="4" t="s">
         <v>2</v>
       </c>
@@ -22553,7 +22540,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8">
       <c r="A705" s="4" t="s">
         <v>2</v>
       </c>
@@ -22579,7 +22566,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8">
       <c r="A706" s="4" t="s">
         <v>2</v>
       </c>
@@ -22605,7 +22592,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8">
       <c r="A707" s="4" t="s">
         <v>2</v>
       </c>
@@ -22631,7 +22618,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8">
       <c r="A708" s="4" t="s">
         <v>2</v>
       </c>
@@ -22657,7 +22644,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8">
       <c r="A709" s="4" t="s">
         <v>2</v>
       </c>
@@ -22683,7 +22670,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8">
       <c r="A710" s="4" t="s">
         <v>2</v>
       </c>
@@ -22709,7 +22696,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8">
       <c r="A711" s="4" t="s">
         <v>2</v>
       </c>
@@ -22735,7 +22722,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8">
       <c r="A712" s="4" t="s">
         <v>2</v>
       </c>
@@ -22761,7 +22748,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8">
       <c r="A713" s="4" t="s">
         <v>2</v>
       </c>
@@ -22787,7 +22774,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8">
       <c r="A714" s="4" t="s">
         <v>2</v>
       </c>
@@ -22813,7 +22800,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8">
       <c r="A715" s="4" t="s">
         <v>2</v>
       </c>
@@ -22839,7 +22826,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8">
       <c r="A716" s="4" t="s">
         <v>2</v>
       </c>
@@ -22865,7 +22852,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8">
       <c r="A717" s="4" t="s">
         <v>2</v>
       </c>
@@ -22891,7 +22878,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8">
       <c r="A718" s="4" t="s">
         <v>2</v>
       </c>
@@ -22917,7 +22904,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8">
       <c r="A719" s="4" t="s">
         <v>2</v>
       </c>
@@ -22943,7 +22930,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8">
       <c r="A720" s="4" t="s">
         <v>2</v>
       </c>
@@ -22969,7 +22956,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8">
       <c r="A721" s="4" t="s">
         <v>2</v>
       </c>
@@ -22995,7 +22982,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8">
       <c r="A722" s="4" t="s">
         <v>2</v>
       </c>
@@ -23021,7 +23008,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8">
       <c r="A723" s="4" t="s">
         <v>2</v>
       </c>
@@ -23047,7 +23034,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8">
       <c r="A724" s="4" t="s">
         <v>2</v>
       </c>
@@ -23073,7 +23060,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8">
       <c r="A725" s="4" t="s">
         <v>2</v>
       </c>
@@ -23099,7 +23086,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8">
       <c r="A726" s="4" t="s">
         <v>2</v>
       </c>
@@ -23125,7 +23112,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8">
       <c r="A727" s="4" t="s">
         <v>2</v>
       </c>
@@ -23151,7 +23138,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8">
       <c r="A728" s="4" t="s">
         <v>2</v>
       </c>
@@ -23177,7 +23164,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8">
       <c r="A729" s="4" t="s">
         <v>2</v>
       </c>
@@ -23203,7 +23190,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8">
       <c r="A730" s="4" t="s">
         <v>2</v>
       </c>
@@ -23229,7 +23216,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8">
       <c r="A731" s="4" t="s">
         <v>2</v>
       </c>
@@ -23255,7 +23242,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8">
       <c r="A732" s="4" t="s">
         <v>2</v>
       </c>
@@ -23281,7 +23268,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8">
       <c r="A733" s="4" t="s">
         <v>2</v>
       </c>
@@ -23307,7 +23294,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8">
       <c r="A734" s="4" t="s">
         <v>2</v>
       </c>
@@ -23333,7 +23320,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8">
       <c r="A735" s="4" t="s">
         <v>2</v>
       </c>
@@ -23359,7 +23346,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8">
       <c r="A736" s="4" t="s">
         <v>2</v>
       </c>
@@ -23385,7 +23372,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8">
       <c r="A737" s="4" t="s">
         <v>2</v>
       </c>
@@ -23411,7 +23398,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8">
       <c r="A738" s="4" t="s">
         <v>2</v>
       </c>
@@ -23437,7 +23424,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8">
       <c r="A739" s="4" t="s">
         <v>2</v>
       </c>
@@ -23463,7 +23450,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8">
       <c r="A740" s="4" t="s">
         <v>2</v>
       </c>
@@ -23489,7 +23476,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8">
       <c r="A741" s="4" t="s">
         <v>2</v>
       </c>
@@ -23515,7 +23502,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8">
       <c r="A742" s="4" t="s">
         <v>2</v>
       </c>
@@ -23541,7 +23528,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8">
       <c r="A743" s="4" t="s">
         <v>15</v>
       </c>
@@ -23567,7 +23554,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8">
       <c r="A744" s="4" t="s">
         <v>15</v>
       </c>
@@ -23593,7 +23580,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8">
       <c r="A745" s="4" t="s">
         <v>15</v>
       </c>
@@ -23619,7 +23606,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8">
       <c r="A746" s="4" t="s">
         <v>15</v>
       </c>
@@ -23645,7 +23632,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8">
       <c r="A747" s="4" t="s">
         <v>15</v>
       </c>
@@ -23671,7 +23658,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8">
       <c r="A748" s="4" t="s">
         <v>15</v>
       </c>
@@ -23697,7 +23684,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8">
       <c r="A749" s="4" t="s">
         <v>15</v>
       </c>
@@ -23723,7 +23710,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8">
       <c r="A750" s="4" t="s">
         <v>15</v>
       </c>
@@ -23749,7 +23736,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8">
       <c r="A751" s="4" t="s">
         <v>15</v>
       </c>
@@ -23775,7 +23762,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8">
       <c r="A752" s="4" t="s">
         <v>15</v>
       </c>
@@ -23801,7 +23788,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8">
       <c r="A753" s="4" t="s">
         <v>15</v>
       </c>
@@ -23827,7 +23814,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8">
       <c r="A754" s="4" t="s">
         <v>15</v>
       </c>
@@ -23853,7 +23840,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8">
       <c r="A755" s="4" t="s">
         <v>15</v>
       </c>
@@ -23879,7 +23866,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8">
       <c r="A756" s="4" t="s">
         <v>15</v>
       </c>
@@ -23905,7 +23892,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8">
       <c r="A757" s="4" t="s">
         <v>15</v>
       </c>
@@ -23931,7 +23918,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8">
       <c r="A758" s="4" t="s">
         <v>15</v>
       </c>
@@ -23957,7 +23944,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8">
       <c r="A759" s="4" t="s">
         <v>15</v>
       </c>
@@ -23983,7 +23970,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8">
       <c r="A760" s="4" t="s">
         <v>2</v>
       </c>
@@ -24009,7 +23996,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8">
       <c r="A761" s="4" t="s">
         <v>2</v>
       </c>
@@ -24035,7 +24022,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8">
       <c r="A762" s="4" t="s">
         <v>2</v>
       </c>
@@ -24061,7 +24048,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8">
       <c r="A763" s="4" t="s">
         <v>2</v>
       </c>
@@ -24087,7 +24074,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8">
       <c r="A764" s="4" t="s">
         <v>8</v>
       </c>
@@ -24113,7 +24100,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8">
       <c r="A765" s="4" t="s">
         <v>8</v>
       </c>
@@ -24139,7 +24126,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8">
       <c r="A766" s="4" t="s">
         <v>8</v>
       </c>
@@ -24165,7 +24152,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8">
       <c r="A767" s="4" t="s">
         <v>8</v>
       </c>
@@ -24191,7 +24178,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8">
       <c r="A768" s="4" t="s">
         <v>8</v>
       </c>
@@ -24217,7 +24204,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8">
       <c r="A769" s="4" t="s">
         <v>8</v>
       </c>
@@ -24243,7 +24230,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8">
       <c r="A770" s="4" t="s">
         <v>8</v>
       </c>
@@ -24269,7 +24256,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8">
       <c r="A771" s="4" t="s">
         <v>8</v>
       </c>
@@ -24295,7 +24282,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8">
       <c r="A772" s="4" t="s">
         <v>8</v>
       </c>
@@ -24321,7 +24308,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8">
       <c r="A773" s="4" t="s">
         <v>8</v>
       </c>
@@ -24347,7 +24334,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8">
       <c r="A774" s="4" t="s">
         <v>8</v>
       </c>
@@ -24373,7 +24360,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8">
       <c r="A775" s="4" t="s">
         <v>8</v>
       </c>
@@ -24399,7 +24386,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8">
       <c r="A776" s="4" t="s">
         <v>8</v>
       </c>
@@ -24425,7 +24412,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8">
       <c r="A777" s="4" t="s">
         <v>8</v>
       </c>
@@ -24451,7 +24438,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8">
       <c r="A778" s="4" t="s">
         <v>8</v>
       </c>
@@ -24477,7 +24464,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8">
       <c r="A779" s="4" t="s">
         <v>8</v>
       </c>
@@ -24503,7 +24490,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8">
       <c r="A780" s="4" t="s">
         <v>8</v>
       </c>
@@ -24529,7 +24516,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8">
       <c r="A781" s="4" t="s">
         <v>8</v>
       </c>
@@ -24555,7 +24542,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8">
       <c r="A782" s="4" t="s">
         <v>8</v>
       </c>
@@ -24581,7 +24568,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8">
       <c r="A783" s="4" t="s">
         <v>8</v>
       </c>
@@ -24607,7 +24594,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8">
       <c r="A784" s="4" t="s">
         <v>8</v>
       </c>
@@ -24633,7 +24620,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8">
       <c r="A785" s="4" t="s">
         <v>8</v>
       </c>
@@ -24659,7 +24646,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8">
       <c r="A786" s="4" t="s">
         <v>8</v>
       </c>
@@ -24685,7 +24672,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8">
       <c r="A787" s="4" t="s">
         <v>8</v>
       </c>
@@ -24711,7 +24698,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8">
       <c r="A788" s="4" t="s">
         <v>8</v>
       </c>
@@ -24737,7 +24724,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8">
       <c r="A789" s="4" t="s">
         <v>8</v>
       </c>
@@ -24763,7 +24750,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8">
       <c r="A790" s="4" t="s">
         <v>8</v>
       </c>
@@ -24789,7 +24776,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8">
       <c r="A791" s="4" t="s">
         <v>8</v>
       </c>
@@ -24815,7 +24802,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8">
       <c r="A792" s="4" t="s">
         <v>16</v>
       </c>
@@ -24841,7 +24828,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8">
       <c r="A793" s="4" t="s">
         <v>16</v>
       </c>
@@ -24867,7 +24854,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8">
       <c r="A794" s="4" t="s">
         <v>16</v>
       </c>
@@ -24893,7 +24880,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8">
       <c r="A795" s="4" t="s">
         <v>16</v>
       </c>
@@ -24919,7 +24906,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8">
       <c r="A796" s="4" t="s">
         <v>16</v>
       </c>
@@ -24945,7 +24932,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8">
       <c r="A797" s="4" t="s">
         <v>16</v>
       </c>
@@ -24971,7 +24958,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8">
       <c r="A798" s="4" t="s">
         <v>16</v>
       </c>
@@ -24997,7 +24984,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8">
       <c r="A799" s="4" t="s">
         <v>16</v>
       </c>
@@ -25023,7 +25010,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8">
       <c r="A800" s="4" t="s">
         <v>16</v>
       </c>
@@ -25049,7 +25036,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8">
       <c r="A801" s="4" t="s">
         <v>16</v>
       </c>
@@ -25075,7 +25062,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8">
       <c r="A802" s="4" t="s">
         <v>16</v>
       </c>
@@ -25101,7 +25088,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8">
       <c r="A803" s="4" t="s">
         <v>16</v>
       </c>
@@ -25127,7 +25114,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8">
       <c r="A804" s="4" t="s">
         <v>16</v>
       </c>
@@ -25153,7 +25140,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8">
       <c r="A805" s="4" t="s">
         <v>16</v>
       </c>
@@ -25179,7 +25166,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8">
       <c r="A806" s="4" t="s">
         <v>16</v>
       </c>
@@ -25205,7 +25192,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8">
       <c r="A807" s="4" t="s">
         <v>8</v>
       </c>
@@ -25231,7 +25218,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8">
       <c r="A808" s="4" t="s">
         <v>8</v>
       </c>
@@ -25257,7 +25244,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8">
       <c r="A809" s="4" t="s">
         <v>8</v>
       </c>
@@ -25283,7 +25270,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8">
       <c r="A810" s="4" t="s">
         <v>8</v>
       </c>
@@ -25309,7 +25296,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8">
       <c r="A811" s="4" t="s">
         <v>8</v>
       </c>
@@ -25335,7 +25322,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8">
       <c r="A812" s="4" t="s">
         <v>8</v>
       </c>
@@ -25361,7 +25348,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8">
       <c r="A813" s="4" t="s">
         <v>8</v>
       </c>
@@ -25387,7 +25374,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8">
       <c r="A814" s="4" t="s">
         <v>8</v>
       </c>
@@ -25413,7 +25400,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8">
       <c r="A815" s="4" t="s">
         <v>8</v>
       </c>
@@ -25439,7 +25426,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8">
       <c r="A816" s="4" t="s">
         <v>8</v>
       </c>
@@ -25465,7 +25452,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8">
       <c r="A817" s="4" t="s">
         <v>8</v>
       </c>
@@ -25491,7 +25478,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8">
       <c r="A818" s="4" t="s">
         <v>8</v>
       </c>
@@ -25517,7 +25504,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8">
       <c r="A819" s="4" t="s">
         <v>8</v>
       </c>
@@ -25543,7 +25530,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8">
       <c r="A820" s="4" t="s">
         <v>8</v>
       </c>
@@ -25569,7 +25556,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8">
       <c r="A821" s="4" t="s">
         <v>8</v>
       </c>
@@ -25595,7 +25582,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8">
       <c r="A822" s="4" t="s">
         <v>8</v>
       </c>
@@ -25621,7 +25608,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8">
       <c r="A823" s="4" t="s">
         <v>8</v>
       </c>
@@ -25647,7 +25634,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8">
       <c r="A824" s="4" t="s">
         <v>8</v>
       </c>
@@ -25673,7 +25660,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8">
       <c r="A825" s="4" t="s">
         <v>8</v>
       </c>
@@ -25699,7 +25686,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8">
       <c r="A826" s="4" t="s">
         <v>8</v>
       </c>
@@ -25725,7 +25712,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8">
       <c r="A827" s="4" t="s">
         <v>10</v>
       </c>
@@ -25751,7 +25738,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8">
       <c r="A828" s="4" t="s">
         <v>10</v>
       </c>
@@ -25777,7 +25764,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8">
       <c r="A829" s="4" t="s">
         <v>10</v>
       </c>
@@ -25803,7 +25790,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8">
       <c r="A830" s="4" t="s">
         <v>10</v>
       </c>
@@ -25829,7 +25816,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8">
       <c r="A831" s="4" t="s">
         <v>10</v>
       </c>
@@ -25855,7 +25842,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8">
       <c r="A832" s="4" t="s">
         <v>10</v>
       </c>
@@ -25881,7 +25868,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8">
       <c r="A833" s="4" t="s">
         <v>10</v>
       </c>
@@ -25907,7 +25894,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8">
       <c r="A834" s="4" t="s">
         <v>10</v>
       </c>
@@ -25933,7 +25920,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8">
       <c r="A835" s="4" t="s">
         <v>10</v>
       </c>
@@ -25959,7 +25946,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8">
       <c r="A836" s="4" t="s">
         <v>10</v>
       </c>
@@ -25985,7 +25972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8">
       <c r="A837" s="4" t="s">
         <v>10</v>
       </c>
@@ -26011,7 +25998,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8">
       <c r="A838" s="4" t="s">
         <v>10</v>
       </c>
@@ -26037,7 +26024,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8">
       <c r="A839" s="4" t="s">
         <v>10</v>
       </c>
@@ -26063,7 +26050,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8">
       <c r="A840" s="4" t="s">
         <v>10</v>
       </c>
@@ -26089,7 +26076,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8">
       <c r="A841" s="4" t="s">
         <v>10</v>
       </c>
@@ -26115,7 +26102,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8">
       <c r="A842" s="4" t="s">
         <v>10</v>
       </c>
@@ -26141,7 +26128,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8">
       <c r="A843" s="4" t="s">
         <v>10</v>
       </c>
@@ -26167,7 +26154,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8">
       <c r="A844" s="4" t="s">
         <v>10</v>
       </c>
@@ -26193,7 +26180,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8">
       <c r="A845" s="4" t="s">
         <v>10</v>
       </c>
@@ -26219,7 +26206,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8">
       <c r="A846" s="4" t="s">
         <v>10</v>
       </c>
@@ -26245,7 +26232,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8">
       <c r="A847" s="4" t="s">
         <v>10</v>
       </c>
@@ -26271,7 +26258,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8">
       <c r="A848" s="4" t="s">
         <v>10</v>
       </c>
@@ -26297,7 +26284,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8">
       <c r="A849" s="4" t="s">
         <v>10</v>
       </c>
@@ -26323,7 +26310,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8">
       <c r="A850" s="4" t="s">
         <v>10</v>
       </c>
@@ -26349,7 +26336,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8">
       <c r="A851" s="4" t="s">
         <v>10</v>
       </c>
@@ -26375,7 +26362,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8">
       <c r="A852" s="4" t="s">
         <v>10</v>
       </c>
@@ -26401,7 +26388,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8">
       <c r="A853" s="4" t="s">
         <v>10</v>
       </c>
@@ -26427,7 +26414,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8">
       <c r="A854" s="4" t="s">
         <v>10</v>
       </c>
@@ -26453,7 +26440,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8">
       <c r="A855" s="4" t="s">
         <v>10</v>
       </c>
@@ -26479,7 +26466,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8">
       <c r="A856" s="4" t="s">
         <v>10</v>
       </c>
@@ -26505,7 +26492,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8">
       <c r="A857" s="4" t="s">
         <v>10</v>
       </c>
@@ -26531,7 +26518,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8">
       <c r="A858" s="4" t="s">
         <v>10</v>
       </c>
@@ -26557,7 +26544,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8">
       <c r="A859" s="4" t="s">
         <v>19</v>
       </c>
@@ -26583,7 +26570,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8">
       <c r="A860" s="4" t="s">
         <v>998</v>
       </c>
@@ -26609,7 +26596,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8">
       <c r="A861" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26635,7 +26622,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8">
       <c r="A862" s="4" t="s">
         <v>1003</v>
       </c>
@@ -26661,7 +26648,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8">
       <c r="A863" s="4" t="s">
         <v>1007</v>
       </c>
@@ -26687,7 +26674,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8">
       <c r="A864" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26713,7 +26700,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8">
       <c r="A865" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26739,7 +26726,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8">
       <c r="A866" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26765,7 +26752,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8">
       <c r="A867" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26791,7 +26778,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8">
       <c r="A868" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26817,7 +26804,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8">
       <c r="A869" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26843,7 +26830,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8">
       <c r="A870" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26869,7 +26856,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8">
       <c r="A871" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26895,7 +26882,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8">
       <c r="A872" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26921,7 +26908,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8">
       <c r="A873" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26947,7 +26934,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8">
       <c r="A874" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26973,7 +26960,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8">
       <c r="A875" s="4" t="s">
         <v>1010</v>
       </c>
@@ -26999,7 +26986,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8">
       <c r="A876" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27025,7 +27012,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8">
       <c r="A877" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27051,7 +27038,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8">
       <c r="A878" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27077,7 +27064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8">
       <c r="A879" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27103,7 +27090,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8">
       <c r="A880" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27129,7 +27116,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8">
       <c r="A881" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27155,7 +27142,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8">
       <c r="A882" s="4" t="s">
         <v>1010</v>
       </c>
@@ -27181,7 +27168,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8">
       <c r="A883" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27207,7 +27194,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8">
       <c r="A884" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27233,7 +27220,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8">
       <c r="A885" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27259,7 +27246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8">
       <c r="A886" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27285,7 +27272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8">
       <c r="A887" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27311,7 +27298,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8">
       <c r="A888" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27337,7 +27324,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8">
       <c r="A889" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27363,7 +27350,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8">
       <c r="A890" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27389,7 +27376,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8">
       <c r="A891" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27415,7 +27402,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8">
       <c r="A892" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27441,7 +27428,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8">
       <c r="A893" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27467,7 +27454,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8">
       <c r="A894" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27493,7 +27480,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8">
       <c r="A895" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27519,7 +27506,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8">
       <c r="A896" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27545,7 +27532,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8">
       <c r="A897" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27571,7 +27558,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8">
       <c r="A898" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27597,7 +27584,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8">
       <c r="A899" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27623,7 +27610,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8">
       <c r="A900" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27649,7 +27636,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8">
       <c r="A901" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27675,7 +27662,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8">
       <c r="A902" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27701,7 +27688,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8">
       <c r="A903" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27727,7 +27714,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8">
       <c r="A904" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27753,7 +27740,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8">
       <c r="A905" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27779,7 +27766,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8">
       <c r="A906" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27805,7 +27792,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8">
       <c r="A907" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27831,7 +27818,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8">
       <c r="A908" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27857,7 +27844,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8">
       <c r="A909" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27883,7 +27870,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8">
       <c r="A910" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27909,7 +27896,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8">
       <c r="A911" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27935,7 +27922,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8">
       <c r="A912" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27961,7 +27948,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8">
       <c r="A913" s="4" t="s">
         <v>1033</v>
       </c>
@@ -27987,7 +27974,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8">
       <c r="A914" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28013,7 +28000,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8">
       <c r="A915" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28039,7 +28026,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8">
       <c r="A916" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28065,7 +28052,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8">
       <c r="A917" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28091,7 +28078,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8">
       <c r="A918" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28117,7 +28104,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8">
       <c r="A919" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28143,7 +28130,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8">
       <c r="A920" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28169,7 +28156,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8">
       <c r="A921" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28195,7 +28182,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8">
       <c r="A922" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28221,7 +28208,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8">
       <c r="A923" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28247,7 +28234,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8">
       <c r="A924" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28273,7 +28260,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8">
       <c r="A925" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28299,7 +28286,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8">
       <c r="A926" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28325,7 +28312,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8">
       <c r="A927" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28351,7 +28338,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8">
       <c r="A928" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28377,7 +28364,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8">
       <c r="A929" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28403,7 +28390,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8">
       <c r="A930" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28429,7 +28416,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8">
       <c r="A931" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28455,7 +28442,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8">
       <c r="A932" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28481,7 +28468,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8">
       <c r="A933" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28507,7 +28494,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8">
       <c r="A934" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28533,7 +28520,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8">
       <c r="A935" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28559,7 +28546,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8">
       <c r="A936" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28585,7 +28572,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8">
       <c r="A937" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28611,7 +28598,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8">
       <c r="A938" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28637,7 +28624,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8">
       <c r="A939" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28663,7 +28650,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8">
       <c r="A940" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28689,7 +28676,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8">
       <c r="A941" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28715,7 +28702,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8">
       <c r="A942" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28741,7 +28728,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8">
       <c r="A943" s="4" t="s">
         <v>1033</v>
       </c>
@@ -28767,7 +28754,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8">
       <c r="A944" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28793,7 +28780,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8">
       <c r="A945" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28819,7 +28806,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8">
       <c r="A946" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28845,7 +28832,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8">
       <c r="A947" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28871,7 +28858,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8">
       <c r="A948" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28897,7 +28884,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8">
       <c r="A949" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28923,7 +28910,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8">
       <c r="A950" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28949,7 +28936,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8">
       <c r="A951" s="4" t="s">
         <v>1107</v>
       </c>
@@ -28975,7 +28962,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8">
       <c r="A952" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29007,7 +28994,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8">
       <c r="A953" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29039,7 +29026,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8">
       <c r="A954" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29071,7 +29058,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8">
       <c r="A955" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29103,7 +29090,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8">
       <c r="A956" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29135,7 +29122,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8">
       <c r="A957" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29167,7 +29154,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8">
       <c r="A958" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29199,7 +29186,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8">
       <c r="A959" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29231,7 +29218,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8">
       <c r="A960" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29263,7 +29250,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10">
       <c r="A961" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29295,7 +29282,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10">
       <c r="A962" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29327,7 +29314,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10">
       <c r="A963" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29359,7 +29346,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10">
       <c r="A964" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29391,7 +29378,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10">
       <c r="A965" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29423,7 +29410,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10">
       <c r="A966" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29455,7 +29442,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10">
       <c r="A967" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29487,7 +29474,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10">
       <c r="A968" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29519,7 +29506,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10">
       <c r="A969" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29551,7 +29538,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10">
       <c r="A970" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29583,7 +29570,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10">
       <c r="A971" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29615,7 +29602,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10">
       <c r="A972" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29647,7 +29634,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10">
       <c r="A973" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29679,7 +29666,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10">
       <c r="A974" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29711,7 +29698,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10">
       <c r="A975" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29743,7 +29730,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:10">
       <c r="A976" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29775,7 +29762,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:10">
       <c r="A977" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29807,7 +29794,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:10">
       <c r="A978" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29839,7 +29826,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:10">
       <c r="A979" s="4" t="s">
         <v>1107</v>
       </c>
@@ -29877,19 +29864,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1102</v>
       </c>
@@ -29897,12 +29882,12 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7959" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="1154">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="1156">
   <si>
     <t>subject</t>
   </si>
@@ -3480,6 +3480,12 @@
   </si>
   <si>
     <t>230607_234556</t>
+  </si>
+  <si>
+    <t>BL-003_025_230612</t>
+  </si>
+  <si>
+    <t>230612_221935</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4218,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J979"/>
+  <dimension ref="A1:J980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29858,6 +29864,38 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="980" spans="1:10">
+      <c r="A980" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C980" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D980" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E980" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F980" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G980" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H980" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I980" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J980" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="1165">
   <si>
     <t>subject</t>
   </si>
@@ -3486,6 +3486,33 @@
   </si>
   <si>
     <t>230612_221935</t>
+  </si>
+  <si>
+    <t>BL-003_025_230613</t>
+  </si>
+  <si>
+    <t>230613_133946</t>
+  </si>
+  <si>
+    <t>230613_135455</t>
+  </si>
+  <si>
+    <t>230613_135708</t>
+  </si>
+  <si>
+    <t>230613_135819</t>
+  </si>
+  <si>
+    <t>230613_140252</t>
+  </si>
+  <si>
+    <t>230613_140439</t>
+  </si>
+  <si>
+    <t>230613_143824</t>
+  </si>
+  <si>
+    <t>230613_145439</t>
   </si>
 </sst>
 </file>
@@ -4218,7 +4245,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J980"/>
+  <dimension ref="A1:J988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29896,6 +29923,262 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="981" spans="1:10">
+      <c r="A981" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E981" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F981" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G981" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H981" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I981" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J981" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10">
+      <c r="A982" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C982" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D982" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E982" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F982" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G982" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H982" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I982" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J982" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="983" spans="1:10">
+      <c r="A983" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C983" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D983" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E983" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F983" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G983" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H983" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I983" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J983" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="984" spans="1:10">
+      <c r="A984" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C984" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D984" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E984" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F984" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G984" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H984" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I984" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J984" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="985" spans="1:10">
+      <c r="A985" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C985" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D985" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E985" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F985" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G985" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H985" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I985" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J985" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="986" spans="1:10">
+      <c r="A986" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C986" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D986" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E986" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F986" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G986" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H986" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I986" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J986" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="987" spans="1:10">
+      <c r="A987" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C987" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D987" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E987" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F987" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G987" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H987" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I987" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J987" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="988" spans="1:10">
+      <c r="A988" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C988" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D988" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E988" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F988" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G988" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H988" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I988" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J988" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="1167">
   <si>
     <t>subject</t>
   </si>
@@ -3513,6 +3513,12 @@
   </si>
   <si>
     <t>230613_145439</t>
+  </si>
+  <si>
+    <t>230613_164609</t>
+  </si>
+  <si>
+    <t>230613_202639</t>
   </si>
 </sst>
 </file>
@@ -4245,7 +4251,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J988"/>
+  <dimension ref="A1:J990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30179,6 +30185,70 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="989" spans="1:10">
+      <c r="A989" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E989" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F989" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G989" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H989" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I989" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J989" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10">
+      <c r="A990" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E990" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F990" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H990" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I990" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J990" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8109" uniqueCount="1173">
   <si>
     <t>subject</t>
   </si>
@@ -3519,6 +3519,24 @@
   </si>
   <si>
     <t>230613_202639</t>
+  </si>
+  <si>
+    <t>BL-003_024_230614</t>
+  </si>
+  <si>
+    <t>230614_142821</t>
+  </si>
+  <si>
+    <t>BL-003_025_230614</t>
+  </si>
+  <si>
+    <t>230614_145845</t>
+  </si>
+  <si>
+    <t>230614_145951</t>
+  </si>
+  <si>
+    <t>230614_161241</t>
   </si>
 </sst>
 </file>
@@ -4251,7 +4269,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J990"/>
+  <dimension ref="A1:J994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30249,6 +30267,134 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="991" spans="1:10">
+      <c r="A991" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C991" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E991" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F991" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G991" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H991" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I991" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J991" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="992" spans="1:10">
+      <c r="A992" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D992" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E992" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F992" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G992" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H992" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I992" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J992" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10">
+      <c r="A993" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E993" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F993" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G993" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H993" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I993" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J993" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10">
+      <c r="A994" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E994" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F994" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G994" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H994" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I994" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J994" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8109" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8110" uniqueCount="1173">
   <si>
     <t>subject</t>
   </si>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8110" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8279" uniqueCount="1192">
   <si>
     <t>subject</t>
   </si>
@@ -3537,6 +3537,63 @@
   </si>
   <si>
     <t>230614_161241</t>
+  </si>
+  <si>
+    <t>BL-003_025_230619</t>
+  </si>
+  <si>
+    <t>230619_235230</t>
+  </si>
+  <si>
+    <t>230619_235558</t>
+  </si>
+  <si>
+    <t>BL-003_025_230620</t>
+  </si>
+  <si>
+    <t>230620_002256</t>
+  </si>
+  <si>
+    <t>230620_002719</t>
+  </si>
+  <si>
+    <t>230620_003239</t>
+  </si>
+  <si>
+    <t>230620_003430</t>
+  </si>
+  <si>
+    <t>230620_003443</t>
+  </si>
+  <si>
+    <t>230620_003713</t>
+  </si>
+  <si>
+    <t>230620_003756</t>
+  </si>
+  <si>
+    <t>230620_004343</t>
+  </si>
+  <si>
+    <t>230620_005035</t>
+  </si>
+  <si>
+    <t>230620_005851</t>
+  </si>
+  <si>
+    <t>230620_010150</t>
+  </si>
+  <si>
+    <t>230620_011017</t>
+  </si>
+  <si>
+    <t>230620_012151</t>
+  </si>
+  <si>
+    <t>230620_012558</t>
+  </si>
+  <si>
+    <t>230620_012711</t>
   </si>
 </sst>
 </file>
@@ -4269,7 +4326,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J994"/>
+  <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30395,6 +30452,550 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="995" spans="1:10">
+      <c r="A995" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E995" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F995" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G995" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H995" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I995" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J995" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10">
+      <c r="A996" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E996" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F996" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G996" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H996" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I996" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J996" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10">
+      <c r="A997" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E997" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F997" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G997" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H997" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I997" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J997" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10">
+      <c r="A998" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E998" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F998" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G998" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H998" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I998" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J998" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10">
+      <c r="A999" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C999" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E999" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F999" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G999" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H999" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I999" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J999" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10">
+      <c r="A1000" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1000" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1000" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1000" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1000" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1000" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1000" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10">
+      <c r="A1001" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1001" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1001" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E1001" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1001" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1001" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1001" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1001" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1001" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10">
+      <c r="A1002" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1002" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1002" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1002" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1002" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1002" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1002" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1002" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10">
+      <c r="A1003" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1003" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1003" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1003" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1003" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1003" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1003" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10">
+      <c r="A1004" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1004" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1004" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1004" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1004" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1004" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1004" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1004" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10">
+      <c r="A1005" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E1005" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1005" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1005" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1005" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1005" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1005" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10">
+      <c r="A1006" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1006" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1006" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1006" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1006" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1006" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1006" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1006" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10">
+      <c r="A1007" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1007" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1007" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1007" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1007" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1007" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1007" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1007" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1007" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10">
+      <c r="A1008" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1008" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1008" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E1008" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1008" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1008" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1008" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1008" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1008" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10">
+      <c r="A1009" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1009" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1009" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1009" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1009" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1009" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1009" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10">
+      <c r="A1010" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1010" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1010" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1010" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1010" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1010" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1010" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10">
+      <c r="A1011" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1011" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1011" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1011" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="G1011" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1011" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1011" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1011" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recordings/metadata.xlsx
+++ b/Recordings/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8279" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8280" uniqueCount="1192">
   <si>
     <t>subject</t>
   </si>
